--- a/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200702.xlsx
+++ b/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200702.xlsx
@@ -1705,29 +1705,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1751,6 +1736,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1759,11 +1750,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2272,7 +2272,7 @@
         <xdr:cNvPr id="23" name="直接连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2323,7 +2323,7 @@
         <xdr:cNvPr id="30" name="直接连接符 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2382,7 +2382,7 @@
         <xdr:cNvPr id="32" name="直接连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2441,7 +2441,7 @@
         <xdr:cNvPr id="33" name="直接连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2500,7 +2500,7 @@
         <xdr:cNvPr id="35" name="直接连接符 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2559,7 +2559,7 @@
         <xdr:cNvPr id="36" name="直接连接符 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2610,7 @@
         <xdr:cNvPr id="40" name="直接连接符 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2669,7 +2669,7 @@
         <xdr:cNvPr id="42" name="直接连接符 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2728,7 +2728,7 @@
         <xdr:cNvPr id="43" name="直接连接符 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2779,7 +2779,7 @@
         <xdr:cNvPr id="45" name="直接连接符 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2838,7 +2838,7 @@
         <xdr:cNvPr id="47" name="直接连接符 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2897,7 +2897,7 @@
         <xdr:cNvPr id="49" name="直接连接符 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2948,7 +2948,7 @@
         <xdr:cNvPr id="52" name="直接连接符 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3007,7 +3007,7 @@
         <xdr:cNvPr id="53" name="直接连接符 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3066,7 +3066,7 @@
         <xdr:cNvPr id="55" name="直接连接符 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3125,7 +3125,7 @@
         <xdr:cNvPr id="58" name="直接连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3184,7 +3184,7 @@
         <xdr:cNvPr id="59" name="直接连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3243,7 +3243,7 @@
         <xdr:cNvPr id="61" name="直接连接符 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3294,7 +3294,7 @@
         <xdr:cNvPr id="63" name="直接连接符 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3345,7 +3345,7 @@
         <xdr:cNvPr id="34" name="直接连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3396,7 +3396,7 @@
         <xdr:cNvPr id="37" name="直接连接符 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3455,7 +3455,7 @@
         <xdr:cNvPr id="38" name="直接连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3818,7 +3818,7 @@
       <pane xSplit="14" ySplit="4" topLeftCell="AC5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J88" sqref="J88"/>
+      <selection pane="bottomRight" activeCell="M75" sqref="M75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -3841,21 +3841,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="36.75" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="74" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
       <c r="N1" s="72"/>
     </row>
     <row r="2" spans="1:64" ht="17.25" customHeight="1">
@@ -3876,180 +3876,180 @@
         <v>43992</v>
       </c>
       <c r="N2" s="95"/>
-      <c r="O2" s="77">
+      <c r="O2" s="75">
         <v>43983</v>
       </c>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="78"/>
-      <c r="Y2" s="78"/>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="78"/>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="82"/>
-      <c r="AI2" s="77">
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="76"/>
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="76"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="76"/>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="75">
         <v>44013</v>
       </c>
-      <c r="AJ2" s="78"/>
-      <c r="AK2" s="78"/>
-      <c r="AL2" s="78"/>
-      <c r="AM2" s="78"/>
-      <c r="AN2" s="78"/>
-      <c r="AO2" s="78"/>
-      <c r="AP2" s="78"/>
-      <c r="AQ2" s="78"/>
-      <c r="AR2" s="78"/>
-      <c r="AS2" s="78"/>
-      <c r="AT2" s="78"/>
-      <c r="AU2" s="78"/>
-      <c r="AV2" s="78"/>
-      <c r="AW2" s="78"/>
-      <c r="AX2" s="78"/>
-      <c r="AY2" s="78"/>
-      <c r="AZ2" s="78"/>
-      <c r="BA2" s="78"/>
-      <c r="BB2" s="82"/>
-      <c r="BC2" s="77">
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="76"/>
+      <c r="AL2" s="76"/>
+      <c r="AM2" s="76"/>
+      <c r="AN2" s="76"/>
+      <c r="AO2" s="76"/>
+      <c r="AP2" s="76"/>
+      <c r="AQ2" s="76"/>
+      <c r="AR2" s="76"/>
+      <c r="AS2" s="76"/>
+      <c r="AT2" s="76"/>
+      <c r="AU2" s="76"/>
+      <c r="AV2" s="76"/>
+      <c r="AW2" s="76"/>
+      <c r="AX2" s="76"/>
+      <c r="AY2" s="76"/>
+      <c r="AZ2" s="76"/>
+      <c r="BA2" s="76"/>
+      <c r="BB2" s="77"/>
+      <c r="BC2" s="75">
         <v>44044</v>
       </c>
-      <c r="BD2" s="78"/>
-      <c r="BE2" s="78"/>
-      <c r="BF2" s="78"/>
-      <c r="BG2" s="78"/>
-      <c r="BH2" s="78"/>
-      <c r="BI2" s="78"/>
-      <c r="BJ2" s="78"/>
-      <c r="BK2" s="78"/>
-      <c r="BL2" s="78"/>
+      <c r="BD2" s="76"/>
+      <c r="BE2" s="76"/>
+      <c r="BF2" s="76"/>
+      <c r="BG2" s="76"/>
+      <c r="BH2" s="76"/>
+      <c r="BI2" s="76"/>
+      <c r="BJ2" s="76"/>
+      <c r="BK2" s="76"/>
+      <c r="BL2" s="76"/>
     </row>
     <row r="3" spans="1:64">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="I3" s="79" t="s">
+      <c r="I3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="79" t="s">
+      <c r="J3" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="K3" s="79" t="s">
+      <c r="K3" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="89" t="s">
+      <c r="L3" s="86" t="s">
         <v>120</v>
       </c>
-      <c r="M3" s="79" t="s">
+      <c r="M3" s="84" t="s">
         <v>123</v>
       </c>
-      <c r="N3" s="79" t="s">
+      <c r="N3" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="O3" s="74">
+      <c r="O3" s="89">
         <v>43990</v>
       </c>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="74">
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="89">
         <v>43997</v>
       </c>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="74">
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="89">
         <v>44004</v>
       </c>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="74">
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="93"/>
+      <c r="AD3" s="89">
         <v>44011</v>
       </c>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="75"/>
-      <c r="AH3" s="76"/>
-      <c r="AI3" s="74">
+      <c r="AE3" s="90"/>
+      <c r="AF3" s="90"/>
+      <c r="AG3" s="90"/>
+      <c r="AH3" s="93"/>
+      <c r="AI3" s="89">
         <v>44018</v>
       </c>
-      <c r="AJ3" s="75"/>
-      <c r="AK3" s="75"/>
-      <c r="AL3" s="75"/>
-      <c r="AM3" s="76"/>
-      <c r="AN3" s="74">
+      <c r="AJ3" s="90"/>
+      <c r="AK3" s="90"/>
+      <c r="AL3" s="90"/>
+      <c r="AM3" s="93"/>
+      <c r="AN3" s="89">
         <v>44025</v>
       </c>
-      <c r="AO3" s="75"/>
-      <c r="AP3" s="75"/>
-      <c r="AQ3" s="75"/>
-      <c r="AR3" s="76"/>
-      <c r="AS3" s="74">
+      <c r="AO3" s="90"/>
+      <c r="AP3" s="90"/>
+      <c r="AQ3" s="90"/>
+      <c r="AR3" s="93"/>
+      <c r="AS3" s="89">
         <v>44032</v>
       </c>
-      <c r="AT3" s="75"/>
-      <c r="AU3" s="75"/>
-      <c r="AV3" s="75"/>
-      <c r="AW3" s="76"/>
-      <c r="AX3" s="74">
+      <c r="AT3" s="90"/>
+      <c r="AU3" s="90"/>
+      <c r="AV3" s="90"/>
+      <c r="AW3" s="93"/>
+      <c r="AX3" s="89">
         <v>44039</v>
       </c>
-      <c r="AY3" s="75"/>
-      <c r="AZ3" s="75"/>
-      <c r="BA3" s="75"/>
-      <c r="BB3" s="76"/>
-      <c r="BC3" s="74">
+      <c r="AY3" s="90"/>
+      <c r="AZ3" s="90"/>
+      <c r="BA3" s="90"/>
+      <c r="BB3" s="93"/>
+      <c r="BC3" s="89">
         <v>44046</v>
       </c>
-      <c r="BD3" s="75"/>
-      <c r="BE3" s="75"/>
-      <c r="BF3" s="75"/>
-      <c r="BG3" s="76"/>
-      <c r="BH3" s="74">
+      <c r="BD3" s="90"/>
+      <c r="BE3" s="90"/>
+      <c r="BF3" s="90"/>
+      <c r="BG3" s="93"/>
+      <c r="BH3" s="89">
         <v>44053</v>
       </c>
-      <c r="BI3" s="75"/>
-      <c r="BJ3" s="75"/>
-      <c r="BK3" s="75"/>
-      <c r="BL3" s="76"/>
+      <c r="BI3" s="90"/>
+      <c r="BJ3" s="90"/>
+      <c r="BK3" s="90"/>
+      <c r="BL3" s="93"/>
     </row>
     <row r="4" spans="1:64">
-      <c r="A4" s="86"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
       <c r="O4" s="5" t="s">
         <v>111</v>
       </c>
@@ -17030,6 +17030,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="BC2:BL2"/>
+    <mergeCell ref="BH3:BL3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="AI3:AM3"/>
+    <mergeCell ref="AN3:AR3"/>
+    <mergeCell ref="AS3:AW3"/>
+    <mergeCell ref="AI2:BB2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="O2:AH2"/>
     <mergeCell ref="A3:G4"/>
@@ -17046,17 +17057,6 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="BC2:BL2"/>
-    <mergeCell ref="BH3:BL3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="AI3:AM3"/>
-    <mergeCell ref="AN3:AR3"/>
-    <mergeCell ref="AS3:AW3"/>
-    <mergeCell ref="AI2:BB2"/>
-    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200702.xlsx
+++ b/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200702.xlsx
@@ -1705,8 +1705,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1714,8 +1720,20 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1736,12 +1754,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1750,26 +1762,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2272,7 +2272,7 @@
         <xdr:cNvPr id="23" name="直接连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2323,7 +2323,7 @@
         <xdr:cNvPr id="30" name="直接连接符 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2382,7 +2382,7 @@
         <xdr:cNvPr id="32" name="直接连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2441,7 +2441,7 @@
         <xdr:cNvPr id="33" name="直接连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2500,7 +2500,7 @@
         <xdr:cNvPr id="35" name="直接连接符 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2559,7 +2559,7 @@
         <xdr:cNvPr id="36" name="直接连接符 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2610,7 @@
         <xdr:cNvPr id="40" name="直接连接符 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2669,7 +2669,7 @@
         <xdr:cNvPr id="42" name="直接连接符 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2728,7 +2728,7 @@
         <xdr:cNvPr id="43" name="直接连接符 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2779,7 +2779,7 @@
         <xdr:cNvPr id="45" name="直接连接符 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2838,7 +2838,7 @@
         <xdr:cNvPr id="47" name="直接连接符 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2897,7 +2897,7 @@
         <xdr:cNvPr id="49" name="直接连接符 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2948,7 +2948,7 @@
         <xdr:cNvPr id="52" name="直接连接符 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3007,7 +3007,7 @@
         <xdr:cNvPr id="53" name="直接连接符 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3066,7 +3066,7 @@
         <xdr:cNvPr id="55" name="直接连接符 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3125,7 +3125,7 @@
         <xdr:cNvPr id="58" name="直接连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3184,7 +3184,7 @@
         <xdr:cNvPr id="59" name="直接连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3243,7 +3243,7 @@
         <xdr:cNvPr id="61" name="直接连接符 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3294,7 +3294,7 @@
         <xdr:cNvPr id="63" name="直接连接符 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3345,7 +3345,7 @@
         <xdr:cNvPr id="34" name="直接连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3396,7 +3396,7 @@
         <xdr:cNvPr id="37" name="直接连接符 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3455,7 +3455,7 @@
         <xdr:cNvPr id="38" name="直接连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3818,7 +3818,7 @@
       <pane xSplit="14" ySplit="4" topLeftCell="AC5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M75" sqref="M75"/>
+      <selection pane="bottomRight" activeCell="M78" sqref="M78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -3841,215 +3841,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="36.75" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="83" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
       <c r="N1" s="72"/>
     </row>
     <row r="2" spans="1:64" ht="17.25" customHeight="1">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="95" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="95">
+      <c r="B2" s="95"/>
+      <c r="C2" s="82">
         <f ca="1">TODAY()</f>
-        <v>44028</v>
-      </c>
-      <c r="D2" s="95"/>
-      <c r="K2" s="94" t="s">
+        <v>44032</v>
+      </c>
+      <c r="D2" s="82"/>
+      <c r="K2" s="95" t="s">
         <v>290</v>
       </c>
-      <c r="L2" s="94"/>
-      <c r="M2" s="95">
+      <c r="L2" s="95"/>
+      <c r="M2" s="82">
         <v>43992</v>
       </c>
-      <c r="N2" s="95"/>
-      <c r="O2" s="75">
+      <c r="N2" s="82"/>
+      <c r="O2" s="77">
         <v>43983</v>
       </c>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="76"/>
-      <c r="AA2" s="76"/>
-      <c r="AB2" s="76"/>
-      <c r="AC2" s="76"/>
-      <c r="AD2" s="76"/>
-      <c r="AE2" s="76"/>
-      <c r="AF2" s="76"/>
-      <c r="AG2" s="76"/>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="75">
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="78"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="81"/>
+      <c r="AI2" s="77">
         <v>44013</v>
       </c>
-      <c r="AJ2" s="76"/>
-      <c r="AK2" s="76"/>
-      <c r="AL2" s="76"/>
-      <c r="AM2" s="76"/>
-      <c r="AN2" s="76"/>
-      <c r="AO2" s="76"/>
-      <c r="AP2" s="76"/>
-      <c r="AQ2" s="76"/>
-      <c r="AR2" s="76"/>
-      <c r="AS2" s="76"/>
-      <c r="AT2" s="76"/>
-      <c r="AU2" s="76"/>
-      <c r="AV2" s="76"/>
-      <c r="AW2" s="76"/>
-      <c r="AX2" s="76"/>
-      <c r="AY2" s="76"/>
-      <c r="AZ2" s="76"/>
-      <c r="BA2" s="76"/>
-      <c r="BB2" s="77"/>
-      <c r="BC2" s="75">
+      <c r="AJ2" s="78"/>
+      <c r="AK2" s="78"/>
+      <c r="AL2" s="78"/>
+      <c r="AM2" s="78"/>
+      <c r="AN2" s="78"/>
+      <c r="AO2" s="78"/>
+      <c r="AP2" s="78"/>
+      <c r="AQ2" s="78"/>
+      <c r="AR2" s="78"/>
+      <c r="AS2" s="78"/>
+      <c r="AT2" s="78"/>
+      <c r="AU2" s="78"/>
+      <c r="AV2" s="78"/>
+      <c r="AW2" s="78"/>
+      <c r="AX2" s="78"/>
+      <c r="AY2" s="78"/>
+      <c r="AZ2" s="78"/>
+      <c r="BA2" s="78"/>
+      <c r="BB2" s="81"/>
+      <c r="BC2" s="77">
         <v>44044</v>
       </c>
-      <c r="BD2" s="76"/>
-      <c r="BE2" s="76"/>
-      <c r="BF2" s="76"/>
-      <c r="BG2" s="76"/>
-      <c r="BH2" s="76"/>
-      <c r="BI2" s="76"/>
-      <c r="BJ2" s="76"/>
-      <c r="BK2" s="76"/>
-      <c r="BL2" s="76"/>
+      <c r="BD2" s="78"/>
+      <c r="BE2" s="78"/>
+      <c r="BF2" s="78"/>
+      <c r="BG2" s="78"/>
+      <c r="BH2" s="78"/>
+      <c r="BI2" s="78"/>
+      <c r="BJ2" s="78"/>
+      <c r="BK2" s="78"/>
+      <c r="BL2" s="78"/>
     </row>
     <row r="3" spans="1:64">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="I3" s="84" t="s">
+      <c r="I3" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="84" t="s">
+      <c r="J3" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="K3" s="84" t="s">
+      <c r="K3" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="86" t="s">
+      <c r="L3" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="M3" s="84" t="s">
+      <c r="M3" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="N3" s="84" t="s">
+      <c r="N3" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="O3" s="89">
+      <c r="O3" s="74">
         <v>43990</v>
       </c>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="91"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="89">
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="74">
         <v>43997</v>
       </c>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="89">
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="74">
         <v>44004</v>
       </c>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="93"/>
-      <c r="AD3" s="89">
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="74">
         <v>44011</v>
       </c>
-      <c r="AE3" s="90"/>
-      <c r="AF3" s="90"/>
-      <c r="AG3" s="90"/>
-      <c r="AH3" s="93"/>
-      <c r="AI3" s="89">
+      <c r="AE3" s="75"/>
+      <c r="AF3" s="75"/>
+      <c r="AG3" s="75"/>
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="74">
         <v>44018</v>
       </c>
-      <c r="AJ3" s="90"/>
-      <c r="AK3" s="90"/>
-      <c r="AL3" s="90"/>
-      <c r="AM3" s="93"/>
-      <c r="AN3" s="89">
+      <c r="AJ3" s="75"/>
+      <c r="AK3" s="75"/>
+      <c r="AL3" s="75"/>
+      <c r="AM3" s="76"/>
+      <c r="AN3" s="74">
         <v>44025</v>
       </c>
-      <c r="AO3" s="90"/>
-      <c r="AP3" s="90"/>
-      <c r="AQ3" s="90"/>
-      <c r="AR3" s="93"/>
-      <c r="AS3" s="89">
+      <c r="AO3" s="75"/>
+      <c r="AP3" s="75"/>
+      <c r="AQ3" s="75"/>
+      <c r="AR3" s="76"/>
+      <c r="AS3" s="74">
         <v>44032</v>
       </c>
-      <c r="AT3" s="90"/>
-      <c r="AU3" s="90"/>
-      <c r="AV3" s="90"/>
-      <c r="AW3" s="93"/>
-      <c r="AX3" s="89">
+      <c r="AT3" s="75"/>
+      <c r="AU3" s="75"/>
+      <c r="AV3" s="75"/>
+      <c r="AW3" s="76"/>
+      <c r="AX3" s="74">
         <v>44039</v>
       </c>
-      <c r="AY3" s="90"/>
-      <c r="AZ3" s="90"/>
-      <c r="BA3" s="90"/>
-      <c r="BB3" s="93"/>
-      <c r="BC3" s="89">
+      <c r="AY3" s="75"/>
+      <c r="AZ3" s="75"/>
+      <c r="BA3" s="75"/>
+      <c r="BB3" s="76"/>
+      <c r="BC3" s="74">
         <v>44046</v>
       </c>
-      <c r="BD3" s="90"/>
-      <c r="BE3" s="90"/>
-      <c r="BF3" s="90"/>
-      <c r="BG3" s="93"/>
-      <c r="BH3" s="89">
+      <c r="BD3" s="75"/>
+      <c r="BE3" s="75"/>
+      <c r="BF3" s="75"/>
+      <c r="BG3" s="76"/>
+      <c r="BH3" s="74">
         <v>44053</v>
       </c>
-      <c r="BI3" s="90"/>
-      <c r="BJ3" s="90"/>
-      <c r="BK3" s="90"/>
-      <c r="BL3" s="93"/>
+      <c r="BI3" s="75"/>
+      <c r="BJ3" s="75"/>
+      <c r="BK3" s="75"/>
+      <c r="BL3" s="76"/>
     </row>
     <row r="4" spans="1:64">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
       <c r="O4" s="5" t="s">
         <v>111</v>
       </c>
@@ -6130,9 +6130,13 @@
       <c r="J29" s="44">
         <v>44029</v>
       </c>
-      <c r="K29" s="45"/>
+      <c r="K29" s="44">
+        <v>44032</v>
+      </c>
       <c r="L29" s="42"/>
-      <c r="M29" s="39"/>
+      <c r="M29" s="39">
+        <v>1</v>
+      </c>
       <c r="N29" s="63" t="s">
         <v>305</v>
       </c>
@@ -17030,17 +17034,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="BC2:BL2"/>
-    <mergeCell ref="BH3:BL3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="AI3:AM3"/>
-    <mergeCell ref="AN3:AR3"/>
-    <mergeCell ref="AS3:AW3"/>
-    <mergeCell ref="AI2:BB2"/>
-    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="O2:AH2"/>
     <mergeCell ref="A3:G4"/>
@@ -17057,6 +17050,17 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="BC2:BL2"/>
+    <mergeCell ref="BH3:BL3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="AI3:AM3"/>
+    <mergeCell ref="AN3:AR3"/>
+    <mergeCell ref="AS3:AW3"/>
+    <mergeCell ref="AI2:BB2"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200702.xlsx
+++ b/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200702.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="389">
   <si>
     <t>标识号</t>
   </si>
@@ -525,626 +525,931 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作分解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗志勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体设计文档修改及确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZPDU执行板校准联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准系统核心业务联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗志勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭明东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭明东、罗志勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭工、欧阳、罗工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗志勇、彭明东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧阳玲军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭明东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段成果交付</t>
+  </si>
+  <si>
+    <t>SI序列号功能增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI直流校准功能改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交流三相、直流标准源软件控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI表头软件修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准系统增加SI校准业务功能</t>
+  </si>
+  <si>
+    <t>1.5.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP表头软件修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI和IP设备校准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.3.3</t>
+  </si>
+  <si>
+    <t>1.5.3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP-Vi/3单三相直流协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准系统增加IP/SI校准功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李科杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李科杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李科杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭明东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭明东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗志勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.3.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加对IP V1校准业务功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.3.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加对IP V3校准业务功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗志勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗志勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.4.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI校准功能联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP校准功能联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭明东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭工、欧阳、罗工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗工、李工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU执行板软件修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU表头校准部分修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZPDU执行板序列号功能增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZPDU执行板校准功能改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU执行板序列号功能增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU执行板校准功能改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU表头序列号功能增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU表头校准功能改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧阳玲军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧阳玲军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢红曼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翟忠宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准系统增加MPDU/RPDU校准功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI单相、三相、直流协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU执行板协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.4.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU表头协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.4.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加对RPDU校准业务功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.4.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPDU执行板协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.4.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加对MPDU互感器校准业务功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.4.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加对MPDU锰铜校准业务功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.5.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.5.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.4.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.6.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU校准功能联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPDU校准功能联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭工、欧阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前日期：</t>
+  </si>
+  <si>
+    <t>起始日期：</t>
+  </si>
+  <si>
+    <t>阶段联调及收尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能PDU质量管理系统项目进度计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁保持执行板软件修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准系统对磁保持执行板功能支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁保持执行板校准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目文档整理及完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗志勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭明东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁保持校准联调及交付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江长胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.3.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁保持执行板（八位）提供三块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP-V1/3序列号功能增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP-V1/3交流校准功能改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP-V1/3直流校准功能改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC管理系统子项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC管理系统子项目规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义目标和需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子项目任务分解、具体实施进度安排</t>
+  </si>
+  <si>
+    <t>MAC管理系统接口协议确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC管理系统总体设计方案编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各PDU与MAC管理系统协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP-PDU软件改进MAC协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPDU主控软件改进MAC协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZPDU主控软件改进MAC协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU主控软件改进MAC协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC管理系统软件开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件界面原型设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口协议及MAC地址创建功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI交流校准功能改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能联调及阶段收尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备出厂恢复管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BM、MPDU执行板序列号功能增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BM、MPDU执行板校准功能改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPDU、RPDU、BM设备校准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义目标、确定需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出厂恢复接口协议确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出厂恢复系统总体设计方案编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDU出厂恢复接口协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BM、SI-PDU出厂恢复功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP-V1/V3出厂恢复功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPDU出厂恢复功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU出厂恢复功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZPDU出厂恢复功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出厂恢复管理系统项目规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出厂恢复系统软件开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口协议及恢复设置检测功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">核心功能、日志记录等功能实现 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统联调、功能完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">核心功能、日志记录实现 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统联调、功能完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BM、MPDU执行板软件修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老化监测系统项目规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定目标、收集需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老化监测方案讨论和初步确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体设计方案编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础实验的验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老化监测系统软件开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各PDU通讯功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.3</t>
+  </si>
+  <si>
+    <t>4.2.4</t>
+  </si>
+  <si>
+    <t>核心功能、关键业务功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能完善、系统调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>校准系统子项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作分解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗志勇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总体设计文档修改及确认</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4.2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4.2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZPDU执行板校准联调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校准系统核心业务联调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗志勇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭明东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭明东、罗志勇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭工、欧阳、罗工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗志勇、彭明东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧阳玲军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭明东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4.2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阶段成果交付</t>
-  </si>
-  <si>
-    <t>SI序列号功能增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SI直流校准功能改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交流三相、直流标准源软件控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SI表头软件修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校准系统增加SI校准业务功能</t>
-  </si>
-  <si>
-    <t>1.5.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SI交流校准功能改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP表头软件修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SI和IP设备校准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.3.3</t>
-  </si>
-  <si>
-    <t>1.5.3.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP序列号功能增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP交流校准功能改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP直流校准功能改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.3.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.3.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP-Vi/3单三相直流协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校准系统增加IP/SI校准功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李科杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李科杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李科杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭明东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭明东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗志勇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.3.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加对IP V1校准业务功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.3.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.3.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加对IP V3校准业务功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗志勇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗志勇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.4.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SI校准功能联调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP校准功能联调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭明东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭工、欧阳、罗工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗工、李工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.4.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPDU和RPDU设备校准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPDU执行板软件修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU执行板软件修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU表头校准部分修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZPDU执行板序列号功能增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPDU执行板序列号功能增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZPDU执行板校准功能改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU执行板序列号功能增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPDU执行板校准功能改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU执行板校准功能改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.3.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.3.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU表头序列号功能增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU表头校准功能改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧阳玲军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧阳玲军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢红曼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>翟忠宁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校准系统增加MPDU/RPDU校准功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SI单相、三相、直流协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU执行板协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.4.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.4.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU表头协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.4.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加对RPDU校准业务功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.4.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPDU执行板协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.4.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加对MPDU互感器校准业务功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.4.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加对MPDU锰铜校准业务功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.5.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.5.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.4.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.6.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU校准功能联调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPDU校准功能联调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭工、欧阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30 天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAC地址管理系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备出厂恢复管理系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产测试系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老化测试管理系统</t>
+    <t>老化监测系统子项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产质量检测系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>后台服务管理平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前日期：</t>
-  </si>
-  <si>
-    <t>起始日期：</t>
-  </si>
-  <si>
-    <t>阶段联调及收尾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能PDU质量管理系统项目进度计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4.3.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磁保持执行板软件修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校准系统对磁保持执行板功能支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4.3.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磁保持执行板校准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目文档整理及完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗志勇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭明东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磁保持校准联调及交付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江长胜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4.3.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4.3.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4.3.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4.3.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磁保持执行板（八位）提供三块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1267,7 +1572,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1511,6 +1816,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1518,7 +1832,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1705,14 +2019,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1720,20 +2038,8 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1754,6 +2060,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1762,14 +2074,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2272,7 +2596,7 @@
         <xdr:cNvPr id="23" name="直接连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2323,7 +2647,7 @@
         <xdr:cNvPr id="30" name="直接连接符 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2382,7 +2706,7 @@
         <xdr:cNvPr id="32" name="直接连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2441,7 +2765,7 @@
         <xdr:cNvPr id="33" name="直接连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2500,7 +2824,7 @@
         <xdr:cNvPr id="35" name="直接连接符 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2559,7 +2883,7 @@
         <xdr:cNvPr id="36" name="直接连接符 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2934,7 @@
         <xdr:cNvPr id="40" name="直接连接符 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2669,7 +2993,7 @@
         <xdr:cNvPr id="42" name="直接连接符 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2728,7 +3052,7 @@
         <xdr:cNvPr id="43" name="直接连接符 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2779,7 +3103,7 @@
         <xdr:cNvPr id="45" name="直接连接符 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2838,7 +3162,7 @@
         <xdr:cNvPr id="47" name="直接连接符 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2897,7 +3221,7 @@
         <xdr:cNvPr id="49" name="直接连接符 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2948,7 +3272,7 @@
         <xdr:cNvPr id="52" name="直接连接符 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3007,7 +3331,7 @@
         <xdr:cNvPr id="53" name="直接连接符 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3066,7 +3390,7 @@
         <xdr:cNvPr id="55" name="直接连接符 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3125,7 +3449,7 @@
         <xdr:cNvPr id="58" name="直接连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3184,7 +3508,7 @@
         <xdr:cNvPr id="59" name="直接连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3243,7 +3567,7 @@
         <xdr:cNvPr id="61" name="直接连接符 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3294,7 +3618,7 @@
         <xdr:cNvPr id="63" name="直接连接符 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3345,7 +3669,7 @@
         <xdr:cNvPr id="34" name="直接连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3396,7 +3720,7 @@
         <xdr:cNvPr id="37" name="直接连接符 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3455,7 +3779,7 @@
         <xdr:cNvPr id="38" name="直接连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3812,13 +4136,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BL192"/>
+  <dimension ref="A1:BL235"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="4" topLeftCell="AC5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="4" topLeftCell="O18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M78" sqref="M78"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -3841,97 +4165,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="36.75" customHeight="1">
-      <c r="A1" s="83" t="s">
-        <v>292</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
+      <c r="A1" s="80" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
       <c r="N1" s="72"/>
     </row>
     <row r="2" spans="1:64" ht="17.25" customHeight="1">
-      <c r="A2" s="95" t="s">
-        <v>289</v>
-      </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="82">
+      <c r="A2" s="100" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="100"/>
+      <c r="C2" s="101">
         <f ca="1">TODAY()</f>
-        <v>44032</v>
-      </c>
-      <c r="D2" s="82"/>
-      <c r="K2" s="95" t="s">
-        <v>290</v>
-      </c>
-      <c r="L2" s="95"/>
-      <c r="M2" s="82">
+        <v>44033</v>
+      </c>
+      <c r="D2" s="101"/>
+      <c r="K2" s="100" t="s">
+        <v>270</v>
+      </c>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101">
         <v>43992</v>
       </c>
-      <c r="N2" s="82"/>
-      <c r="O2" s="77">
+      <c r="N2" s="101"/>
+      <c r="O2" s="81">
         <v>43983</v>
       </c>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="78"/>
-      <c r="Y2" s="78"/>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="78"/>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="81"/>
-      <c r="AI2" s="77">
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="81">
         <v>44013</v>
       </c>
-      <c r="AJ2" s="78"/>
-      <c r="AK2" s="78"/>
-      <c r="AL2" s="78"/>
-      <c r="AM2" s="78"/>
-      <c r="AN2" s="78"/>
-      <c r="AO2" s="78"/>
-      <c r="AP2" s="78"/>
-      <c r="AQ2" s="78"/>
-      <c r="AR2" s="78"/>
-      <c r="AS2" s="78"/>
-      <c r="AT2" s="78"/>
-      <c r="AU2" s="78"/>
-      <c r="AV2" s="78"/>
-      <c r="AW2" s="78"/>
-      <c r="AX2" s="78"/>
-      <c r="AY2" s="78"/>
-      <c r="AZ2" s="78"/>
-      <c r="BA2" s="78"/>
-      <c r="BB2" s="81"/>
-      <c r="BC2" s="77">
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="82"/>
+      <c r="AL2" s="82"/>
+      <c r="AM2" s="82"/>
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="82"/>
+      <c r="AP2" s="82"/>
+      <c r="AQ2" s="82"/>
+      <c r="AR2" s="82"/>
+      <c r="AS2" s="82"/>
+      <c r="AT2" s="82"/>
+      <c r="AU2" s="82"/>
+      <c r="AV2" s="82"/>
+      <c r="AW2" s="82"/>
+      <c r="AX2" s="82"/>
+      <c r="AY2" s="82"/>
+      <c r="AZ2" s="82"/>
+      <c r="BA2" s="82"/>
+      <c r="BB2" s="83"/>
+      <c r="BC2" s="81">
         <v>44044</v>
       </c>
-      <c r="BD2" s="78"/>
-      <c r="BE2" s="78"/>
-      <c r="BF2" s="78"/>
-      <c r="BG2" s="78"/>
-      <c r="BH2" s="78"/>
-      <c r="BI2" s="78"/>
-      <c r="BJ2" s="78"/>
-      <c r="BK2" s="78"/>
-      <c r="BL2" s="78"/>
+      <c r="BD2" s="82"/>
+      <c r="BE2" s="82"/>
+      <c r="BF2" s="82"/>
+      <c r="BG2" s="82"/>
+      <c r="BH2" s="82"/>
+      <c r="BI2" s="82"/>
+      <c r="BJ2" s="82"/>
+      <c r="BK2" s="82"/>
+      <c r="BL2" s="82"/>
     </row>
     <row r="3" spans="1:64">
       <c r="A3" s="84" t="s">
@@ -3946,94 +4270,94 @@
       <c r="H3" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="I3" s="79" t="s">
+      <c r="I3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="79" t="s">
+      <c r="J3" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="K3" s="79" t="s">
+      <c r="K3" s="90" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="90" t="s">
+      <c r="L3" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="M3" s="79" t="s">
+      <c r="M3" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="N3" s="79" t="s">
+      <c r="N3" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="O3" s="74">
+      <c r="O3" s="95">
         <v>43990</v>
       </c>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="74">
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="95">
         <v>43997</v>
       </c>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="74">
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="95">
         <v>44004</v>
       </c>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="74">
+      <c r="Z3" s="96"/>
+      <c r="AA3" s="96"/>
+      <c r="AB3" s="96"/>
+      <c r="AC3" s="99"/>
+      <c r="AD3" s="95">
         <v>44011</v>
       </c>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="75"/>
-      <c r="AH3" s="76"/>
-      <c r="AI3" s="74">
+      <c r="AE3" s="96"/>
+      <c r="AF3" s="96"/>
+      <c r="AG3" s="96"/>
+      <c r="AH3" s="99"/>
+      <c r="AI3" s="95">
         <v>44018</v>
       </c>
-      <c r="AJ3" s="75"/>
-      <c r="AK3" s="75"/>
-      <c r="AL3" s="75"/>
-      <c r="AM3" s="76"/>
-      <c r="AN3" s="74">
+      <c r="AJ3" s="96"/>
+      <c r="AK3" s="96"/>
+      <c r="AL3" s="96"/>
+      <c r="AM3" s="99"/>
+      <c r="AN3" s="95">
         <v>44025</v>
       </c>
-      <c r="AO3" s="75"/>
-      <c r="AP3" s="75"/>
-      <c r="AQ3" s="75"/>
-      <c r="AR3" s="76"/>
-      <c r="AS3" s="74">
+      <c r="AO3" s="96"/>
+      <c r="AP3" s="96"/>
+      <c r="AQ3" s="96"/>
+      <c r="AR3" s="99"/>
+      <c r="AS3" s="95">
         <v>44032</v>
       </c>
-      <c r="AT3" s="75"/>
-      <c r="AU3" s="75"/>
-      <c r="AV3" s="75"/>
-      <c r="AW3" s="76"/>
-      <c r="AX3" s="74">
+      <c r="AT3" s="96"/>
+      <c r="AU3" s="96"/>
+      <c r="AV3" s="96"/>
+      <c r="AW3" s="99"/>
+      <c r="AX3" s="95">
         <v>44039</v>
       </c>
-      <c r="AY3" s="75"/>
-      <c r="AZ3" s="75"/>
-      <c r="BA3" s="75"/>
-      <c r="BB3" s="76"/>
-      <c r="BC3" s="74">
+      <c r="AY3" s="96"/>
+      <c r="AZ3" s="96"/>
+      <c r="BA3" s="96"/>
+      <c r="BB3" s="99"/>
+      <c r="BC3" s="95">
         <v>44046</v>
       </c>
-      <c r="BD3" s="75"/>
-      <c r="BE3" s="75"/>
-      <c r="BF3" s="75"/>
-      <c r="BG3" s="76"/>
-      <c r="BH3" s="74">
+      <c r="BD3" s="96"/>
+      <c r="BE3" s="96"/>
+      <c r="BF3" s="96"/>
+      <c r="BG3" s="99"/>
+      <c r="BH3" s="95">
         <v>44053</v>
       </c>
-      <c r="BI3" s="75"/>
-      <c r="BJ3" s="75"/>
-      <c r="BK3" s="75"/>
-      <c r="BL3" s="76"/>
+      <c r="BI3" s="96"/>
+      <c r="BJ3" s="96"/>
+      <c r="BK3" s="96"/>
+      <c r="BL3" s="99"/>
     </row>
     <row r="4" spans="1:64">
       <c r="A4" s="87"/>
@@ -4043,13 +4367,13 @@
       <c r="E4" s="88"/>
       <c r="F4" s="88"/>
       <c r="G4" s="89"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
       <c r="O4" s="5" t="s">
         <v>111</v>
       </c>
@@ -4206,7 +4530,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>155</v>
+        <v>385</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="16"/>
@@ -4353,10 +4677,10 @@
       <c r="A7" s="19"/>
       <c r="B7" s="23"/>
       <c r="C7" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>156</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>157</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
@@ -4378,7 +4702,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O7" s="66"/>
       <c r="P7" s="9"/>
@@ -4458,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O8" s="67"/>
       <c r="P8" s="10"/>
@@ -4513,10 +4837,10 @@
       <c r="A9" s="26"/>
       <c r="B9" s="15"/>
       <c r="C9" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="28" t="s">
         <v>160</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>161</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
@@ -4534,13 +4858,13 @@
         <v>44006</v>
       </c>
       <c r="L9" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M9" s="39">
         <v>1</v>
       </c>
       <c r="N9" s="62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O9" s="67"/>
       <c r="P9" s="10"/>
@@ -4620,7 +4944,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="62" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O10" s="67"/>
       <c r="P10" s="10"/>
@@ -4696,13 +5020,13 @@
         <v>44006</v>
       </c>
       <c r="L11" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M11" s="39">
         <v>1</v>
       </c>
       <c r="N11" s="62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O11" s="67"/>
       <c r="P11" s="10"/>
@@ -4831,7 +5155,7 @@
       <c r="BI12" s="10"/>
       <c r="BJ12" s="10"/>
     </row>
-    <row r="13" spans="1:64" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="13" spans="1:64" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A13" s="26"/>
       <c r="B13" s="15"/>
       <c r="C13" s="27" t="s">
@@ -4856,7 +5180,7 @@
         <v>44000</v>
       </c>
       <c r="L13" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M13" s="39">
         <v>1</v>
@@ -4913,7 +5237,7 @@
       <c r="BI13" s="10"/>
       <c r="BJ13" s="10"/>
     </row>
-    <row r="14" spans="1:64" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="14" spans="1:64" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A14" s="26"/>
       <c r="B14" s="15"/>
       <c r="C14" s="27" t="s">
@@ -4942,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="63" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O14" s="67"/>
       <c r="P14" s="10"/>
@@ -4993,7 +5317,7 @@
       <c r="BI14" s="10"/>
       <c r="BJ14" s="10"/>
     </row>
-    <row r="15" spans="1:64" s="8" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" collapsed="1">
+    <row r="15" spans="1:64" s="8" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A15" s="26"/>
       <c r="B15" s="27">
         <v>1.3</v>
@@ -5071,7 +5395,7 @@
       <c r="BI15" s="12"/>
       <c r="BJ15" s="12"/>
     </row>
-    <row r="16" spans="1:64" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="16" spans="1:64" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A16" s="26"/>
       <c r="B16" s="15"/>
       <c r="C16" s="27" t="s">
@@ -5100,7 +5424,7 @@
         <v>1</v>
       </c>
       <c r="N16" s="63" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O16" s="67"/>
       <c r="P16" s="10"/>
@@ -5151,7 +5475,7 @@
       <c r="BI16" s="10"/>
       <c r="BJ16" s="10"/>
     </row>
-    <row r="17" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="17" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A17" s="26"/>
       <c r="B17" s="15"/>
       <c r="C17" s="27" t="s">
@@ -5176,13 +5500,13 @@
         <v>44006</v>
       </c>
       <c r="L17" s="42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M17" s="39">
         <v>1</v>
       </c>
       <c r="N17" s="63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O17" s="67"/>
       <c r="P17" s="10"/>
@@ -5233,7 +5557,7 @@
       <c r="BI17" s="10"/>
       <c r="BJ17" s="10"/>
     </row>
-    <row r="18" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="18" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A18" s="26"/>
       <c r="B18" s="15"/>
       <c r="C18" s="27" t="s">
@@ -5258,13 +5582,13 @@
         <v>44012</v>
       </c>
       <c r="L18" s="42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M18" s="39">
         <v>1</v>
       </c>
       <c r="N18" s="63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O18" s="67"/>
       <c r="P18" s="10"/>
@@ -5315,7 +5639,7 @@
       <c r="BI18" s="10"/>
       <c r="BJ18" s="10"/>
     </row>
-    <row r="19" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="19" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A19" s="26"/>
       <c r="B19" s="15"/>
       <c r="C19" s="27" t="s">
@@ -5340,13 +5664,13 @@
         <v>44011</v>
       </c>
       <c r="L19" s="42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M19" s="39">
         <v>1</v>
       </c>
       <c r="N19" s="63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O19" s="67"/>
       <c r="P19" s="10"/>
@@ -5397,7 +5721,7 @@
       <c r="BI19" s="10"/>
       <c r="BJ19" s="10"/>
     </row>
-    <row r="20" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="20" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A20" s="26"/>
       <c r="B20" s="15"/>
       <c r="C20" s="27" t="s">
@@ -5422,13 +5746,13 @@
         <v>44015</v>
       </c>
       <c r="L20" s="42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M20" s="39">
         <v>1</v>
       </c>
       <c r="N20" s="63" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O20" s="67"/>
       <c r="P20" s="10"/>
@@ -5479,7 +5803,7 @@
       <c r="BI20" s="10"/>
       <c r="BJ20" s="10"/>
     </row>
-    <row r="21" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1" collapsed="1">
+    <row r="21" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A21" s="26"/>
       <c r="B21" s="15">
         <v>1.4</v>
@@ -5492,7 +5816,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="31"/>
       <c r="H21" s="43" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="I21" s="44">
         <v>44004</v>
@@ -5638,10 +5962,10 @@
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" s="31"/>
@@ -5658,13 +5982,13 @@
         <v>44013</v>
       </c>
       <c r="L23" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M23" s="39">
         <v>1</v>
       </c>
       <c r="N23" s="63" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="O23" s="67"/>
       <c r="P23" s="10"/>
@@ -5720,10 +6044,10 @@
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="F24" s="28"/>
       <c r="G24" s="31"/>
@@ -5740,13 +6064,13 @@
         <v>44019</v>
       </c>
       <c r="L24" s="42" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M24" s="39">
         <v>1</v>
       </c>
       <c r="N24" s="63" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O24" s="67"/>
       <c r="P24" s="10"/>
@@ -5801,10 +6125,10 @@
       <c r="A25" s="26"/>
       <c r="B25" s="32"/>
       <c r="C25" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E25" s="29"/>
       <c r="F25" s="29"/>
@@ -5876,10 +6200,10 @@
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
       <c r="D26" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="31"/>
@@ -5896,13 +6220,13 @@
         <v>44022</v>
       </c>
       <c r="L26" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M26" s="39">
         <v>1</v>
       </c>
       <c r="N26" s="63" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="O26" s="67"/>
       <c r="P26" s="10"/>
@@ -5958,7 +6282,7 @@
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
       <c r="D27" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E27" s="28" t="s">
         <v>154</v>
@@ -5978,13 +6302,13 @@
         <v>44028</v>
       </c>
       <c r="L27" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M27" s="39">
         <v>1</v>
       </c>
       <c r="N27" s="63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O27" s="67"/>
       <c r="P27" s="10"/>
@@ -6039,10 +6363,10 @@
       <c r="A28" s="26"/>
       <c r="B28" s="32"/>
       <c r="C28" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
@@ -6114,15 +6438,15 @@
       <c r="B29" s="32"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="31"/>
       <c r="H29" s="43" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="I29" s="44">
         <v>44029</v>
@@ -6138,7 +6462,7 @@
         <v>1</v>
       </c>
       <c r="N29" s="63" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="O29" s="67"/>
       <c r="P29" s="10"/>
@@ -6194,15 +6518,15 @@
       <c r="B30" s="32"/>
       <c r="C30" s="27"/>
       <c r="D30" s="28" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="31"/>
       <c r="H30" s="43" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="I30" s="44">
         <v>44032</v>
@@ -6212,7 +6536,7 @@
       </c>
       <c r="K30" s="45"/>
       <c r="L30" s="28" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="M30" s="39"/>
       <c r="N30" s="63" t="s">
@@ -6272,15 +6596,15 @@
       <c r="B31" s="32"/>
       <c r="C31" s="27"/>
       <c r="D31" s="28" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="F31" s="29"/>
       <c r="G31" s="31"/>
       <c r="H31" s="43" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="I31" s="44">
         <v>44032</v>
@@ -6290,11 +6614,11 @@
       </c>
       <c r="K31" s="45"/>
       <c r="L31" s="28" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="M31" s="39"/>
       <c r="N31" s="63" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="O31" s="67"/>
       <c r="P31" s="10"/>
@@ -6350,15 +6674,15 @@
       <c r="B32" s="32"/>
       <c r="C32" s="27"/>
       <c r="D32" s="28" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="31"/>
       <c r="H32" s="43" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="I32" s="44">
         <v>44032</v>
@@ -6368,11 +6692,11 @@
       </c>
       <c r="K32" s="45"/>
       <c r="L32" s="42" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="M32" s="39"/>
       <c r="N32" s="63" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="O32" s="67"/>
       <c r="P32" s="10"/>
@@ -6428,15 +6752,15 @@
       <c r="B33" s="32"/>
       <c r="C33" s="27"/>
       <c r="D33" s="28" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="F33" s="29"/>
       <c r="G33" s="31"/>
       <c r="H33" s="43" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="I33" s="44">
         <v>44039</v>
@@ -6446,11 +6770,11 @@
       </c>
       <c r="K33" s="45"/>
       <c r="L33" s="28" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="M33" s="39"/>
       <c r="N33" s="63" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="O33" s="67"/>
       <c r="P33" s="10"/>
@@ -6507,7 +6831,7 @@
         <v>1.5</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="28"/>
@@ -6569,21 +6893,27 @@
       <c r="BI34" s="10"/>
       <c r="BJ34" s="10"/>
     </row>
-    <row r="35" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="35" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A35" s="26"/>
       <c r="B35" s="32"/>
-      <c r="C35" s="69" t="s">
-        <v>189</v>
+      <c r="C35" s="32" t="s">
+        <v>323</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E35" s="28"/>
-      <c r="F35" s="51"/>
+      <c r="F35" s="29"/>
       <c r="G35" s="31"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
+      <c r="H35" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="I35" s="44">
+        <v>44046</v>
+      </c>
+      <c r="J35" s="44">
+        <v>44060</v>
+      </c>
       <c r="K35" s="45"/>
       <c r="L35" s="42"/>
       <c r="M35" s="40"/>
@@ -6637,17 +6967,17 @@
       <c r="BI35" s="10"/>
       <c r="BJ35" s="10"/>
     </row>
-    <row r="36" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="36" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A36" s="26"/>
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
       <c r="D36" s="27" t="s">
-        <v>191</v>
+        <v>324</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="F36" s="29"/>
+        <v>292</v>
+      </c>
+      <c r="F36" s="70"/>
       <c r="G36" s="31"/>
       <c r="H36" s="43" t="s">
         <v>127</v>
@@ -6660,7 +6990,7 @@
       <c r="L36" s="42"/>
       <c r="M36" s="40"/>
       <c r="N36" s="64" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="O36" s="67"/>
       <c r="P36" s="10"/>
@@ -6711,17 +7041,17 @@
       <c r="BI36" s="10"/>
       <c r="BJ36" s="10"/>
     </row>
-    <row r="37" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="37" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A37" s="26"/>
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
       <c r="D37" s="27" t="s">
-        <v>192</v>
+        <v>325</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="F37" s="29"/>
+        <v>293</v>
+      </c>
+      <c r="F37" s="70"/>
       <c r="G37" s="31"/>
       <c r="H37" s="43" t="s">
         <v>127</v>
@@ -6734,7 +7064,7 @@
       <c r="L37" s="42"/>
       <c r="M37" s="40"/>
       <c r="N37" s="64" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="O37" s="67"/>
       <c r="P37" s="10"/>
@@ -6785,15 +7115,15 @@
       <c r="BI37" s="10"/>
       <c r="BJ37" s="10"/>
     </row>
-    <row r="38" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="38" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A38" s="26"/>
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
       <c r="D38" s="27" t="s">
-        <v>193</v>
+        <v>326</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>187</v>
+        <v>294</v>
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="31"/>
@@ -6808,7 +7138,7 @@
       <c r="L38" s="42"/>
       <c r="M38" s="40"/>
       <c r="N38" s="64" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="O38" s="67"/>
       <c r="P38" s="10"/>
@@ -6859,21 +7189,27 @@
       <c r="BI38" s="10"/>
       <c r="BJ38" s="10"/>
     </row>
-    <row r="39" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="39" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A39" s="26"/>
       <c r="B39" s="32"/>
-      <c r="C39" s="32" t="s">
-        <v>194</v>
+      <c r="C39" s="69" t="s">
+        <v>327</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E39" s="28"/>
-      <c r="F39" s="29"/>
+      <c r="F39" s="51"/>
       <c r="G39" s="31"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
+      <c r="H39" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="I39" s="44">
+        <v>44046</v>
+      </c>
+      <c r="J39" s="44">
+        <v>44060</v>
+      </c>
       <c r="K39" s="45"/>
       <c r="L39" s="42"/>
       <c r="M39" s="40"/>
@@ -6927,17 +7263,17 @@
       <c r="BI39" s="10"/>
       <c r="BJ39" s="10"/>
     </row>
-    <row r="40" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="40" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A40" s="26"/>
       <c r="B40" s="32"/>
       <c r="C40" s="32"/>
       <c r="D40" s="27" t="s">
-        <v>202</v>
+        <v>328</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="F40" s="70"/>
+        <v>185</v>
+      </c>
+      <c r="F40" s="29"/>
       <c r="G40" s="31"/>
       <c r="H40" s="43" t="s">
         <v>127</v>
@@ -6950,7 +7286,7 @@
       <c r="L40" s="42"/>
       <c r="M40" s="40"/>
       <c r="N40" s="64" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="O40" s="67"/>
       <c r="P40" s="10"/>
@@ -7001,17 +7337,17 @@
       <c r="BI40" s="10"/>
       <c r="BJ40" s="10"/>
     </row>
-    <row r="41" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="41" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A41" s="26"/>
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
       <c r="D41" s="27" t="s">
-        <v>203</v>
+        <v>329</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="F41" s="70"/>
+        <v>332</v>
+      </c>
+      <c r="F41" s="29"/>
       <c r="G41" s="31"/>
       <c r="H41" s="43" t="s">
         <v>127</v>
@@ -7024,7 +7360,7 @@
       <c r="L41" s="42"/>
       <c r="M41" s="40"/>
       <c r="N41" s="64" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="O41" s="67"/>
       <c r="P41" s="10"/>
@@ -7075,15 +7411,15 @@
       <c r="BI41" s="10"/>
       <c r="BJ41" s="10"/>
     </row>
-    <row r="42" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="42" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A42" s="26"/>
       <c r="B42" s="32"/>
       <c r="C42" s="32"/>
       <c r="D42" s="27" t="s">
-        <v>205</v>
+        <v>330</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="31"/>
@@ -7098,7 +7434,7 @@
       <c r="L42" s="42"/>
       <c r="M42" s="40"/>
       <c r="N42" s="64" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="O42" s="67"/>
       <c r="P42" s="10"/>
@@ -7149,21 +7485,27 @@
       <c r="BI42" s="10"/>
       <c r="BJ42" s="10"/>
     </row>
-    <row r="43" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="43" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A43" s="26"/>
       <c r="B43" s="32"/>
       <c r="C43" s="69" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="E43" s="28"/>
       <c r="F43" s="29"/>
       <c r="G43" s="31"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
+      <c r="H43" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="I43" s="44">
+        <v>44046</v>
+      </c>
+      <c r="J43" s="44">
+        <v>44060</v>
+      </c>
       <c r="K43" s="45"/>
       <c r="L43" s="42"/>
       <c r="M43" s="40"/>
@@ -7217,15 +7559,15 @@
       <c r="BI43" s="10"/>
       <c r="BJ43" s="10"/>
     </row>
-    <row r="44" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="44" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A44" s="26"/>
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
       <c r="D44" s="27" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F44" s="29"/>
       <c r="G44" s="31"/>
@@ -7240,7 +7582,7 @@
       <c r="L44" s="42"/>
       <c r="M44" s="40"/>
       <c r="N44" s="64" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="O44" s="67"/>
       <c r="P44" s="10"/>
@@ -7291,15 +7633,15 @@
       <c r="BI44" s="10"/>
       <c r="BJ44" s="10"/>
     </row>
-    <row r="45" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="45" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A45" s="26"/>
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
       <c r="D45" s="27" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="F45" s="29"/>
       <c r="G45" s="31"/>
@@ -7314,7 +7656,7 @@
       <c r="L45" s="42"/>
       <c r="M45" s="40"/>
       <c r="N45" s="64" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="O45" s="67"/>
       <c r="P45" s="10"/>
@@ -7365,15 +7707,15 @@
       <c r="BI45" s="10"/>
       <c r="BJ45" s="10"/>
     </row>
-    <row r="46" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="46" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A46" s="26"/>
       <c r="B46" s="32"/>
       <c r="C46" s="32"/>
       <c r="D46" s="27" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F46" s="29"/>
       <c r="G46" s="31"/>
@@ -7386,11 +7728,11 @@
       <c r="J46" s="44"/>
       <c r="K46" s="45"/>
       <c r="L46" s="42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M46" s="40"/>
       <c r="N46" s="64" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="O46" s="67"/>
       <c r="P46" s="10"/>
@@ -7441,15 +7783,15 @@
       <c r="BI46" s="10"/>
       <c r="BJ46" s="10"/>
     </row>
-    <row r="47" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="47" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A47" s="26"/>
       <c r="B47" s="32"/>
       <c r="C47" s="32"/>
       <c r="D47" s="27" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="F47" s="29"/>
       <c r="G47" s="31"/>
@@ -7464,7 +7806,7 @@
       <c r="L47" s="42"/>
       <c r="M47" s="40"/>
       <c r="N47" s="64" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="O47" s="67"/>
       <c r="P47" s="10"/>
@@ -7515,15 +7857,15 @@
       <c r="BI47" s="10"/>
       <c r="BJ47" s="10"/>
     </row>
-    <row r="48" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="48" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A48" s="26"/>
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
       <c r="D48" s="27" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F48" s="29"/>
       <c r="G48" s="31"/>
@@ -7536,11 +7878,11 @@
       <c r="J48" s="44"/>
       <c r="K48" s="45"/>
       <c r="L48" s="42" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M48" s="40"/>
       <c r="N48" s="64" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="O48" s="67"/>
       <c r="P48" s="10"/>
@@ -7591,15 +7933,15 @@
       <c r="BI48" s="10"/>
       <c r="BJ48" s="10"/>
     </row>
-    <row r="49" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="49" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A49" s="26"/>
       <c r="B49" s="32"/>
       <c r="C49" s="32"/>
       <c r="D49" s="27" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="F49" s="51"/>
       <c r="G49" s="31"/>
@@ -7614,7 +7956,7 @@
       <c r="L49" s="42"/>
       <c r="M49" s="40"/>
       <c r="N49" s="64" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="O49" s="67"/>
       <c r="P49" s="10"/>
@@ -7665,21 +8007,27 @@
       <c r="BI49" s="10"/>
       <c r="BJ49" s="10"/>
     </row>
-    <row r="50" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="50" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A50" s="26"/>
       <c r="B50" s="32"/>
       <c r="C50" s="69" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>291</v>
+        <v>334</v>
       </c>
       <c r="E50" s="28"/>
       <c r="F50" s="51"/>
       <c r="G50" s="31"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
+      <c r="H50" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="I50" s="44">
+        <v>44067</v>
+      </c>
+      <c r="J50" s="44">
+        <v>44074</v>
+      </c>
       <c r="K50" s="45"/>
       <c r="L50" s="42"/>
       <c r="M50" s="40"/>
@@ -7733,15 +8081,15 @@
       <c r="BI50" s="10"/>
       <c r="BJ50" s="10"/>
     </row>
-    <row r="51" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="51" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A51" s="26"/>
       <c r="B51" s="32"/>
       <c r="C51" s="32"/>
       <c r="D51" s="27" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="G51" s="31"/>
       <c r="H51" s="43" t="s">
@@ -7755,7 +8103,7 @@
       <c r="L51" s="42"/>
       <c r="M51" s="40"/>
       <c r="N51" s="64" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="O51" s="67"/>
       <c r="P51" s="10"/>
@@ -7806,15 +8154,15 @@
       <c r="BI51" s="10"/>
       <c r="BJ51" s="10"/>
     </row>
-    <row r="52" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="52" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A52" s="26"/>
       <c r="B52" s="32"/>
       <c r="C52" s="32"/>
       <c r="D52" s="27" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="G52" s="31"/>
       <c r="H52" s="43" t="s">
@@ -7828,7 +8176,7 @@
       <c r="L52" s="42"/>
       <c r="M52" s="40"/>
       <c r="N52" s="64" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="O52" s="67"/>
       <c r="P52" s="10"/>
@@ -7879,15 +8227,15 @@
       <c r="BI52" s="10"/>
       <c r="BJ52" s="10"/>
     </row>
-    <row r="53" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="53" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A53" s="26"/>
       <c r="B53" s="32"/>
       <c r="C53" s="32"/>
       <c r="D53" s="27" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G53" s="31"/>
       <c r="H53" s="43" t="s">
@@ -7901,7 +8249,7 @@
       <c r="L53" s="42"/>
       <c r="M53" s="40"/>
       <c r="N53" s="64" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="O53" s="67"/>
       <c r="P53" s="10"/>
@@ -7952,13 +8300,13 @@
       <c r="BI53" s="10"/>
       <c r="BJ53" s="10"/>
     </row>
-    <row r="54" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1" collapsed="1">
+    <row r="54" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A54" s="26"/>
       <c r="B54" s="32">
         <v>1.6</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>235</v>
+        <v>339</v>
       </c>
       <c r="D54" s="27"/>
       <c r="E54" s="28"/>
@@ -8020,14 +8368,14 @@
       <c r="BI54" s="10"/>
       <c r="BJ54" s="10"/>
     </row>
-    <row r="55" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="55" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A55" s="26"/>
       <c r="B55" s="32"/>
       <c r="C55" s="32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>236</v>
+        <v>367</v>
       </c>
       <c r="E55" s="28"/>
       <c r="F55" s="29"/>
@@ -8088,15 +8436,15 @@
       <c r="BI55" s="10"/>
       <c r="BJ55" s="10"/>
     </row>
-    <row r="56" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="56" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A56" s="26"/>
       <c r="B56" s="32"/>
       <c r="C56" s="32"/>
       <c r="D56" s="29" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>245</v>
+        <v>337</v>
       </c>
       <c r="F56" s="29"/>
       <c r="G56" s="31"/>
@@ -8111,7 +8459,7 @@
       <c r="L56" s="42"/>
       <c r="M56" s="40"/>
       <c r="N56" s="64" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="O56" s="67"/>
       <c r="P56" s="10"/>
@@ -8162,15 +8510,15 @@
       <c r="BI56" s="10"/>
       <c r="BJ56" s="10"/>
     </row>
-    <row r="57" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="57" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A57" s="26"/>
       <c r="B57" s="32"/>
       <c r="C57" s="32"/>
       <c r="D57" s="29" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>249</v>
+        <v>338</v>
       </c>
       <c r="F57" s="29"/>
       <c r="G57" s="31"/>
@@ -8185,7 +8533,7 @@
       <c r="L57" s="42"/>
       <c r="M57" s="40"/>
       <c r="N57" s="64" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="O57" s="67"/>
       <c r="P57" s="10"/>
@@ -8236,14 +8584,14 @@
       <c r="BI57" s="10"/>
       <c r="BJ57" s="10"/>
     </row>
-    <row r="58" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="58" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A58" s="26"/>
       <c r="B58" s="32"/>
       <c r="C58" s="32" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="E58" s="28"/>
       <c r="F58" s="29"/>
@@ -8304,15 +8652,15 @@
       <c r="BI58" s="10"/>
       <c r="BJ58" s="10"/>
     </row>
-    <row r="59" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="59" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A59" s="26"/>
       <c r="B59" s="32"/>
       <c r="C59" s="32"/>
       <c r="D59" s="29" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="F59" s="29"/>
       <c r="G59" s="31"/>
@@ -8327,7 +8675,7 @@
       <c r="L59" s="42"/>
       <c r="M59" s="40"/>
       <c r="N59" s="64" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="O59" s="67"/>
       <c r="P59" s="10"/>
@@ -8378,15 +8726,15 @@
       <c r="BI59" s="10"/>
       <c r="BJ59" s="10"/>
     </row>
-    <row r="60" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="60" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A60" s="26"/>
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
       <c r="D60" s="29" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="F60" s="29"/>
       <c r="G60" s="31"/>
@@ -8401,7 +8749,7 @@
       <c r="L60" s="42"/>
       <c r="M60" s="40"/>
       <c r="N60" s="64" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="O60" s="67"/>
       <c r="P60" s="10"/>
@@ -8452,14 +8800,14 @@
       <c r="BI60" s="10"/>
       <c r="BJ60" s="10"/>
     </row>
-    <row r="61" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="61" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A61" s="26"/>
       <c r="B61" s="32"/>
       <c r="C61" s="32" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="E61" s="28"/>
       <c r="F61" s="29"/>
@@ -8520,15 +8868,15 @@
       <c r="BI61" s="10"/>
       <c r="BJ61" s="10"/>
     </row>
-    <row r="62" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="62" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A62" s="26"/>
       <c r="B62" s="32"/>
       <c r="C62" s="32"/>
       <c r="D62" s="29" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="F62" s="29"/>
       <c r="G62" s="31"/>
@@ -8543,7 +8891,7 @@
       <c r="L62" s="42"/>
       <c r="M62" s="40"/>
       <c r="N62" s="64" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="O62" s="67"/>
       <c r="P62" s="10"/>
@@ -8594,15 +8942,15 @@
       <c r="BI62" s="10"/>
       <c r="BJ62" s="10"/>
     </row>
-    <row r="63" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="63" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A63" s="26"/>
       <c r="B63" s="32"/>
       <c r="C63" s="32"/>
       <c r="D63" s="29" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="F63" s="29"/>
       <c r="G63" s="31"/>
@@ -8617,7 +8965,7 @@
       <c r="L63" s="42"/>
       <c r="M63" s="40"/>
       <c r="N63" s="64" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="O63" s="67"/>
       <c r="P63" s="10"/>
@@ -8668,14 +9016,14 @@
       <c r="BI63" s="10"/>
       <c r="BJ63" s="10"/>
     </row>
-    <row r="64" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="64" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A64" s="26"/>
       <c r="B64" s="32"/>
       <c r="C64" s="32" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E64" s="28"/>
       <c r="F64" s="29"/>
@@ -8736,15 +9084,15 @@
       <c r="BI64" s="10"/>
       <c r="BJ64" s="10"/>
     </row>
-    <row r="65" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="65" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A65" s="26"/>
       <c r="B65" s="32"/>
       <c r="C65" s="32"/>
       <c r="D65" s="29" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E65" s="28" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="F65" s="29"/>
       <c r="G65" s="31"/>
@@ -8759,7 +9107,7 @@
       <c r="L65" s="42"/>
       <c r="M65" s="40"/>
       <c r="N65" s="64" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="O65" s="67"/>
       <c r="P65" s="10"/>
@@ -8810,20 +9158,20 @@
       <c r="BI65" s="10"/>
       <c r="BJ65" s="10"/>
     </row>
-    <row r="66" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="66" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A66" s="26"/>
       <c r="B66" s="32"/>
       <c r="C66" s="32"/>
       <c r="D66" s="29" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="E66" s="28" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="F66" s="29"/>
       <c r="G66" s="31"/>
       <c r="H66" s="43" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="I66" s="44">
         <v>44088</v>
@@ -8833,7 +9181,7 @@
       <c r="L66" s="42"/>
       <c r="M66" s="40"/>
       <c r="N66" s="64" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="O66" s="67"/>
       <c r="P66" s="10"/>
@@ -8884,15 +9232,15 @@
       <c r="BI66" s="10"/>
       <c r="BJ66" s="10"/>
     </row>
-    <row r="67" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="67" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A67" s="26"/>
       <c r="B67" s="32"/>
       <c r="C67" s="32"/>
       <c r="D67" s="29" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="F67" s="29"/>
       <c r="G67" s="31"/>
@@ -8907,7 +9255,7 @@
       <c r="L67" s="42"/>
       <c r="M67" s="40"/>
       <c r="N67" s="64" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="O67" s="67"/>
       <c r="P67" s="10"/>
@@ -8958,15 +9306,15 @@
       <c r="BI67" s="10"/>
       <c r="BJ67" s="10"/>
     </row>
-    <row r="68" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="68" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A68" s="26"/>
       <c r="B68" s="32"/>
       <c r="C68" s="32"/>
       <c r="D68" s="29" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F68" s="29"/>
       <c r="G68" s="31"/>
@@ -8981,7 +9329,7 @@
       <c r="L68" s="42"/>
       <c r="M68" s="40"/>
       <c r="N68" s="64" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="O68" s="67"/>
       <c r="P68" s="10"/>
@@ -9032,15 +9380,15 @@
       <c r="BI68" s="10"/>
       <c r="BJ68" s="10"/>
     </row>
-    <row r="69" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="69" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A69" s="26"/>
       <c r="B69" s="32"/>
       <c r="C69" s="32"/>
       <c r="D69" s="29" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="E69" s="28" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="F69" s="29"/>
       <c r="G69" s="31"/>
@@ -9055,7 +9403,7 @@
       <c r="L69" s="42"/>
       <c r="M69" s="40"/>
       <c r="N69" s="64" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="O69" s="67"/>
       <c r="P69" s="10"/>
@@ -9106,15 +9454,15 @@
       <c r="BI69" s="10"/>
       <c r="BJ69" s="10"/>
     </row>
-    <row r="70" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="70" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A70" s="26"/>
       <c r="B70" s="32"/>
       <c r="C70" s="32"/>
       <c r="D70" s="29" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="E70" s="28" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="F70" s="29"/>
       <c r="G70" s="31"/>
@@ -9129,7 +9477,7 @@
       <c r="L70" s="42"/>
       <c r="M70" s="40"/>
       <c r="N70" s="64" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="O70" s="67"/>
       <c r="P70" s="10"/>
@@ -9180,14 +9528,14 @@
       <c r="BI70" s="10"/>
       <c r="BJ70" s="10"/>
     </row>
-    <row r="71" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="71" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A71" s="26"/>
       <c r="B71" s="32"/>
       <c r="C71" s="69" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="E71" s="28"/>
       <c r="F71" s="29"/>
@@ -9248,15 +9596,15 @@
       <c r="BI71" s="10"/>
       <c r="BJ71" s="10"/>
     </row>
-    <row r="72" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="72" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A72" s="26"/>
       <c r="B72" s="32"/>
       <c r="C72" s="32"/>
       <c r="D72" s="27" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="E72" s="28" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="F72" s="29"/>
       <c r="G72" s="31"/>
@@ -9271,7 +9619,7 @@
       <c r="L72" s="42"/>
       <c r="M72" s="40"/>
       <c r="N72" s="64" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="O72" s="67"/>
       <c r="P72" s="10"/>
@@ -9322,15 +9670,15 @@
       <c r="BI72" s="10"/>
       <c r="BJ72" s="10"/>
     </row>
-    <row r="73" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="73" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A73" s="26"/>
       <c r="B73" s="32"/>
       <c r="C73" s="32"/>
       <c r="D73" s="27" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="E73" s="28" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="F73" s="29"/>
       <c r="G73" s="31"/>
@@ -9345,7 +9693,7 @@
       <c r="L73" s="42"/>
       <c r="M73" s="40"/>
       <c r="N73" s="64" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="O73" s="67"/>
       <c r="P73" s="10"/>
@@ -9396,15 +9744,15 @@
       <c r="BI73" s="10"/>
       <c r="BJ73" s="10"/>
     </row>
-    <row r="74" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
+    <row r="74" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A74" s="26"/>
       <c r="B74" s="32"/>
       <c r="C74" s="32"/>
       <c r="D74" s="27" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="E74" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F74" s="29"/>
       <c r="G74" s="31"/>
@@ -9419,7 +9767,7 @@
       <c r="L74" s="42"/>
       <c r="M74" s="40"/>
       <c r="N74" s="64" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="O74" s="67"/>
       <c r="P74" s="10"/>
@@ -9470,15 +9818,11 @@
       <c r="BI74" s="10"/>
       <c r="BJ74" s="10"/>
     </row>
-    <row r="75" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1" collapsed="1">
-      <c r="A75" s="26">
-        <v>2</v>
-      </c>
-      <c r="B75" s="71" t="s">
-        <v>284</v>
-      </c>
+    <row r="75" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A75" s="26"/>
+      <c r="B75" s="32"/>
       <c r="C75" s="32"/>
-      <c r="D75" s="29"/>
+      <c r="D75" s="27"/>
       <c r="E75" s="28"/>
       <c r="F75" s="29"/>
       <c r="G75" s="31"/>
@@ -9539,7 +9883,13 @@
       <c r="BJ75" s="10"/>
     </row>
     <row r="76" spans="1:62" ht="17.25" customHeight="1">
-      <c r="C76" s="32"/>
+      <c r="A76" s="13">
+        <v>2</v>
+      </c>
+      <c r="B76" s="74" t="s">
+        <v>295</v>
+      </c>
+      <c r="C76" s="74"/>
       <c r="D76" s="29"/>
       <c r="E76" s="28"/>
       <c r="F76" s="29"/>
@@ -9600,14 +9950,14 @@
       <c r="BI76" s="10"/>
       <c r="BJ76" s="10"/>
     </row>
-    <row r="77" spans="1:62" ht="17.25" customHeight="1">
-      <c r="A77" s="26">
-        <v>3</v>
-      </c>
-      <c r="B77" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="C77" s="32"/>
+    <row r="77" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A77" s="15"/>
+      <c r="B77" s="71">
+        <v>2.1</v>
+      </c>
+      <c r="C77" s="32" t="s">
+        <v>296</v>
+      </c>
       <c r="D77" s="29"/>
       <c r="E77" s="28"/>
       <c r="F77" s="29"/>
@@ -9668,16 +10018,24 @@
       <c r="BI77" s="10"/>
       <c r="BJ77" s="10"/>
     </row>
-    <row r="78" spans="1:62" ht="17.25" customHeight="1">
-      <c r="A78" s="26"/>
-      <c r="B78" s="32"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="29"/>
+    <row r="78" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A78" s="15"/>
+      <c r="B78" s="71"/>
+      <c r="C78" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="D78" s="29" t="s">
+        <v>298</v>
+      </c>
       <c r="E78" s="28"/>
       <c r="F78" s="29"/>
       <c r="G78" s="31"/>
-      <c r="H78" s="43"/>
-      <c r="I78" s="44"/>
+      <c r="H78" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="I78" s="44">
+        <v>44109</v>
+      </c>
       <c r="J78" s="44"/>
       <c r="K78" s="45"/>
       <c r="L78" s="42"/>
@@ -9732,20 +10090,24 @@
       <c r="BI78" s="10"/>
       <c r="BJ78" s="10"/>
     </row>
-    <row r="79" spans="1:62" ht="17.25" customHeight="1">
-      <c r="A79" s="26">
-        <v>4</v>
-      </c>
-      <c r="B79" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="C79" s="32"/>
-      <c r="D79" s="29"/>
+    <row r="79" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A79" s="15"/>
+      <c r="B79" s="71"/>
+      <c r="C79" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="D79" s="29" t="s">
+        <v>303</v>
+      </c>
       <c r="E79" s="28"/>
       <c r="F79" s="29"/>
       <c r="G79" s="31"/>
-      <c r="H79" s="43"/>
-      <c r="I79" s="44"/>
+      <c r="H79" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="I79" s="44">
+        <v>44116</v>
+      </c>
       <c r="J79" s="44"/>
       <c r="K79" s="45"/>
       <c r="L79" s="42"/>
@@ -9800,16 +10162,24 @@
       <c r="BI79" s="10"/>
       <c r="BJ79" s="10"/>
     </row>
-    <row r="80" spans="1:62" ht="17.25" customHeight="1">
-      <c r="A80" s="26"/>
-      <c r="B80" s="32"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="29"/>
+    <row r="80" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A80" s="15"/>
+      <c r="B80" s="71"/>
+      <c r="C80" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="D80" s="29" t="s">
+        <v>302</v>
+      </c>
       <c r="E80" s="28"/>
       <c r="F80" s="29"/>
       <c r="G80" s="31"/>
-      <c r="H80" s="43"/>
-      <c r="I80" s="44"/>
+      <c r="H80" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="I80" s="44">
+        <v>44123</v>
+      </c>
       <c r="J80" s="44"/>
       <c r="K80" s="45"/>
       <c r="L80" s="42"/>
@@ -9864,20 +10234,24 @@
       <c r="BI80" s="10"/>
       <c r="BJ80" s="10"/>
     </row>
-    <row r="81" spans="1:62" ht="17.25" customHeight="1">
-      <c r="A81" s="26">
-        <v>5</v>
-      </c>
-      <c r="B81" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="C81" s="32"/>
-      <c r="D81" s="29"/>
+    <row r="81" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A81" s="15"/>
+      <c r="B81" s="71"/>
+      <c r="C81" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="D81" s="29" t="s">
+        <v>304</v>
+      </c>
       <c r="E81" s="28"/>
       <c r="F81" s="29"/>
       <c r="G81" s="31"/>
-      <c r="H81" s="43"/>
-      <c r="I81" s="44"/>
+      <c r="H81" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="I81" s="44">
+        <v>44130</v>
+      </c>
       <c r="J81" s="44"/>
       <c r="K81" s="45"/>
       <c r="L81" s="42"/>
@@ -9932,10 +10306,14 @@
       <c r="BI81" s="10"/>
       <c r="BJ81" s="10"/>
     </row>
-    <row r="82" spans="1:62" ht="17.25" customHeight="1">
-      <c r="A82" s="26"/>
-      <c r="B82" s="32"/>
-      <c r="C82" s="32"/>
+    <row r="82" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A82" s="15"/>
+      <c r="B82" s="71">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C82" s="32" t="s">
+        <v>306</v>
+      </c>
       <c r="D82" s="29"/>
       <c r="E82" s="28"/>
       <c r="F82" s="29"/>
@@ -9996,20 +10374,24 @@
       <c r="BI82" s="10"/>
       <c r="BJ82" s="10"/>
     </row>
-    <row r="83" spans="1:62" ht="17.25" customHeight="1">
-      <c r="A83" s="26">
-        <v>6</v>
-      </c>
-      <c r="B83" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="C83" s="32"/>
-      <c r="D83" s="29"/>
+    <row r="83" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A83" s="15"/>
+      <c r="B83" s="71"/>
+      <c r="C83" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="D83" s="29" t="s">
+        <v>309</v>
+      </c>
       <c r="E83" s="28"/>
       <c r="F83" s="29"/>
       <c r="G83" s="31"/>
-      <c r="H83" s="43"/>
-      <c r="I83" s="44"/>
+      <c r="H83" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="I83" s="44">
+        <v>44123</v>
+      </c>
       <c r="J83" s="44"/>
       <c r="K83" s="45"/>
       <c r="L83" s="42"/>
@@ -10064,16 +10446,24 @@
       <c r="BI83" s="10"/>
       <c r="BJ83" s="10"/>
     </row>
-    <row r="84" spans="1:62" ht="17.25" customHeight="1">
-      <c r="A84" s="26"/>
-      <c r="B84" s="32"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="29"/>
+    <row r="84" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A84" s="15"/>
+      <c r="B84" s="71"/>
+      <c r="C84" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="D84" s="29" t="s">
+        <v>310</v>
+      </c>
       <c r="E84" s="28"/>
       <c r="F84" s="29"/>
       <c r="G84" s="31"/>
-      <c r="H84" s="43"/>
-      <c r="I84" s="44"/>
+      <c r="H84" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="I84" s="44">
+        <v>44123</v>
+      </c>
       <c r="J84" s="44"/>
       <c r="K84" s="45"/>
       <c r="L84" s="42"/>
@@ -10128,16 +10518,24 @@
       <c r="BI84" s="10"/>
       <c r="BJ84" s="10"/>
     </row>
-    <row r="85" spans="1:62" ht="17.25" customHeight="1">
-      <c r="A85" s="26"/>
-      <c r="B85" s="32"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="29"/>
+    <row r="85" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A85" s="15"/>
+      <c r="B85" s="71"/>
+      <c r="C85" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="D85" s="29" t="s">
+        <v>312</v>
+      </c>
       <c r="E85" s="28"/>
       <c r="F85" s="29"/>
       <c r="G85" s="31"/>
-      <c r="H85" s="43"/>
-      <c r="I85" s="44"/>
+      <c r="H85" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="I85" s="44">
+        <v>44123</v>
+      </c>
       <c r="J85" s="44"/>
       <c r="K85" s="45"/>
       <c r="L85" s="42"/>
@@ -10192,16 +10590,24 @@
       <c r="BI85" s="10"/>
       <c r="BJ85" s="10"/>
     </row>
-    <row r="86" spans="1:62" ht="17.25" customHeight="1">
-      <c r="A86" s="26"/>
-      <c r="B86" s="32"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="29"/>
+    <row r="86" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A86" s="15"/>
+      <c r="B86" s="71"/>
+      <c r="C86" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="D86" s="29" t="s">
+        <v>314</v>
+      </c>
       <c r="E86" s="28"/>
       <c r="F86" s="29"/>
       <c r="G86" s="31"/>
-      <c r="H86" s="43"/>
-      <c r="I86" s="44"/>
+      <c r="H86" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="I86" s="44">
+        <v>44123</v>
+      </c>
       <c r="J86" s="44"/>
       <c r="K86" s="45"/>
       <c r="L86" s="42"/>
@@ -10256,11 +10662,15 @@
       <c r="BI86" s="10"/>
       <c r="BJ86" s="10"/>
     </row>
-    <row r="87" spans="1:62" ht="17.25" customHeight="1">
-      <c r="A87" s="26"/>
-      <c r="B87" s="32"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="29"/>
+    <row r="87" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A87" s="15"/>
+      <c r="B87" s="71">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C87" s="75" t="s">
+        <v>315</v>
+      </c>
+      <c r="D87" s="51"/>
       <c r="E87" s="28"/>
       <c r="F87" s="29"/>
       <c r="G87" s="31"/>
@@ -10320,16 +10730,24 @@
       <c r="BI87" s="10"/>
       <c r="BJ87" s="10"/>
     </row>
-    <row r="88" spans="1:62" ht="17.25" customHeight="1">
-      <c r="A88" s="26"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="29"/>
+    <row r="88" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A88" s="15"/>
+      <c r="B88" s="76"/>
+      <c r="C88" s="77" t="s">
+        <v>316</v>
+      </c>
+      <c r="D88" s="78" t="s">
+        <v>317</v>
+      </c>
       <c r="E88" s="28"/>
       <c r="F88" s="29"/>
       <c r="G88" s="31"/>
-      <c r="H88" s="43"/>
-      <c r="I88" s="44"/>
+      <c r="H88" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="I88" s="44">
+        <v>44137</v>
+      </c>
       <c r="J88" s="44"/>
       <c r="K88" s="45"/>
       <c r="L88" s="42"/>
@@ -10384,16 +10802,24 @@
       <c r="BI88" s="10"/>
       <c r="BJ88" s="10"/>
     </row>
-    <row r="89" spans="1:62" ht="17.25" customHeight="1">
-      <c r="A89" s="26"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="29"/>
+    <row r="89" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A89" s="15"/>
+      <c r="B89" s="76"/>
+      <c r="C89" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="D89" s="32" t="s">
+        <v>320</v>
+      </c>
       <c r="E89" s="28"/>
       <c r="F89" s="29"/>
       <c r="G89" s="31"/>
-      <c r="H89" s="43"/>
-      <c r="I89" s="44"/>
+      <c r="H89" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="I89" s="44">
+        <v>44144</v>
+      </c>
       <c r="J89" s="44"/>
       <c r="K89" s="45"/>
       <c r="L89" s="42"/>
@@ -10448,16 +10874,24 @@
       <c r="BI89" s="10"/>
       <c r="BJ89" s="10"/>
     </row>
-    <row r="90" spans="1:62" ht="17.25" customHeight="1">
-      <c r="A90" s="26"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="29"/>
+    <row r="90" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A90" s="15"/>
+      <c r="B90" s="76"/>
+      <c r="C90" s="77" t="s">
+        <v>319</v>
+      </c>
+      <c r="D90" s="78" t="s">
+        <v>363</v>
+      </c>
       <c r="E90" s="28"/>
       <c r="F90" s="29"/>
       <c r="G90" s="31"/>
-      <c r="H90" s="43"/>
-      <c r="I90" s="44"/>
+      <c r="H90" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="I90" s="44">
+        <v>44151</v>
+      </c>
       <c r="J90" s="44"/>
       <c r="K90" s="45"/>
       <c r="L90" s="42"/>
@@ -10512,16 +10946,24 @@
       <c r="BI90" s="10"/>
       <c r="BJ90" s="10"/>
     </row>
-    <row r="91" spans="1:62" ht="17.25" customHeight="1">
-      <c r="A91" s="26"/>
+    <row r="91" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A91" s="15"/>
       <c r="B91" s="32"/>
-      <c r="C91" s="32"/>
-      <c r="D91" s="29"/>
+      <c r="C91" s="75" t="s">
+        <v>321</v>
+      </c>
+      <c r="D91" s="79" t="s">
+        <v>364</v>
+      </c>
       <c r="E91" s="28"/>
       <c r="F91" s="29"/>
       <c r="G91" s="31"/>
-      <c r="H91" s="43"/>
-      <c r="I91" s="44"/>
+      <c r="H91" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="I91" s="44">
+        <v>44158</v>
+      </c>
       <c r="J91" s="44"/>
       <c r="K91" s="45"/>
       <c r="L91" s="42"/>
@@ -10577,8 +11019,8 @@
       <c r="BJ91" s="10"/>
     </row>
     <row r="92" spans="1:62" ht="17.25" customHeight="1">
-      <c r="A92" s="26"/>
-      <c r="B92" s="32"/>
+      <c r="A92" s="15"/>
+      <c r="B92" s="71"/>
       <c r="C92" s="32"/>
       <c r="D92" s="29"/>
       <c r="E92" s="28"/>
@@ -10641,8 +11083,12 @@
       <c r="BJ92" s="10"/>
     </row>
     <row r="93" spans="1:62" ht="17.25" customHeight="1">
-      <c r="A93" s="26"/>
-      <c r="B93" s="32"/>
+      <c r="A93" s="13">
+        <v>3</v>
+      </c>
+      <c r="B93" s="74" t="s">
+        <v>335</v>
+      </c>
       <c r="C93" s="32"/>
       <c r="D93" s="29"/>
       <c r="E93" s="28"/>
@@ -10704,10 +11150,14 @@
       <c r="BI93" s="10"/>
       <c r="BJ93" s="10"/>
     </row>
-    <row r="94" spans="1:62" ht="17.25" customHeight="1">
+    <row r="94" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A94" s="26"/>
-      <c r="B94" s="32"/>
-      <c r="C94" s="32"/>
+      <c r="B94" s="32">
+        <v>3.1</v>
+      </c>
+      <c r="C94" s="32" t="s">
+        <v>356</v>
+      </c>
       <c r="D94" s="29"/>
       <c r="E94" s="28"/>
       <c r="F94" s="29"/>
@@ -10754,11 +11204,11 @@
       <c r="AU94" s="10"/>
       <c r="AV94" s="10"/>
       <c r="AW94" s="10"/>
-      <c r="AX94" s="73"/>
-      <c r="AY94" s="73"/>
-      <c r="AZ94" s="73"/>
-      <c r="BA94" s="73"/>
-      <c r="BB94" s="73"/>
+      <c r="AX94" s="10"/>
+      <c r="AY94" s="10"/>
+      <c r="AZ94" s="10"/>
+      <c r="BA94" s="10"/>
+      <c r="BB94" s="10"/>
       <c r="BC94" s="10"/>
       <c r="BD94" s="10"/>
       <c r="BE94" s="10"/>
@@ -10768,16 +11218,24 @@
       <c r="BI94" s="10"/>
       <c r="BJ94" s="10"/>
     </row>
-    <row r="95" spans="1:62" ht="17.25" customHeight="1">
+    <row r="95" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A95" s="26"/>
       <c r="B95" s="32"/>
-      <c r="C95" s="32"/>
-      <c r="D95" s="29"/>
+      <c r="C95" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="D95" s="29" t="s">
+        <v>340</v>
+      </c>
       <c r="E95" s="28"/>
       <c r="F95" s="29"/>
       <c r="G95" s="31"/>
-      <c r="H95" s="43"/>
-      <c r="I95" s="44"/>
+      <c r="H95" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="I95" s="44">
+        <v>44166</v>
+      </c>
       <c r="J95" s="44"/>
       <c r="K95" s="45"/>
       <c r="L95" s="42"/>
@@ -10832,16 +11290,24 @@
       <c r="BI95" s="10"/>
       <c r="BJ95" s="10"/>
     </row>
-    <row r="96" spans="1:62" ht="17.25" customHeight="1">
+    <row r="96" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A96" s="26"/>
       <c r="B96" s="32"/>
-      <c r="C96" s="32"/>
-      <c r="D96" s="29"/>
+      <c r="C96" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="D96" s="29" t="s">
+        <v>342</v>
+      </c>
       <c r="E96" s="28"/>
       <c r="F96" s="29"/>
       <c r="G96" s="31"/>
-      <c r="H96" s="43"/>
-      <c r="I96" s="44"/>
+      <c r="H96" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="I96" s="44">
+        <v>44172</v>
+      </c>
       <c r="J96" s="44"/>
       <c r="K96" s="45"/>
       <c r="L96" s="42"/>
@@ -10896,16 +11362,24 @@
       <c r="BI96" s="10"/>
       <c r="BJ96" s="10"/>
     </row>
-    <row r="97" spans="1:62" ht="17.25" customHeight="1">
+    <row r="97" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A97" s="26"/>
       <c r="B97" s="32"/>
-      <c r="C97" s="32"/>
-      <c r="D97" s="29"/>
+      <c r="C97" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="D97" s="29" t="s">
+        <v>302</v>
+      </c>
       <c r="E97" s="28"/>
       <c r="F97" s="29"/>
       <c r="G97" s="31"/>
-      <c r="H97" s="43"/>
-      <c r="I97" s="44"/>
+      <c r="H97" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="I97" s="44">
+        <v>44179</v>
+      </c>
       <c r="J97" s="44"/>
       <c r="K97" s="45"/>
       <c r="L97" s="42"/>
@@ -10960,16 +11434,24 @@
       <c r="BI97" s="10"/>
       <c r="BJ97" s="10"/>
     </row>
-    <row r="98" spans="1:62" ht="17.25" customHeight="1">
+    <row r="98" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A98" s="26"/>
       <c r="B98" s="32"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="29"/>
+      <c r="C98" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="D98" s="29" t="s">
+        <v>345</v>
+      </c>
       <c r="E98" s="28"/>
       <c r="F98" s="29"/>
       <c r="G98" s="31"/>
-      <c r="H98" s="43"/>
-      <c r="I98" s="44"/>
+      <c r="H98" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="I98" s="44">
+        <v>44186</v>
+      </c>
       <c r="J98" s="44"/>
       <c r="K98" s="45"/>
       <c r="L98" s="42"/>
@@ -11024,10 +11506,14 @@
       <c r="BI98" s="10"/>
       <c r="BJ98" s="10"/>
     </row>
-    <row r="99" spans="1:62" ht="17.25" customHeight="1">
+    <row r="99" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A99" s="26"/>
-      <c r="B99" s="32"/>
-      <c r="C99" s="32"/>
+      <c r="B99" s="32">
+        <v>3.2</v>
+      </c>
+      <c r="C99" s="32" t="s">
+        <v>346</v>
+      </c>
       <c r="D99" s="29"/>
       <c r="E99" s="28"/>
       <c r="F99" s="29"/>
@@ -11088,16 +11574,24 @@
       <c r="BI99" s="10"/>
       <c r="BJ99" s="10"/>
     </row>
-    <row r="100" spans="1:62" ht="17.25" customHeight="1">
+    <row r="100" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A100" s="26"/>
       <c r="B100" s="32"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="29"/>
+      <c r="C100" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="D100" s="29" t="s">
+        <v>348</v>
+      </c>
       <c r="E100" s="28"/>
       <c r="F100" s="29"/>
       <c r="G100" s="31"/>
-      <c r="H100" s="43"/>
-      <c r="I100" s="44"/>
+      <c r="H100" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="I100" s="44">
+        <v>44179</v>
+      </c>
       <c r="J100" s="44"/>
       <c r="K100" s="45"/>
       <c r="L100" s="42"/>
@@ -11152,16 +11646,24 @@
       <c r="BI100" s="10"/>
       <c r="BJ100" s="10"/>
     </row>
-    <row r="101" spans="1:62" ht="17.25" customHeight="1">
+    <row r="101" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A101" s="26"/>
       <c r="B101" s="32"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="29"/>
+      <c r="C101" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="D101" s="29" t="s">
+        <v>350</v>
+      </c>
       <c r="E101" s="28"/>
       <c r="F101" s="29"/>
       <c r="G101" s="31"/>
-      <c r="H101" s="43"/>
-      <c r="I101" s="44"/>
+      <c r="H101" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="I101" s="44">
+        <v>44179</v>
+      </c>
       <c r="J101" s="44"/>
       <c r="K101" s="45"/>
       <c r="L101" s="42"/>
@@ -11216,16 +11718,24 @@
       <c r="BI101" s="10"/>
       <c r="BJ101" s="10"/>
     </row>
-    <row r="102" spans="1:62" ht="17.25" customHeight="1">
+    <row r="102" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A102" s="26"/>
       <c r="B102" s="32"/>
-      <c r="C102" s="32"/>
-      <c r="D102" s="29"/>
+      <c r="C102" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="D102" s="29" t="s">
+        <v>353</v>
+      </c>
       <c r="E102" s="28"/>
       <c r="F102" s="29"/>
       <c r="G102" s="31"/>
-      <c r="H102" s="43"/>
-      <c r="I102" s="44"/>
+      <c r="H102" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="I102" s="44">
+        <v>44179</v>
+      </c>
       <c r="J102" s="44"/>
       <c r="K102" s="45"/>
       <c r="L102" s="42"/>
@@ -11280,16 +11790,24 @@
       <c r="BI102" s="10"/>
       <c r="BJ102" s="10"/>
     </row>
-    <row r="103" spans="1:62" ht="17.25" customHeight="1">
+    <row r="103" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A103" s="26"/>
       <c r="B103" s="32"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="29"/>
+      <c r="C103" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="D103" s="29" t="s">
+        <v>354</v>
+      </c>
       <c r="E103" s="28"/>
       <c r="F103" s="29"/>
       <c r="G103" s="31"/>
-      <c r="H103" s="43"/>
-      <c r="I103" s="44"/>
+      <c r="H103" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="I103" s="44">
+        <v>44179</v>
+      </c>
       <c r="J103" s="44"/>
       <c r="K103" s="45"/>
       <c r="L103" s="42"/>
@@ -11344,16 +11862,24 @@
       <c r="BI103" s="10"/>
       <c r="BJ103" s="10"/>
     </row>
-    <row r="104" spans="1:62" ht="17.25" customHeight="1">
+    <row r="104" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A104" s="26"/>
       <c r="B104" s="32"/>
-      <c r="C104" s="32"/>
-      <c r="D104" s="29"/>
+      <c r="C104" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="D104" s="29" t="s">
+        <v>355</v>
+      </c>
       <c r="E104" s="28"/>
       <c r="F104" s="29"/>
       <c r="G104" s="31"/>
-      <c r="H104" s="43"/>
-      <c r="I104" s="44"/>
+      <c r="H104" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="I104" s="44">
+        <v>44179</v>
+      </c>
       <c r="J104" s="44"/>
       <c r="K104" s="45"/>
       <c r="L104" s="42"/>
@@ -11408,10 +11934,14 @@
       <c r="BI104" s="10"/>
       <c r="BJ104" s="10"/>
     </row>
-    <row r="105" spans="1:62" ht="17.25" customHeight="1">
+    <row r="105" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A105" s="26"/>
-      <c r="B105" s="32"/>
-      <c r="C105" s="32"/>
+      <c r="B105" s="32">
+        <v>3.3</v>
+      </c>
+      <c r="C105" s="32" t="s">
+        <v>357</v>
+      </c>
       <c r="D105" s="29"/>
       <c r="E105" s="28"/>
       <c r="F105" s="29"/>
@@ -11472,16 +12002,24 @@
       <c r="BI105" s="10"/>
       <c r="BJ105" s="10"/>
     </row>
-    <row r="106" spans="1:62" ht="17.25" customHeight="1">
+    <row r="106" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A106" s="26"/>
       <c r="B106" s="32"/>
-      <c r="C106" s="32"/>
-      <c r="D106" s="29"/>
+      <c r="C106" s="77" t="s">
+        <v>358</v>
+      </c>
+      <c r="D106" s="78" t="s">
+        <v>317</v>
+      </c>
       <c r="E106" s="28"/>
       <c r="F106" s="29"/>
       <c r="G106" s="31"/>
-      <c r="H106" s="43"/>
-      <c r="I106" s="44"/>
+      <c r="H106" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="I106" s="44">
+        <v>44193</v>
+      </c>
       <c r="J106" s="44"/>
       <c r="K106" s="45"/>
       <c r="L106" s="42"/>
@@ -11536,16 +12074,24 @@
       <c r="BI106" s="10"/>
       <c r="BJ106" s="10"/>
     </row>
-    <row r="107" spans="1:62" ht="17.25" customHeight="1">
+    <row r="107" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A107" s="26"/>
       <c r="B107" s="32"/>
-      <c r="C107" s="32"/>
-      <c r="D107" s="29"/>
+      <c r="C107" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="D107" s="32" t="s">
+        <v>362</v>
+      </c>
       <c r="E107" s="28"/>
       <c r="F107" s="29"/>
       <c r="G107" s="31"/>
-      <c r="H107" s="43"/>
-      <c r="I107" s="44"/>
+      <c r="H107" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="I107" s="44">
+        <v>44200</v>
+      </c>
       <c r="J107" s="44"/>
       <c r="K107" s="45"/>
       <c r="L107" s="42"/>
@@ -11600,16 +12146,24 @@
       <c r="BI107" s="10"/>
       <c r="BJ107" s="10"/>
     </row>
-    <row r="108" spans="1:62" ht="17.25" customHeight="1">
+    <row r="108" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A108" s="26"/>
       <c r="B108" s="32"/>
-      <c r="C108" s="32"/>
-      <c r="D108" s="29"/>
+      <c r="C108" s="77" t="s">
+        <v>360</v>
+      </c>
+      <c r="D108" s="78" t="s">
+        <v>365</v>
+      </c>
       <c r="E108" s="28"/>
       <c r="F108" s="29"/>
       <c r="G108" s="31"/>
-      <c r="H108" s="43"/>
-      <c r="I108" s="44"/>
+      <c r="H108" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="I108" s="44">
+        <v>44207</v>
+      </c>
       <c r="J108" s="44"/>
       <c r="K108" s="45"/>
       <c r="L108" s="42"/>
@@ -11664,16 +12218,24 @@
       <c r="BI108" s="10"/>
       <c r="BJ108" s="10"/>
     </row>
-    <row r="109" spans="1:62" ht="17.25" customHeight="1">
+    <row r="109" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A109" s="26"/>
       <c r="B109" s="32"/>
-      <c r="C109" s="32"/>
-      <c r="D109" s="29"/>
+      <c r="C109" s="75" t="s">
+        <v>361</v>
+      </c>
+      <c r="D109" s="79" t="s">
+        <v>366</v>
+      </c>
       <c r="E109" s="28"/>
       <c r="F109" s="29"/>
       <c r="G109" s="31"/>
-      <c r="H109" s="43"/>
-      <c r="I109" s="44"/>
+      <c r="H109" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="I109" s="44">
+        <v>44214</v>
+      </c>
       <c r="J109" s="44"/>
       <c r="K109" s="45"/>
       <c r="L109" s="42"/>
@@ -11793,8 +12355,12 @@
       <c r="BJ110" s="10"/>
     </row>
     <row r="111" spans="1:62" ht="17.25" customHeight="1">
-      <c r="A111" s="26"/>
-      <c r="B111" s="32"/>
+      <c r="A111" s="13">
+        <v>4</v>
+      </c>
+      <c r="B111" s="74" t="s">
+        <v>386</v>
+      </c>
       <c r="C111" s="32"/>
       <c r="D111" s="29"/>
       <c r="E111" s="28"/>
@@ -11856,16 +12422,19 @@
       <c r="BI111" s="10"/>
       <c r="BJ111" s="10"/>
     </row>
-    <row r="112" spans="1:62" ht="17.25" customHeight="1">
-      <c r="A112" s="26"/>
-      <c r="B112" s="32"/>
-      <c r="C112" s="32"/>
+    <row r="112" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A112" s="13"/>
+      <c r="B112" s="71">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C112" s="32" t="s">
+        <v>368</v>
+      </c>
       <c r="D112" s="29"/>
       <c r="E112" s="28"/>
       <c r="F112" s="29"/>
       <c r="G112" s="31"/>
       <c r="H112" s="43"/>
-      <c r="I112" s="44"/>
       <c r="J112" s="44"/>
       <c r="K112" s="45"/>
       <c r="L112" s="42"/>
@@ -11920,16 +12489,24 @@
       <c r="BI112" s="10"/>
       <c r="BJ112" s="10"/>
     </row>
-    <row r="113" spans="1:62" ht="17.25" customHeight="1">
-      <c r="A113" s="26"/>
-      <c r="B113" s="32"/>
-      <c r="C113" s="32"/>
-      <c r="D113" s="29"/>
+    <row r="113" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A113" s="13"/>
+      <c r="B113" s="71"/>
+      <c r="C113" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="D113" s="29" t="s">
+        <v>371</v>
+      </c>
       <c r="E113" s="28"/>
       <c r="F113" s="29"/>
       <c r="G113" s="31"/>
-      <c r="H113" s="43"/>
-      <c r="I113" s="44"/>
+      <c r="H113" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="I113" s="44">
+        <v>44221</v>
+      </c>
       <c r="J113" s="44"/>
       <c r="K113" s="45"/>
       <c r="L113" s="42"/>
@@ -11984,16 +12561,24 @@
       <c r="BI113" s="10"/>
       <c r="BJ113" s="10"/>
     </row>
-    <row r="114" spans="1:62" ht="17.25" customHeight="1">
-      <c r="A114" s="26"/>
-      <c r="B114" s="32"/>
-      <c r="C114" s="32"/>
-      <c r="D114" s="29"/>
+    <row r="114" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A114" s="13"/>
+      <c r="B114" s="71"/>
+      <c r="C114" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="D114" s="29" t="s">
+        <v>373</v>
+      </c>
       <c r="E114" s="28"/>
       <c r="F114" s="29"/>
       <c r="G114" s="31"/>
-      <c r="H114" s="43"/>
-      <c r="I114" s="44"/>
+      <c r="H114" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="I114" s="44">
+        <v>44228</v>
+      </c>
       <c r="J114" s="44"/>
       <c r="K114" s="45"/>
       <c r="L114" s="42"/>
@@ -12048,16 +12633,24 @@
       <c r="BI114" s="10"/>
       <c r="BJ114" s="10"/>
     </row>
-    <row r="115" spans="1:62" ht="17.25" customHeight="1">
-      <c r="A115" s="26"/>
-      <c r="B115" s="32"/>
-      <c r="C115" s="32"/>
-      <c r="D115" s="29"/>
+    <row r="115" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A115" s="13"/>
+      <c r="B115" s="74"/>
+      <c r="C115" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="D115" s="29" t="s">
+        <v>374</v>
+      </c>
       <c r="E115" s="28"/>
       <c r="F115" s="29"/>
       <c r="G115" s="31"/>
-      <c r="H115" s="43"/>
-      <c r="I115" s="44"/>
+      <c r="H115" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="I115" s="44">
+        <v>44249</v>
+      </c>
       <c r="J115" s="44"/>
       <c r="K115" s="45"/>
       <c r="L115" s="42"/>
@@ -12112,16 +12705,24 @@
       <c r="BI115" s="10"/>
       <c r="BJ115" s="10"/>
     </row>
-    <row r="116" spans="1:62" ht="17.25" customHeight="1">
-      <c r="A116" s="26"/>
-      <c r="B116" s="32"/>
-      <c r="C116" s="32"/>
-      <c r="D116" s="29"/>
+    <row r="116" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A116" s="13"/>
+      <c r="B116" s="74"/>
+      <c r="C116" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="D116" s="29" t="s">
+        <v>376</v>
+      </c>
       <c r="E116" s="28"/>
       <c r="F116" s="29"/>
       <c r="G116" s="31"/>
-      <c r="H116" s="43"/>
-      <c r="I116" s="44"/>
+      <c r="H116" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="I116" s="44">
+        <v>44256</v>
+      </c>
       <c r="J116" s="44"/>
       <c r="K116" s="45"/>
       <c r="L116" s="42"/>
@@ -12176,10 +12777,14 @@
       <c r="BI116" s="10"/>
       <c r="BJ116" s="10"/>
     </row>
-    <row r="117" spans="1:62" ht="17.25" customHeight="1">
-      <c r="A117" s="26"/>
-      <c r="B117" s="32"/>
-      <c r="C117" s="32"/>
+    <row r="117" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A117" s="13"/>
+      <c r="B117" s="71">
+        <v>4.2</v>
+      </c>
+      <c r="C117" s="32" t="s">
+        <v>377</v>
+      </c>
       <c r="D117" s="29"/>
       <c r="E117" s="28"/>
       <c r="F117" s="29"/>
@@ -12240,16 +12845,24 @@
       <c r="BI117" s="10"/>
       <c r="BJ117" s="10"/>
     </row>
-    <row r="118" spans="1:62" ht="17.25" customHeight="1">
+    <row r="118" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A118" s="26"/>
       <c r="B118" s="32"/>
-      <c r="C118" s="32"/>
-      <c r="D118" s="29"/>
+      <c r="C118" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="D118" s="29" t="s">
+        <v>317</v>
+      </c>
       <c r="E118" s="28"/>
       <c r="F118" s="29"/>
       <c r="G118" s="31"/>
-      <c r="H118" s="43"/>
-      <c r="I118" s="44"/>
+      <c r="H118" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="I118" s="44">
+        <v>44263</v>
+      </c>
       <c r="J118" s="44"/>
       <c r="K118" s="45"/>
       <c r="L118" s="42"/>
@@ -12304,16 +12917,24 @@
       <c r="BI118" s="10"/>
       <c r="BJ118" s="10"/>
     </row>
-    <row r="119" spans="1:62" ht="17.25" customHeight="1">
+    <row r="119" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A119" s="26"/>
       <c r="B119" s="32"/>
-      <c r="C119" s="32"/>
-      <c r="D119" s="29"/>
+      <c r="C119" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="D119" s="29" t="s">
+        <v>380</v>
+      </c>
       <c r="E119" s="28"/>
       <c r="F119" s="29"/>
       <c r="G119" s="31"/>
-      <c r="H119" s="43"/>
-      <c r="I119" s="44"/>
+      <c r="H119" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="I119" s="44">
+        <v>44270</v>
+      </c>
       <c r="J119" s="44"/>
       <c r="K119" s="45"/>
       <c r="L119" s="42"/>
@@ -12368,16 +12989,24 @@
       <c r="BI119" s="10"/>
       <c r="BJ119" s="10"/>
     </row>
-    <row r="120" spans="1:62" ht="17.25" customHeight="1">
+    <row r="120" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A120" s="26"/>
       <c r="B120" s="32"/>
-      <c r="C120" s="32"/>
-      <c r="D120" s="29"/>
+      <c r="C120" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="D120" s="29" t="s">
+        <v>383</v>
+      </c>
       <c r="E120" s="28"/>
       <c r="F120" s="29"/>
       <c r="G120" s="31"/>
-      <c r="H120" s="43"/>
-      <c r="I120" s="44"/>
+      <c r="H120" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="I120" s="44">
+        <v>44277</v>
+      </c>
       <c r="J120" s="44"/>
       <c r="K120" s="45"/>
       <c r="L120" s="42"/>
@@ -12432,16 +13061,24 @@
       <c r="BI120" s="10"/>
       <c r="BJ120" s="10"/>
     </row>
-    <row r="121" spans="1:62" ht="17.25" customHeight="1">
+    <row r="121" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A121" s="26"/>
       <c r="B121" s="32"/>
-      <c r="C121" s="32"/>
-      <c r="D121" s="29"/>
+      <c r="C121" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="D121" s="29" t="s">
+        <v>384</v>
+      </c>
       <c r="E121" s="28"/>
       <c r="F121" s="29"/>
       <c r="G121" s="31"/>
-      <c r="H121" s="43"/>
-      <c r="I121" s="44"/>
+      <c r="H121" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="I121" s="44">
+        <v>44284</v>
+      </c>
       <c r="J121" s="44"/>
       <c r="K121" s="45"/>
       <c r="L121" s="42"/>
@@ -12561,16 +13198,24 @@
       <c r="BJ122" s="10"/>
     </row>
     <row r="123" spans="1:62" ht="17.25" customHeight="1">
-      <c r="A123" s="26"/>
-      <c r="B123" s="32"/>
+      <c r="A123" s="13">
+        <v>5</v>
+      </c>
+      <c r="B123" s="74" t="s">
+        <v>387</v>
+      </c>
       <c r="C123" s="32"/>
       <c r="D123" s="29"/>
       <c r="E123" s="28"/>
       <c r="F123" s="29"/>
       <c r="G123" s="31"/>
       <c r="H123" s="43"/>
-      <c r="I123" s="44"/>
-      <c r="J123" s="44"/>
+      <c r="I123" s="44">
+        <v>44288</v>
+      </c>
+      <c r="J123" s="44">
+        <v>44407</v>
+      </c>
       <c r="K123" s="45"/>
       <c r="L123" s="42"/>
       <c r="M123" s="40"/>
@@ -12753,16 +13398,24 @@
       <c r="BJ125" s="10"/>
     </row>
     <row r="126" spans="1:62" ht="17.25" customHeight="1">
-      <c r="A126" s="26"/>
-      <c r="B126" s="32"/>
+      <c r="A126" s="13">
+        <v>6</v>
+      </c>
+      <c r="B126" s="74" t="s">
+        <v>388</v>
+      </c>
       <c r="C126" s="32"/>
       <c r="D126" s="29"/>
       <c r="E126" s="28"/>
       <c r="F126" s="29"/>
       <c r="G126" s="31"/>
       <c r="H126" s="43"/>
-      <c r="I126" s="44"/>
-      <c r="J126" s="44"/>
+      <c r="I126" s="44">
+        <v>44410</v>
+      </c>
+      <c r="J126" s="44">
+        <v>44530</v>
+      </c>
       <c r="K126" s="45"/>
       <c r="L126" s="42"/>
       <c r="M126" s="40"/>
@@ -13506,11 +14159,11 @@
       <c r="AU137" s="10"/>
       <c r="AV137" s="10"/>
       <c r="AW137" s="10"/>
-      <c r="AX137" s="10"/>
-      <c r="AY137" s="10"/>
-      <c r="AZ137" s="10"/>
-      <c r="BA137" s="10"/>
-      <c r="BB137" s="10"/>
+      <c r="AX137" s="73"/>
+      <c r="AY137" s="73"/>
+      <c r="AZ137" s="73"/>
+      <c r="BA137" s="73"/>
+      <c r="BB137" s="73"/>
       <c r="BC137" s="10"/>
       <c r="BD137" s="10"/>
       <c r="BE137" s="10"/>
@@ -16977,63 +17630,2826 @@
       <c r="BJ191" s="10"/>
     </row>
     <row r="192" spans="1:62" ht="17.25" customHeight="1">
-      <c r="A192" s="47"/>
-      <c r="B192" s="48"/>
-      <c r="C192" s="48"/>
-      <c r="D192" s="49"/>
-      <c r="E192" s="50"/>
-      <c r="F192" s="51"/>
-      <c r="G192" s="50"/>
-      <c r="H192" s="52"/>
-      <c r="I192" s="53"/>
-      <c r="J192" s="53"/>
-      <c r="K192" s="54"/>
-      <c r="L192" s="55"/>
-      <c r="M192" s="56"/>
-      <c r="N192" s="57"/>
-      <c r="O192" s="48"/>
-      <c r="P192" s="48"/>
-      <c r="Q192" s="48"/>
-      <c r="R192" s="48"/>
-      <c r="S192" s="48"/>
-      <c r="T192" s="48"/>
-      <c r="U192" s="48"/>
-      <c r="V192" s="48"/>
-      <c r="W192" s="48"/>
-      <c r="X192" s="48"/>
-      <c r="Y192" s="48"/>
-      <c r="Z192" s="48"/>
-      <c r="AA192" s="48"/>
-      <c r="AB192" s="48"/>
-      <c r="AC192" s="48"/>
-      <c r="AD192" s="48"/>
-      <c r="AE192" s="48"/>
-      <c r="AF192" s="48"/>
-      <c r="AG192" s="48"/>
-      <c r="AH192" s="48"/>
-      <c r="AI192" s="48"/>
-      <c r="AJ192" s="48"/>
-      <c r="AK192" s="48"/>
-      <c r="AL192" s="48"/>
-      <c r="AM192" s="48"/>
-      <c r="AN192" s="48"/>
-      <c r="AO192" s="48"/>
-      <c r="AP192" s="48"/>
-      <c r="AQ192" s="48"/>
-      <c r="AR192" s="48"/>
-      <c r="AS192" s="48"/>
-      <c r="AT192" s="48"/>
-      <c r="AU192" s="48"/>
-      <c r="AV192" s="48"/>
-      <c r="AW192" s="48"/>
-      <c r="AX192" s="48"/>
-      <c r="AY192" s="48"/>
-      <c r="AZ192" s="48"/>
-      <c r="BA192" s="48"/>
-      <c r="BB192" s="48"/>
+      <c r="A192" s="26"/>
+      <c r="B192" s="32"/>
+      <c r="C192" s="32"/>
+      <c r="D192" s="29"/>
+      <c r="E192" s="28"/>
+      <c r="F192" s="29"/>
+      <c r="G192" s="31"/>
+      <c r="H192" s="43"/>
+      <c r="I192" s="44"/>
+      <c r="J192" s="44"/>
+      <c r="K192" s="45"/>
+      <c r="L192" s="42"/>
+      <c r="M192" s="40"/>
+      <c r="N192" s="64"/>
+      <c r="O192" s="67"/>
+      <c r="P192" s="10"/>
+      <c r="Q192" s="10"/>
+      <c r="R192" s="10"/>
+      <c r="S192" s="10"/>
+      <c r="T192" s="10"/>
+      <c r="U192" s="10"/>
+      <c r="V192" s="10"/>
+      <c r="W192" s="10"/>
+      <c r="X192" s="10"/>
+      <c r="Y192" s="10"/>
+      <c r="Z192" s="10"/>
+      <c r="AA192" s="10"/>
+      <c r="AB192" s="10"/>
+      <c r="AC192" s="10"/>
+      <c r="AD192" s="10"/>
+      <c r="AE192" s="10"/>
+      <c r="AF192" s="10"/>
+      <c r="AG192" s="10"/>
+      <c r="AH192" s="10"/>
+      <c r="AI192" s="10"/>
+      <c r="AJ192" s="10"/>
+      <c r="AK192" s="10"/>
+      <c r="AL192" s="10"/>
+      <c r="AM192" s="10"/>
+      <c r="AN192" s="10"/>
+      <c r="AO192" s="10"/>
+      <c r="AP192" s="10"/>
+      <c r="AQ192" s="10"/>
+      <c r="AR192" s="10"/>
+      <c r="AS192" s="10"/>
+      <c r="AT192" s="10"/>
+      <c r="AU192" s="10"/>
+      <c r="AV192" s="10"/>
+      <c r="AW192" s="10"/>
+      <c r="AX192" s="10"/>
+      <c r="AY192" s="10"/>
+      <c r="AZ192" s="10"/>
+      <c r="BA192" s="10"/>
+      <c r="BB192" s="10"/>
+      <c r="BC192" s="10"/>
+      <c r="BD192" s="10"/>
+      <c r="BE192" s="10"/>
+      <c r="BF192" s="10"/>
+      <c r="BG192" s="10"/>
+      <c r="BH192" s="10"/>
+      <c r="BI192" s="10"/>
+      <c r="BJ192" s="10"/>
+    </row>
+    <row r="193" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A193" s="26"/>
+      <c r="B193" s="32"/>
+      <c r="C193" s="32"/>
+      <c r="D193" s="29"/>
+      <c r="E193" s="28"/>
+      <c r="F193" s="29"/>
+      <c r="G193" s="31"/>
+      <c r="H193" s="43"/>
+      <c r="I193" s="44"/>
+      <c r="J193" s="44"/>
+      <c r="K193" s="45"/>
+      <c r="L193" s="42"/>
+      <c r="M193" s="40"/>
+      <c r="N193" s="64"/>
+      <c r="O193" s="67"/>
+      <c r="P193" s="10"/>
+      <c r="Q193" s="10"/>
+      <c r="R193" s="10"/>
+      <c r="S193" s="10"/>
+      <c r="T193" s="10"/>
+      <c r="U193" s="10"/>
+      <c r="V193" s="10"/>
+      <c r="W193" s="10"/>
+      <c r="X193" s="10"/>
+      <c r="Y193" s="10"/>
+      <c r="Z193" s="10"/>
+      <c r="AA193" s="10"/>
+      <c r="AB193" s="10"/>
+      <c r="AC193" s="10"/>
+      <c r="AD193" s="10"/>
+      <c r="AE193" s="10"/>
+      <c r="AF193" s="10"/>
+      <c r="AG193" s="10"/>
+      <c r="AH193" s="10"/>
+      <c r="AI193" s="10"/>
+      <c r="AJ193" s="10"/>
+      <c r="AK193" s="10"/>
+      <c r="AL193" s="10"/>
+      <c r="AM193" s="10"/>
+      <c r="AN193" s="10"/>
+      <c r="AO193" s="10"/>
+      <c r="AP193" s="10"/>
+      <c r="AQ193" s="10"/>
+      <c r="AR193" s="10"/>
+      <c r="AS193" s="10"/>
+      <c r="AT193" s="10"/>
+      <c r="AU193" s="10"/>
+      <c r="AV193" s="10"/>
+      <c r="AW193" s="10"/>
+      <c r="AX193" s="10"/>
+      <c r="AY193" s="10"/>
+      <c r="AZ193" s="10"/>
+      <c r="BA193" s="10"/>
+      <c r="BB193" s="10"/>
+      <c r="BC193" s="10"/>
+      <c r="BD193" s="10"/>
+      <c r="BE193" s="10"/>
+      <c r="BF193" s="10"/>
+      <c r="BG193" s="10"/>
+      <c r="BH193" s="10"/>
+      <c r="BI193" s="10"/>
+      <c r="BJ193" s="10"/>
+    </row>
+    <row r="194" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A194" s="26"/>
+      <c r="B194" s="32"/>
+      <c r="C194" s="32"/>
+      <c r="D194" s="29"/>
+      <c r="E194" s="28"/>
+      <c r="F194" s="29"/>
+      <c r="G194" s="31"/>
+      <c r="H194" s="43"/>
+      <c r="I194" s="44"/>
+      <c r="J194" s="44"/>
+      <c r="K194" s="45"/>
+      <c r="L194" s="42"/>
+      <c r="M194" s="40"/>
+      <c r="N194" s="64"/>
+      <c r="O194" s="67"/>
+      <c r="P194" s="10"/>
+      <c r="Q194" s="10"/>
+      <c r="R194" s="10"/>
+      <c r="S194" s="10"/>
+      <c r="T194" s="10"/>
+      <c r="U194" s="10"/>
+      <c r="V194" s="10"/>
+      <c r="W194" s="10"/>
+      <c r="X194" s="10"/>
+      <c r="Y194" s="10"/>
+      <c r="Z194" s="10"/>
+      <c r="AA194" s="10"/>
+      <c r="AB194" s="10"/>
+      <c r="AC194" s="10"/>
+      <c r="AD194" s="10"/>
+      <c r="AE194" s="10"/>
+      <c r="AF194" s="10"/>
+      <c r="AG194" s="10"/>
+      <c r="AH194" s="10"/>
+      <c r="AI194" s="10"/>
+      <c r="AJ194" s="10"/>
+      <c r="AK194" s="10"/>
+      <c r="AL194" s="10"/>
+      <c r="AM194" s="10"/>
+      <c r="AN194" s="10"/>
+      <c r="AO194" s="10"/>
+      <c r="AP194" s="10"/>
+      <c r="AQ194" s="10"/>
+      <c r="AR194" s="10"/>
+      <c r="AS194" s="10"/>
+      <c r="AT194" s="10"/>
+      <c r="AU194" s="10"/>
+      <c r="AV194" s="10"/>
+      <c r="AW194" s="10"/>
+      <c r="AX194" s="10"/>
+      <c r="AY194" s="10"/>
+      <c r="AZ194" s="10"/>
+      <c r="BA194" s="10"/>
+      <c r="BB194" s="10"/>
+      <c r="BC194" s="10"/>
+      <c r="BD194" s="10"/>
+      <c r="BE194" s="10"/>
+      <c r="BF194" s="10"/>
+      <c r="BG194" s="10"/>
+      <c r="BH194" s="10"/>
+      <c r="BI194" s="10"/>
+      <c r="BJ194" s="10"/>
+    </row>
+    <row r="195" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A195" s="26"/>
+      <c r="B195" s="32"/>
+      <c r="C195" s="32"/>
+      <c r="D195" s="29"/>
+      <c r="E195" s="28"/>
+      <c r="F195" s="29"/>
+      <c r="G195" s="31"/>
+      <c r="H195" s="43"/>
+      <c r="I195" s="44"/>
+      <c r="J195" s="44"/>
+      <c r="K195" s="45"/>
+      <c r="L195" s="42"/>
+      <c r="M195" s="40"/>
+      <c r="N195" s="64"/>
+      <c r="O195" s="67"/>
+      <c r="P195" s="10"/>
+      <c r="Q195" s="10"/>
+      <c r="R195" s="10"/>
+      <c r="S195" s="10"/>
+      <c r="T195" s="10"/>
+      <c r="U195" s="10"/>
+      <c r="V195" s="10"/>
+      <c r="W195" s="10"/>
+      <c r="X195" s="10"/>
+      <c r="Y195" s="10"/>
+      <c r="Z195" s="10"/>
+      <c r="AA195" s="10"/>
+      <c r="AB195" s="10"/>
+      <c r="AC195" s="10"/>
+      <c r="AD195" s="10"/>
+      <c r="AE195" s="10"/>
+      <c r="AF195" s="10"/>
+      <c r="AG195" s="10"/>
+      <c r="AH195" s="10"/>
+      <c r="AI195" s="10"/>
+      <c r="AJ195" s="10"/>
+      <c r="AK195" s="10"/>
+      <c r="AL195" s="10"/>
+      <c r="AM195" s="10"/>
+      <c r="AN195" s="10"/>
+      <c r="AO195" s="10"/>
+      <c r="AP195" s="10"/>
+      <c r="AQ195" s="10"/>
+      <c r="AR195" s="10"/>
+      <c r="AS195" s="10"/>
+      <c r="AT195" s="10"/>
+      <c r="AU195" s="10"/>
+      <c r="AV195" s="10"/>
+      <c r="AW195" s="10"/>
+      <c r="AX195" s="10"/>
+      <c r="AY195" s="10"/>
+      <c r="AZ195" s="10"/>
+      <c r="BA195" s="10"/>
+      <c r="BB195" s="10"/>
+      <c r="BC195" s="10"/>
+      <c r="BD195" s="10"/>
+      <c r="BE195" s="10"/>
+      <c r="BF195" s="10"/>
+      <c r="BG195" s="10"/>
+      <c r="BH195" s="10"/>
+      <c r="BI195" s="10"/>
+      <c r="BJ195" s="10"/>
+    </row>
+    <row r="196" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A196" s="26"/>
+      <c r="B196" s="32"/>
+      <c r="C196" s="32"/>
+      <c r="D196" s="29"/>
+      <c r="E196" s="28"/>
+      <c r="F196" s="29"/>
+      <c r="G196" s="31"/>
+      <c r="H196" s="43"/>
+      <c r="I196" s="44"/>
+      <c r="J196" s="44"/>
+      <c r="K196" s="45"/>
+      <c r="L196" s="42"/>
+      <c r="M196" s="40"/>
+      <c r="N196" s="64"/>
+      <c r="O196" s="67"/>
+      <c r="P196" s="10"/>
+      <c r="Q196" s="10"/>
+      <c r="R196" s="10"/>
+      <c r="S196" s="10"/>
+      <c r="T196" s="10"/>
+      <c r="U196" s="10"/>
+      <c r="V196" s="10"/>
+      <c r="W196" s="10"/>
+      <c r="X196" s="10"/>
+      <c r="Y196" s="10"/>
+      <c r="Z196" s="10"/>
+      <c r="AA196" s="10"/>
+      <c r="AB196" s="10"/>
+      <c r="AC196" s="10"/>
+      <c r="AD196" s="10"/>
+      <c r="AE196" s="10"/>
+      <c r="AF196" s="10"/>
+      <c r="AG196" s="10"/>
+      <c r="AH196" s="10"/>
+      <c r="AI196" s="10"/>
+      <c r="AJ196" s="10"/>
+      <c r="AK196" s="10"/>
+      <c r="AL196" s="10"/>
+      <c r="AM196" s="10"/>
+      <c r="AN196" s="10"/>
+      <c r="AO196" s="10"/>
+      <c r="AP196" s="10"/>
+      <c r="AQ196" s="10"/>
+      <c r="AR196" s="10"/>
+      <c r="AS196" s="10"/>
+      <c r="AT196" s="10"/>
+      <c r="AU196" s="10"/>
+      <c r="AV196" s="10"/>
+      <c r="AW196" s="10"/>
+      <c r="AX196" s="10"/>
+      <c r="AY196" s="10"/>
+      <c r="AZ196" s="10"/>
+      <c r="BA196" s="10"/>
+      <c r="BB196" s="10"/>
+      <c r="BC196" s="10"/>
+      <c r="BD196" s="10"/>
+      <c r="BE196" s="10"/>
+      <c r="BF196" s="10"/>
+      <c r="BG196" s="10"/>
+      <c r="BH196" s="10"/>
+      <c r="BI196" s="10"/>
+      <c r="BJ196" s="10"/>
+    </row>
+    <row r="197" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A197" s="26"/>
+      <c r="B197" s="32"/>
+      <c r="C197" s="32"/>
+      <c r="D197" s="29"/>
+      <c r="E197" s="28"/>
+      <c r="F197" s="29"/>
+      <c r="G197" s="31"/>
+      <c r="H197" s="43"/>
+      <c r="I197" s="44"/>
+      <c r="J197" s="44"/>
+      <c r="K197" s="45"/>
+      <c r="L197" s="42"/>
+      <c r="M197" s="40"/>
+      <c r="N197" s="64"/>
+      <c r="O197" s="67"/>
+      <c r="P197" s="10"/>
+      <c r="Q197" s="10"/>
+      <c r="R197" s="10"/>
+      <c r="S197" s="10"/>
+      <c r="T197" s="10"/>
+      <c r="U197" s="10"/>
+      <c r="V197" s="10"/>
+      <c r="W197" s="10"/>
+      <c r="X197" s="10"/>
+      <c r="Y197" s="10"/>
+      <c r="Z197" s="10"/>
+      <c r="AA197" s="10"/>
+      <c r="AB197" s="10"/>
+      <c r="AC197" s="10"/>
+      <c r="AD197" s="10"/>
+      <c r="AE197" s="10"/>
+      <c r="AF197" s="10"/>
+      <c r="AG197" s="10"/>
+      <c r="AH197" s="10"/>
+      <c r="AI197" s="10"/>
+      <c r="AJ197" s="10"/>
+      <c r="AK197" s="10"/>
+      <c r="AL197" s="10"/>
+      <c r="AM197" s="10"/>
+      <c r="AN197" s="10"/>
+      <c r="AO197" s="10"/>
+      <c r="AP197" s="10"/>
+      <c r="AQ197" s="10"/>
+      <c r="AR197" s="10"/>
+      <c r="AS197" s="10"/>
+      <c r="AT197" s="10"/>
+      <c r="AU197" s="10"/>
+      <c r="AV197" s="10"/>
+      <c r="AW197" s="10"/>
+      <c r="AX197" s="10"/>
+      <c r="AY197" s="10"/>
+      <c r="AZ197" s="10"/>
+      <c r="BA197" s="10"/>
+      <c r="BB197" s="10"/>
+      <c r="BC197" s="10"/>
+      <c r="BD197" s="10"/>
+      <c r="BE197" s="10"/>
+      <c r="BF197" s="10"/>
+      <c r="BG197" s="10"/>
+      <c r="BH197" s="10"/>
+      <c r="BI197" s="10"/>
+      <c r="BJ197" s="10"/>
+    </row>
+    <row r="198" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A198" s="26"/>
+      <c r="B198" s="32"/>
+      <c r="C198" s="32"/>
+      <c r="D198" s="29"/>
+      <c r="E198" s="28"/>
+      <c r="F198" s="29"/>
+      <c r="G198" s="31"/>
+      <c r="H198" s="43"/>
+      <c r="I198" s="44"/>
+      <c r="J198" s="44"/>
+      <c r="K198" s="45"/>
+      <c r="L198" s="42"/>
+      <c r="M198" s="40"/>
+      <c r="N198" s="64"/>
+      <c r="O198" s="67"/>
+      <c r="P198" s="10"/>
+      <c r="Q198" s="10"/>
+      <c r="R198" s="10"/>
+      <c r="S198" s="10"/>
+      <c r="T198" s="10"/>
+      <c r="U198" s="10"/>
+      <c r="V198" s="10"/>
+      <c r="W198" s="10"/>
+      <c r="X198" s="10"/>
+      <c r="Y198" s="10"/>
+      <c r="Z198" s="10"/>
+      <c r="AA198" s="10"/>
+      <c r="AB198" s="10"/>
+      <c r="AC198" s="10"/>
+      <c r="AD198" s="10"/>
+      <c r="AE198" s="10"/>
+      <c r="AF198" s="10"/>
+      <c r="AG198" s="10"/>
+      <c r="AH198" s="10"/>
+      <c r="AI198" s="10"/>
+      <c r="AJ198" s="10"/>
+      <c r="AK198" s="10"/>
+      <c r="AL198" s="10"/>
+      <c r="AM198" s="10"/>
+      <c r="AN198" s="10"/>
+      <c r="AO198" s="10"/>
+      <c r="AP198" s="10"/>
+      <c r="AQ198" s="10"/>
+      <c r="AR198" s="10"/>
+      <c r="AS198" s="10"/>
+      <c r="AT198" s="10"/>
+      <c r="AU198" s="10"/>
+      <c r="AV198" s="10"/>
+      <c r="AW198" s="10"/>
+      <c r="AX198" s="10"/>
+      <c r="AY198" s="10"/>
+      <c r="AZ198" s="10"/>
+      <c r="BA198" s="10"/>
+      <c r="BB198" s="10"/>
+      <c r="BC198" s="10"/>
+      <c r="BD198" s="10"/>
+      <c r="BE198" s="10"/>
+      <c r="BF198" s="10"/>
+      <c r="BG198" s="10"/>
+      <c r="BH198" s="10"/>
+      <c r="BI198" s="10"/>
+      <c r="BJ198" s="10"/>
+    </row>
+    <row r="199" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A199" s="26"/>
+      <c r="B199" s="32"/>
+      <c r="C199" s="32"/>
+      <c r="D199" s="29"/>
+      <c r="E199" s="28"/>
+      <c r="F199" s="29"/>
+      <c r="G199" s="31"/>
+      <c r="H199" s="43"/>
+      <c r="I199" s="44"/>
+      <c r="J199" s="44"/>
+      <c r="K199" s="45"/>
+      <c r="L199" s="42"/>
+      <c r="M199" s="40"/>
+      <c r="N199" s="64"/>
+      <c r="O199" s="67"/>
+      <c r="P199" s="10"/>
+      <c r="Q199" s="10"/>
+      <c r="R199" s="10"/>
+      <c r="S199" s="10"/>
+      <c r="T199" s="10"/>
+      <c r="U199" s="10"/>
+      <c r="V199" s="10"/>
+      <c r="W199" s="10"/>
+      <c r="X199" s="10"/>
+      <c r="Y199" s="10"/>
+      <c r="Z199" s="10"/>
+      <c r="AA199" s="10"/>
+      <c r="AB199" s="10"/>
+      <c r="AC199" s="10"/>
+      <c r="AD199" s="10"/>
+      <c r="AE199" s="10"/>
+      <c r="AF199" s="10"/>
+      <c r="AG199" s="10"/>
+      <c r="AH199" s="10"/>
+      <c r="AI199" s="10"/>
+      <c r="AJ199" s="10"/>
+      <c r="AK199" s="10"/>
+      <c r="AL199" s="10"/>
+      <c r="AM199" s="10"/>
+      <c r="AN199" s="10"/>
+      <c r="AO199" s="10"/>
+      <c r="AP199" s="10"/>
+      <c r="AQ199" s="10"/>
+      <c r="AR199" s="10"/>
+      <c r="AS199" s="10"/>
+      <c r="AT199" s="10"/>
+      <c r="AU199" s="10"/>
+      <c r="AV199" s="10"/>
+      <c r="AW199" s="10"/>
+      <c r="AX199" s="10"/>
+      <c r="AY199" s="10"/>
+      <c r="AZ199" s="10"/>
+      <c r="BA199" s="10"/>
+      <c r="BB199" s="10"/>
+      <c r="BC199" s="10"/>
+      <c r="BD199" s="10"/>
+      <c r="BE199" s="10"/>
+      <c r="BF199" s="10"/>
+      <c r="BG199" s="10"/>
+      <c r="BH199" s="10"/>
+      <c r="BI199" s="10"/>
+      <c r="BJ199" s="10"/>
+    </row>
+    <row r="200" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A200" s="26"/>
+      <c r="B200" s="32"/>
+      <c r="C200" s="32"/>
+      <c r="D200" s="29"/>
+      <c r="E200" s="28"/>
+      <c r="F200" s="29"/>
+      <c r="G200" s="31"/>
+      <c r="H200" s="43"/>
+      <c r="I200" s="44"/>
+      <c r="J200" s="44"/>
+      <c r="K200" s="45"/>
+      <c r="L200" s="42"/>
+      <c r="M200" s="40"/>
+      <c r="N200" s="64"/>
+      <c r="O200" s="67"/>
+      <c r="P200" s="10"/>
+      <c r="Q200" s="10"/>
+      <c r="R200" s="10"/>
+      <c r="S200" s="10"/>
+      <c r="T200" s="10"/>
+      <c r="U200" s="10"/>
+      <c r="V200" s="10"/>
+      <c r="W200" s="10"/>
+      <c r="X200" s="10"/>
+      <c r="Y200" s="10"/>
+      <c r="Z200" s="10"/>
+      <c r="AA200" s="10"/>
+      <c r="AB200" s="10"/>
+      <c r="AC200" s="10"/>
+      <c r="AD200" s="10"/>
+      <c r="AE200" s="10"/>
+      <c r="AF200" s="10"/>
+      <c r="AG200" s="10"/>
+      <c r="AH200" s="10"/>
+      <c r="AI200" s="10"/>
+      <c r="AJ200" s="10"/>
+      <c r="AK200" s="10"/>
+      <c r="AL200" s="10"/>
+      <c r="AM200" s="10"/>
+      <c r="AN200" s="10"/>
+      <c r="AO200" s="10"/>
+      <c r="AP200" s="10"/>
+      <c r="AQ200" s="10"/>
+      <c r="AR200" s="10"/>
+      <c r="AS200" s="10"/>
+      <c r="AT200" s="10"/>
+      <c r="AU200" s="10"/>
+      <c r="AV200" s="10"/>
+      <c r="AW200" s="10"/>
+      <c r="AX200" s="10"/>
+      <c r="AY200" s="10"/>
+      <c r="AZ200" s="10"/>
+      <c r="BA200" s="10"/>
+      <c r="BB200" s="10"/>
+      <c r="BC200" s="10"/>
+      <c r="BD200" s="10"/>
+      <c r="BE200" s="10"/>
+      <c r="BF200" s="10"/>
+      <c r="BG200" s="10"/>
+      <c r="BH200" s="10"/>
+      <c r="BI200" s="10"/>
+      <c r="BJ200" s="10"/>
+    </row>
+    <row r="201" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A201" s="26"/>
+      <c r="B201" s="32"/>
+      <c r="C201" s="32"/>
+      <c r="D201" s="29"/>
+      <c r="E201" s="28"/>
+      <c r="F201" s="29"/>
+      <c r="G201" s="31"/>
+      <c r="H201" s="43"/>
+      <c r="I201" s="44"/>
+      <c r="J201" s="44"/>
+      <c r="K201" s="45"/>
+      <c r="L201" s="42"/>
+      <c r="M201" s="40"/>
+      <c r="N201" s="64"/>
+      <c r="O201" s="67"/>
+      <c r="P201" s="10"/>
+      <c r="Q201" s="10"/>
+      <c r="R201" s="10"/>
+      <c r="S201" s="10"/>
+      <c r="T201" s="10"/>
+      <c r="U201" s="10"/>
+      <c r="V201" s="10"/>
+      <c r="W201" s="10"/>
+      <c r="X201" s="10"/>
+      <c r="Y201" s="10"/>
+      <c r="Z201" s="10"/>
+      <c r="AA201" s="10"/>
+      <c r="AB201" s="10"/>
+      <c r="AC201" s="10"/>
+      <c r="AD201" s="10"/>
+      <c r="AE201" s="10"/>
+      <c r="AF201" s="10"/>
+      <c r="AG201" s="10"/>
+      <c r="AH201" s="10"/>
+      <c r="AI201" s="10"/>
+      <c r="AJ201" s="10"/>
+      <c r="AK201" s="10"/>
+      <c r="AL201" s="10"/>
+      <c r="AM201" s="10"/>
+      <c r="AN201" s="10"/>
+      <c r="AO201" s="10"/>
+      <c r="AP201" s="10"/>
+      <c r="AQ201" s="10"/>
+      <c r="AR201" s="10"/>
+      <c r="AS201" s="10"/>
+      <c r="AT201" s="10"/>
+      <c r="AU201" s="10"/>
+      <c r="AV201" s="10"/>
+      <c r="AW201" s="10"/>
+      <c r="AX201" s="10"/>
+      <c r="AY201" s="10"/>
+      <c r="AZ201" s="10"/>
+      <c r="BA201" s="10"/>
+      <c r="BB201" s="10"/>
+      <c r="BC201" s="10"/>
+      <c r="BD201" s="10"/>
+      <c r="BE201" s="10"/>
+      <c r="BF201" s="10"/>
+      <c r="BG201" s="10"/>
+      <c r="BH201" s="10"/>
+      <c r="BI201" s="10"/>
+      <c r="BJ201" s="10"/>
+    </row>
+    <row r="202" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A202" s="26"/>
+      <c r="B202" s="32"/>
+      <c r="C202" s="32"/>
+      <c r="D202" s="29"/>
+      <c r="E202" s="28"/>
+      <c r="F202" s="29"/>
+      <c r="G202" s="31"/>
+      <c r="H202" s="43"/>
+      <c r="I202" s="44"/>
+      <c r="J202" s="44"/>
+      <c r="K202" s="45"/>
+      <c r="L202" s="42"/>
+      <c r="M202" s="40"/>
+      <c r="N202" s="64"/>
+      <c r="O202" s="67"/>
+      <c r="P202" s="10"/>
+      <c r="Q202" s="10"/>
+      <c r="R202" s="10"/>
+      <c r="S202" s="10"/>
+      <c r="T202" s="10"/>
+      <c r="U202" s="10"/>
+      <c r="V202" s="10"/>
+      <c r="W202" s="10"/>
+      <c r="X202" s="10"/>
+      <c r="Y202" s="10"/>
+      <c r="Z202" s="10"/>
+      <c r="AA202" s="10"/>
+      <c r="AB202" s="10"/>
+      <c r="AC202" s="10"/>
+      <c r="AD202" s="10"/>
+      <c r="AE202" s="10"/>
+      <c r="AF202" s="10"/>
+      <c r="AG202" s="10"/>
+      <c r="AH202" s="10"/>
+      <c r="AI202" s="10"/>
+      <c r="AJ202" s="10"/>
+      <c r="AK202" s="10"/>
+      <c r="AL202" s="10"/>
+      <c r="AM202" s="10"/>
+      <c r="AN202" s="10"/>
+      <c r="AO202" s="10"/>
+      <c r="AP202" s="10"/>
+      <c r="AQ202" s="10"/>
+      <c r="AR202" s="10"/>
+      <c r="AS202" s="10"/>
+      <c r="AT202" s="10"/>
+      <c r="AU202" s="10"/>
+      <c r="AV202" s="10"/>
+      <c r="AW202" s="10"/>
+      <c r="AX202" s="10"/>
+      <c r="AY202" s="10"/>
+      <c r="AZ202" s="10"/>
+      <c r="BA202" s="10"/>
+      <c r="BB202" s="10"/>
+      <c r="BC202" s="10"/>
+      <c r="BD202" s="10"/>
+      <c r="BE202" s="10"/>
+      <c r="BF202" s="10"/>
+      <c r="BG202" s="10"/>
+      <c r="BH202" s="10"/>
+      <c r="BI202" s="10"/>
+      <c r="BJ202" s="10"/>
+    </row>
+    <row r="203" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A203" s="26"/>
+      <c r="B203" s="32"/>
+      <c r="C203" s="32"/>
+      <c r="D203" s="29"/>
+      <c r="E203" s="28"/>
+      <c r="F203" s="29"/>
+      <c r="G203" s="31"/>
+      <c r="H203" s="43"/>
+      <c r="I203" s="44"/>
+      <c r="J203" s="44"/>
+      <c r="K203" s="45"/>
+      <c r="L203" s="42"/>
+      <c r="M203" s="40"/>
+      <c r="N203" s="64"/>
+      <c r="O203" s="67"/>
+      <c r="P203" s="10"/>
+      <c r="Q203" s="10"/>
+      <c r="R203" s="10"/>
+      <c r="S203" s="10"/>
+      <c r="T203" s="10"/>
+      <c r="U203" s="10"/>
+      <c r="V203" s="10"/>
+      <c r="W203" s="10"/>
+      <c r="X203" s="10"/>
+      <c r="Y203" s="10"/>
+      <c r="Z203" s="10"/>
+      <c r="AA203" s="10"/>
+      <c r="AB203" s="10"/>
+      <c r="AC203" s="10"/>
+      <c r="AD203" s="10"/>
+      <c r="AE203" s="10"/>
+      <c r="AF203" s="10"/>
+      <c r="AG203" s="10"/>
+      <c r="AH203" s="10"/>
+      <c r="AI203" s="10"/>
+      <c r="AJ203" s="10"/>
+      <c r="AK203" s="10"/>
+      <c r="AL203" s="10"/>
+      <c r="AM203" s="10"/>
+      <c r="AN203" s="10"/>
+      <c r="AO203" s="10"/>
+      <c r="AP203" s="10"/>
+      <c r="AQ203" s="10"/>
+      <c r="AR203" s="10"/>
+      <c r="AS203" s="10"/>
+      <c r="AT203" s="10"/>
+      <c r="AU203" s="10"/>
+      <c r="AV203" s="10"/>
+      <c r="AW203" s="10"/>
+      <c r="AX203" s="10"/>
+      <c r="AY203" s="10"/>
+      <c r="AZ203" s="10"/>
+      <c r="BA203" s="10"/>
+      <c r="BB203" s="10"/>
+      <c r="BC203" s="10"/>
+      <c r="BD203" s="10"/>
+      <c r="BE203" s="10"/>
+      <c r="BF203" s="10"/>
+      <c r="BG203" s="10"/>
+      <c r="BH203" s="10"/>
+      <c r="BI203" s="10"/>
+      <c r="BJ203" s="10"/>
+    </row>
+    <row r="204" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A204" s="26"/>
+      <c r="B204" s="32"/>
+      <c r="C204" s="32"/>
+      <c r="D204" s="29"/>
+      <c r="E204" s="28"/>
+      <c r="F204" s="29"/>
+      <c r="G204" s="31"/>
+      <c r="H204" s="43"/>
+      <c r="I204" s="44"/>
+      <c r="J204" s="44"/>
+      <c r="K204" s="45"/>
+      <c r="L204" s="42"/>
+      <c r="M204" s="40"/>
+      <c r="N204" s="64"/>
+      <c r="O204" s="67"/>
+      <c r="P204" s="10"/>
+      <c r="Q204" s="10"/>
+      <c r="R204" s="10"/>
+      <c r="S204" s="10"/>
+      <c r="T204" s="10"/>
+      <c r="U204" s="10"/>
+      <c r="V204" s="10"/>
+      <c r="W204" s="10"/>
+      <c r="X204" s="10"/>
+      <c r="Y204" s="10"/>
+      <c r="Z204" s="10"/>
+      <c r="AA204" s="10"/>
+      <c r="AB204" s="10"/>
+      <c r="AC204" s="10"/>
+      <c r="AD204" s="10"/>
+      <c r="AE204" s="10"/>
+      <c r="AF204" s="10"/>
+      <c r="AG204" s="10"/>
+      <c r="AH204" s="10"/>
+      <c r="AI204" s="10"/>
+      <c r="AJ204" s="10"/>
+      <c r="AK204" s="10"/>
+      <c r="AL204" s="10"/>
+      <c r="AM204" s="10"/>
+      <c r="AN204" s="10"/>
+      <c r="AO204" s="10"/>
+      <c r="AP204" s="10"/>
+      <c r="AQ204" s="10"/>
+      <c r="AR204" s="10"/>
+      <c r="AS204" s="10"/>
+      <c r="AT204" s="10"/>
+      <c r="AU204" s="10"/>
+      <c r="AV204" s="10"/>
+      <c r="AW204" s="10"/>
+      <c r="AX204" s="10"/>
+      <c r="AY204" s="10"/>
+      <c r="AZ204" s="10"/>
+      <c r="BA204" s="10"/>
+      <c r="BB204" s="10"/>
+      <c r="BC204" s="10"/>
+      <c r="BD204" s="10"/>
+      <c r="BE204" s="10"/>
+      <c r="BF204" s="10"/>
+      <c r="BG204" s="10"/>
+      <c r="BH204" s="10"/>
+      <c r="BI204" s="10"/>
+      <c r="BJ204" s="10"/>
+    </row>
+    <row r="205" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A205" s="26"/>
+      <c r="B205" s="32"/>
+      <c r="C205" s="32"/>
+      <c r="D205" s="29"/>
+      <c r="E205" s="28"/>
+      <c r="F205" s="29"/>
+      <c r="G205" s="31"/>
+      <c r="H205" s="43"/>
+      <c r="I205" s="44"/>
+      <c r="J205" s="44"/>
+      <c r="K205" s="45"/>
+      <c r="L205" s="42"/>
+      <c r="M205" s="40"/>
+      <c r="N205" s="64"/>
+      <c r="O205" s="67"/>
+      <c r="P205" s="10"/>
+      <c r="Q205" s="10"/>
+      <c r="R205" s="10"/>
+      <c r="S205" s="10"/>
+      <c r="T205" s="10"/>
+      <c r="U205" s="10"/>
+      <c r="V205" s="10"/>
+      <c r="W205" s="10"/>
+      <c r="X205" s="10"/>
+      <c r="Y205" s="10"/>
+      <c r="Z205" s="10"/>
+      <c r="AA205" s="10"/>
+      <c r="AB205" s="10"/>
+      <c r="AC205" s="10"/>
+      <c r="AD205" s="10"/>
+      <c r="AE205" s="10"/>
+      <c r="AF205" s="10"/>
+      <c r="AG205" s="10"/>
+      <c r="AH205" s="10"/>
+      <c r="AI205" s="10"/>
+      <c r="AJ205" s="10"/>
+      <c r="AK205" s="10"/>
+      <c r="AL205" s="10"/>
+      <c r="AM205" s="10"/>
+      <c r="AN205" s="10"/>
+      <c r="AO205" s="10"/>
+      <c r="AP205" s="10"/>
+      <c r="AQ205" s="10"/>
+      <c r="AR205" s="10"/>
+      <c r="AS205" s="10"/>
+      <c r="AT205" s="10"/>
+      <c r="AU205" s="10"/>
+      <c r="AV205" s="10"/>
+      <c r="AW205" s="10"/>
+      <c r="AX205" s="10"/>
+      <c r="AY205" s="10"/>
+      <c r="AZ205" s="10"/>
+      <c r="BA205" s="10"/>
+      <c r="BB205" s="10"/>
+      <c r="BC205" s="10"/>
+      <c r="BD205" s="10"/>
+      <c r="BE205" s="10"/>
+      <c r="BF205" s="10"/>
+      <c r="BG205" s="10"/>
+      <c r="BH205" s="10"/>
+      <c r="BI205" s="10"/>
+      <c r="BJ205" s="10"/>
+    </row>
+    <row r="206" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A206" s="26"/>
+      <c r="B206" s="32"/>
+      <c r="C206" s="32"/>
+      <c r="D206" s="29"/>
+      <c r="E206" s="28"/>
+      <c r="F206" s="29"/>
+      <c r="G206" s="31"/>
+      <c r="H206" s="43"/>
+      <c r="I206" s="44"/>
+      <c r="J206" s="44"/>
+      <c r="K206" s="45"/>
+      <c r="L206" s="42"/>
+      <c r="M206" s="40"/>
+      <c r="N206" s="64"/>
+      <c r="O206" s="67"/>
+      <c r="P206" s="10"/>
+      <c r="Q206" s="10"/>
+      <c r="R206" s="10"/>
+      <c r="S206" s="10"/>
+      <c r="T206" s="10"/>
+      <c r="U206" s="10"/>
+      <c r="V206" s="10"/>
+      <c r="W206" s="10"/>
+      <c r="X206" s="10"/>
+      <c r="Y206" s="10"/>
+      <c r="Z206" s="10"/>
+      <c r="AA206" s="10"/>
+      <c r="AB206" s="10"/>
+      <c r="AC206" s="10"/>
+      <c r="AD206" s="10"/>
+      <c r="AE206" s="10"/>
+      <c r="AF206" s="10"/>
+      <c r="AG206" s="10"/>
+      <c r="AH206" s="10"/>
+      <c r="AI206" s="10"/>
+      <c r="AJ206" s="10"/>
+      <c r="AK206" s="10"/>
+      <c r="AL206" s="10"/>
+      <c r="AM206" s="10"/>
+      <c r="AN206" s="10"/>
+      <c r="AO206" s="10"/>
+      <c r="AP206" s="10"/>
+      <c r="AQ206" s="10"/>
+      <c r="AR206" s="10"/>
+      <c r="AS206" s="10"/>
+      <c r="AT206" s="10"/>
+      <c r="AU206" s="10"/>
+      <c r="AV206" s="10"/>
+      <c r="AW206" s="10"/>
+      <c r="AX206" s="10"/>
+      <c r="AY206" s="10"/>
+      <c r="AZ206" s="10"/>
+      <c r="BA206" s="10"/>
+      <c r="BB206" s="10"/>
+      <c r="BC206" s="10"/>
+      <c r="BD206" s="10"/>
+      <c r="BE206" s="10"/>
+      <c r="BF206" s="10"/>
+      <c r="BG206" s="10"/>
+      <c r="BH206" s="10"/>
+      <c r="BI206" s="10"/>
+      <c r="BJ206" s="10"/>
+    </row>
+    <row r="207" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A207" s="26"/>
+      <c r="B207" s="32"/>
+      <c r="C207" s="32"/>
+      <c r="D207" s="29"/>
+      <c r="E207" s="28"/>
+      <c r="F207" s="29"/>
+      <c r="G207" s="31"/>
+      <c r="H207" s="43"/>
+      <c r="I207" s="44"/>
+      <c r="J207" s="44"/>
+      <c r="K207" s="45"/>
+      <c r="L207" s="42"/>
+      <c r="M207" s="40"/>
+      <c r="N207" s="64"/>
+      <c r="O207" s="67"/>
+      <c r="P207" s="10"/>
+      <c r="Q207" s="10"/>
+      <c r="R207" s="10"/>
+      <c r="S207" s="10"/>
+      <c r="T207" s="10"/>
+      <c r="U207" s="10"/>
+      <c r="V207" s="10"/>
+      <c r="W207" s="10"/>
+      <c r="X207" s="10"/>
+      <c r="Y207" s="10"/>
+      <c r="Z207" s="10"/>
+      <c r="AA207" s="10"/>
+      <c r="AB207" s="10"/>
+      <c r="AC207" s="10"/>
+      <c r="AD207" s="10"/>
+      <c r="AE207" s="10"/>
+      <c r="AF207" s="10"/>
+      <c r="AG207" s="10"/>
+      <c r="AH207" s="10"/>
+      <c r="AI207" s="10"/>
+      <c r="AJ207" s="10"/>
+      <c r="AK207" s="10"/>
+      <c r="AL207" s="10"/>
+      <c r="AM207" s="10"/>
+      <c r="AN207" s="10"/>
+      <c r="AO207" s="10"/>
+      <c r="AP207" s="10"/>
+      <c r="AQ207" s="10"/>
+      <c r="AR207" s="10"/>
+      <c r="AS207" s="10"/>
+      <c r="AT207" s="10"/>
+      <c r="AU207" s="10"/>
+      <c r="AV207" s="10"/>
+      <c r="AW207" s="10"/>
+      <c r="AX207" s="10"/>
+      <c r="AY207" s="10"/>
+      <c r="AZ207" s="10"/>
+      <c r="BA207" s="10"/>
+      <c r="BB207" s="10"/>
+      <c r="BC207" s="10"/>
+      <c r="BD207" s="10"/>
+      <c r="BE207" s="10"/>
+      <c r="BF207" s="10"/>
+      <c r="BG207" s="10"/>
+      <c r="BH207" s="10"/>
+      <c r="BI207" s="10"/>
+      <c r="BJ207" s="10"/>
+    </row>
+    <row r="208" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A208" s="26"/>
+      <c r="B208" s="32"/>
+      <c r="C208" s="32"/>
+      <c r="D208" s="29"/>
+      <c r="E208" s="28"/>
+      <c r="F208" s="29"/>
+      <c r="G208" s="31"/>
+      <c r="H208" s="43"/>
+      <c r="I208" s="44"/>
+      <c r="J208" s="44"/>
+      <c r="K208" s="45"/>
+      <c r="L208" s="42"/>
+      <c r="M208" s="40"/>
+      <c r="N208" s="64"/>
+      <c r="O208" s="67"/>
+      <c r="P208" s="10"/>
+      <c r="Q208" s="10"/>
+      <c r="R208" s="10"/>
+      <c r="S208" s="10"/>
+      <c r="T208" s="10"/>
+      <c r="U208" s="10"/>
+      <c r="V208" s="10"/>
+      <c r="W208" s="10"/>
+      <c r="X208" s="10"/>
+      <c r="Y208" s="10"/>
+      <c r="Z208" s="10"/>
+      <c r="AA208" s="10"/>
+      <c r="AB208" s="10"/>
+      <c r="AC208" s="10"/>
+      <c r="AD208" s="10"/>
+      <c r="AE208" s="10"/>
+      <c r="AF208" s="10"/>
+      <c r="AG208" s="10"/>
+      <c r="AH208" s="10"/>
+      <c r="AI208" s="10"/>
+      <c r="AJ208" s="10"/>
+      <c r="AK208" s="10"/>
+      <c r="AL208" s="10"/>
+      <c r="AM208" s="10"/>
+      <c r="AN208" s="10"/>
+      <c r="AO208" s="10"/>
+      <c r="AP208" s="10"/>
+      <c r="AQ208" s="10"/>
+      <c r="AR208" s="10"/>
+      <c r="AS208" s="10"/>
+      <c r="AT208" s="10"/>
+      <c r="AU208" s="10"/>
+      <c r="AV208" s="10"/>
+      <c r="AW208" s="10"/>
+      <c r="AX208" s="10"/>
+      <c r="AY208" s="10"/>
+      <c r="AZ208" s="10"/>
+      <c r="BA208" s="10"/>
+      <c r="BB208" s="10"/>
+      <c r="BC208" s="10"/>
+      <c r="BD208" s="10"/>
+      <c r="BE208" s="10"/>
+      <c r="BF208" s="10"/>
+      <c r="BG208" s="10"/>
+      <c r="BH208" s="10"/>
+      <c r="BI208" s="10"/>
+      <c r="BJ208" s="10"/>
+    </row>
+    <row r="209" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A209" s="26"/>
+      <c r="B209" s="32"/>
+      <c r="C209" s="32"/>
+      <c r="D209" s="29"/>
+      <c r="E209" s="28"/>
+      <c r="F209" s="29"/>
+      <c r="G209" s="31"/>
+      <c r="H209" s="43"/>
+      <c r="I209" s="44"/>
+      <c r="J209" s="44"/>
+      <c r="K209" s="45"/>
+      <c r="L209" s="42"/>
+      <c r="M209" s="40"/>
+      <c r="N209" s="64"/>
+      <c r="O209" s="67"/>
+      <c r="P209" s="10"/>
+      <c r="Q209" s="10"/>
+      <c r="R209" s="10"/>
+      <c r="S209" s="10"/>
+      <c r="T209" s="10"/>
+      <c r="U209" s="10"/>
+      <c r="V209" s="10"/>
+      <c r="W209" s="10"/>
+      <c r="X209" s="10"/>
+      <c r="Y209" s="10"/>
+      <c r="Z209" s="10"/>
+      <c r="AA209" s="10"/>
+      <c r="AB209" s="10"/>
+      <c r="AC209" s="10"/>
+      <c r="AD209" s="10"/>
+      <c r="AE209" s="10"/>
+      <c r="AF209" s="10"/>
+      <c r="AG209" s="10"/>
+      <c r="AH209" s="10"/>
+      <c r="AI209" s="10"/>
+      <c r="AJ209" s="10"/>
+      <c r="AK209" s="10"/>
+      <c r="AL209" s="10"/>
+      <c r="AM209" s="10"/>
+      <c r="AN209" s="10"/>
+      <c r="AO209" s="10"/>
+      <c r="AP209" s="10"/>
+      <c r="AQ209" s="10"/>
+      <c r="AR209" s="10"/>
+      <c r="AS209" s="10"/>
+      <c r="AT209" s="10"/>
+      <c r="AU209" s="10"/>
+      <c r="AV209" s="10"/>
+      <c r="AW209" s="10"/>
+      <c r="AX209" s="10"/>
+      <c r="AY209" s="10"/>
+      <c r="AZ209" s="10"/>
+      <c r="BA209" s="10"/>
+      <c r="BB209" s="10"/>
+      <c r="BC209" s="10"/>
+      <c r="BD209" s="10"/>
+      <c r="BE209" s="10"/>
+      <c r="BF209" s="10"/>
+      <c r="BG209" s="10"/>
+      <c r="BH209" s="10"/>
+      <c r="BI209" s="10"/>
+      <c r="BJ209" s="10"/>
+    </row>
+    <row r="210" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A210" s="26"/>
+      <c r="B210" s="32"/>
+      <c r="C210" s="32"/>
+      <c r="D210" s="29"/>
+      <c r="E210" s="28"/>
+      <c r="F210" s="29"/>
+      <c r="G210" s="31"/>
+      <c r="H210" s="43"/>
+      <c r="I210" s="44"/>
+      <c r="J210" s="44"/>
+      <c r="K210" s="45"/>
+      <c r="L210" s="42"/>
+      <c r="M210" s="40"/>
+      <c r="N210" s="64"/>
+      <c r="O210" s="67"/>
+      <c r="P210" s="10"/>
+      <c r="Q210" s="10"/>
+      <c r="R210" s="10"/>
+      <c r="S210" s="10"/>
+      <c r="T210" s="10"/>
+      <c r="U210" s="10"/>
+      <c r="V210" s="10"/>
+      <c r="W210" s="10"/>
+      <c r="X210" s="10"/>
+      <c r="Y210" s="10"/>
+      <c r="Z210" s="10"/>
+      <c r="AA210" s="10"/>
+      <c r="AB210" s="10"/>
+      <c r="AC210" s="10"/>
+      <c r="AD210" s="10"/>
+      <c r="AE210" s="10"/>
+      <c r="AF210" s="10"/>
+      <c r="AG210" s="10"/>
+      <c r="AH210" s="10"/>
+      <c r="AI210" s="10"/>
+      <c r="AJ210" s="10"/>
+      <c r="AK210" s="10"/>
+      <c r="AL210" s="10"/>
+      <c r="AM210" s="10"/>
+      <c r="AN210" s="10"/>
+      <c r="AO210" s="10"/>
+      <c r="AP210" s="10"/>
+      <c r="AQ210" s="10"/>
+      <c r="AR210" s="10"/>
+      <c r="AS210" s="10"/>
+      <c r="AT210" s="10"/>
+      <c r="AU210" s="10"/>
+      <c r="AV210" s="10"/>
+      <c r="AW210" s="10"/>
+      <c r="AX210" s="10"/>
+      <c r="AY210" s="10"/>
+      <c r="AZ210" s="10"/>
+      <c r="BA210" s="10"/>
+      <c r="BB210" s="10"/>
+      <c r="BC210" s="10"/>
+      <c r="BD210" s="10"/>
+      <c r="BE210" s="10"/>
+      <c r="BF210" s="10"/>
+      <c r="BG210" s="10"/>
+      <c r="BH210" s="10"/>
+      <c r="BI210" s="10"/>
+      <c r="BJ210" s="10"/>
+    </row>
+    <row r="211" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A211" s="26"/>
+      <c r="B211" s="32"/>
+      <c r="C211" s="32"/>
+      <c r="D211" s="29"/>
+      <c r="E211" s="28"/>
+      <c r="F211" s="29"/>
+      <c r="G211" s="31"/>
+      <c r="H211" s="43"/>
+      <c r="I211" s="44"/>
+      <c r="J211" s="44"/>
+      <c r="K211" s="45"/>
+      <c r="L211" s="42"/>
+      <c r="M211" s="40"/>
+      <c r="N211" s="64"/>
+      <c r="O211" s="67"/>
+      <c r="P211" s="10"/>
+      <c r="Q211" s="10"/>
+      <c r="R211" s="10"/>
+      <c r="S211" s="10"/>
+      <c r="T211" s="10"/>
+      <c r="U211" s="10"/>
+      <c r="V211" s="10"/>
+      <c r="W211" s="10"/>
+      <c r="X211" s="10"/>
+      <c r="Y211" s="10"/>
+      <c r="Z211" s="10"/>
+      <c r="AA211" s="10"/>
+      <c r="AB211" s="10"/>
+      <c r="AC211" s="10"/>
+      <c r="AD211" s="10"/>
+      <c r="AE211" s="10"/>
+      <c r="AF211" s="10"/>
+      <c r="AG211" s="10"/>
+      <c r="AH211" s="10"/>
+      <c r="AI211" s="10"/>
+      <c r="AJ211" s="10"/>
+      <c r="AK211" s="10"/>
+      <c r="AL211" s="10"/>
+      <c r="AM211" s="10"/>
+      <c r="AN211" s="10"/>
+      <c r="AO211" s="10"/>
+      <c r="AP211" s="10"/>
+      <c r="AQ211" s="10"/>
+      <c r="AR211" s="10"/>
+      <c r="AS211" s="10"/>
+      <c r="AT211" s="10"/>
+      <c r="AU211" s="10"/>
+      <c r="AV211" s="10"/>
+      <c r="AW211" s="10"/>
+      <c r="AX211" s="10"/>
+      <c r="AY211" s="10"/>
+      <c r="AZ211" s="10"/>
+      <c r="BA211" s="10"/>
+      <c r="BB211" s="10"/>
+      <c r="BC211" s="10"/>
+      <c r="BD211" s="10"/>
+      <c r="BE211" s="10"/>
+      <c r="BF211" s="10"/>
+      <c r="BG211" s="10"/>
+      <c r="BH211" s="10"/>
+      <c r="BI211" s="10"/>
+      <c r="BJ211" s="10"/>
+    </row>
+    <row r="212" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A212" s="26"/>
+      <c r="B212" s="32"/>
+      <c r="C212" s="32"/>
+      <c r="D212" s="29"/>
+      <c r="E212" s="28"/>
+      <c r="F212" s="29"/>
+      <c r="G212" s="31"/>
+      <c r="H212" s="43"/>
+      <c r="I212" s="44"/>
+      <c r="J212" s="44"/>
+      <c r="K212" s="45"/>
+      <c r="L212" s="42"/>
+      <c r="M212" s="40"/>
+      <c r="N212" s="64"/>
+      <c r="O212" s="67"/>
+      <c r="P212" s="10"/>
+      <c r="Q212" s="10"/>
+      <c r="R212" s="10"/>
+      <c r="S212" s="10"/>
+      <c r="T212" s="10"/>
+      <c r="U212" s="10"/>
+      <c r="V212" s="10"/>
+      <c r="W212" s="10"/>
+      <c r="X212" s="10"/>
+      <c r="Y212" s="10"/>
+      <c r="Z212" s="10"/>
+      <c r="AA212" s="10"/>
+      <c r="AB212" s="10"/>
+      <c r="AC212" s="10"/>
+      <c r="AD212" s="10"/>
+      <c r="AE212" s="10"/>
+      <c r="AF212" s="10"/>
+      <c r="AG212" s="10"/>
+      <c r="AH212" s="10"/>
+      <c r="AI212" s="10"/>
+      <c r="AJ212" s="10"/>
+      <c r="AK212" s="10"/>
+      <c r="AL212" s="10"/>
+      <c r="AM212" s="10"/>
+      <c r="AN212" s="10"/>
+      <c r="AO212" s="10"/>
+      <c r="AP212" s="10"/>
+      <c r="AQ212" s="10"/>
+      <c r="AR212" s="10"/>
+      <c r="AS212" s="10"/>
+      <c r="AT212" s="10"/>
+      <c r="AU212" s="10"/>
+      <c r="AV212" s="10"/>
+      <c r="AW212" s="10"/>
+      <c r="AX212" s="10"/>
+      <c r="AY212" s="10"/>
+      <c r="AZ212" s="10"/>
+      <c r="BA212" s="10"/>
+      <c r="BB212" s="10"/>
+      <c r="BC212" s="10"/>
+      <c r="BD212" s="10"/>
+      <c r="BE212" s="10"/>
+      <c r="BF212" s="10"/>
+      <c r="BG212" s="10"/>
+      <c r="BH212" s="10"/>
+      <c r="BI212" s="10"/>
+      <c r="BJ212" s="10"/>
+    </row>
+    <row r="213" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A213" s="26"/>
+      <c r="B213" s="32"/>
+      <c r="C213" s="32"/>
+      <c r="D213" s="29"/>
+      <c r="E213" s="28"/>
+      <c r="F213" s="29"/>
+      <c r="G213" s="31"/>
+      <c r="H213" s="43"/>
+      <c r="I213" s="44"/>
+      <c r="J213" s="44"/>
+      <c r="K213" s="45"/>
+      <c r="L213" s="42"/>
+      <c r="M213" s="40"/>
+      <c r="N213" s="64"/>
+      <c r="O213" s="67"/>
+      <c r="P213" s="10"/>
+      <c r="Q213" s="10"/>
+      <c r="R213" s="10"/>
+      <c r="S213" s="10"/>
+      <c r="T213" s="10"/>
+      <c r="U213" s="10"/>
+      <c r="V213" s="10"/>
+      <c r="W213" s="10"/>
+      <c r="X213" s="10"/>
+      <c r="Y213" s="10"/>
+      <c r="Z213" s="10"/>
+      <c r="AA213" s="10"/>
+      <c r="AB213" s="10"/>
+      <c r="AC213" s="10"/>
+      <c r="AD213" s="10"/>
+      <c r="AE213" s="10"/>
+      <c r="AF213" s="10"/>
+      <c r="AG213" s="10"/>
+      <c r="AH213" s="10"/>
+      <c r="AI213" s="10"/>
+      <c r="AJ213" s="10"/>
+      <c r="AK213" s="10"/>
+      <c r="AL213" s="10"/>
+      <c r="AM213" s="10"/>
+      <c r="AN213" s="10"/>
+      <c r="AO213" s="10"/>
+      <c r="AP213" s="10"/>
+      <c r="AQ213" s="10"/>
+      <c r="AR213" s="10"/>
+      <c r="AS213" s="10"/>
+      <c r="AT213" s="10"/>
+      <c r="AU213" s="10"/>
+      <c r="AV213" s="10"/>
+      <c r="AW213" s="10"/>
+      <c r="AX213" s="10"/>
+      <c r="AY213" s="10"/>
+      <c r="AZ213" s="10"/>
+      <c r="BA213" s="10"/>
+      <c r="BB213" s="10"/>
+      <c r="BC213" s="10"/>
+      <c r="BD213" s="10"/>
+      <c r="BE213" s="10"/>
+      <c r="BF213" s="10"/>
+      <c r="BG213" s="10"/>
+      <c r="BH213" s="10"/>
+      <c r="BI213" s="10"/>
+      <c r="BJ213" s="10"/>
+    </row>
+    <row r="214" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A214" s="26"/>
+      <c r="B214" s="32"/>
+      <c r="C214" s="32"/>
+      <c r="D214" s="29"/>
+      <c r="E214" s="28"/>
+      <c r="F214" s="29"/>
+      <c r="G214" s="31"/>
+      <c r="H214" s="43"/>
+      <c r="I214" s="44"/>
+      <c r="J214" s="44"/>
+      <c r="K214" s="45"/>
+      <c r="L214" s="42"/>
+      <c r="M214" s="40"/>
+      <c r="N214" s="64"/>
+      <c r="O214" s="67"/>
+      <c r="P214" s="10"/>
+      <c r="Q214" s="10"/>
+      <c r="R214" s="10"/>
+      <c r="S214" s="10"/>
+      <c r="T214" s="10"/>
+      <c r="U214" s="10"/>
+      <c r="V214" s="10"/>
+      <c r="W214" s="10"/>
+      <c r="X214" s="10"/>
+      <c r="Y214" s="10"/>
+      <c r="Z214" s="10"/>
+      <c r="AA214" s="10"/>
+      <c r="AB214" s="10"/>
+      <c r="AC214" s="10"/>
+      <c r="AD214" s="10"/>
+      <c r="AE214" s="10"/>
+      <c r="AF214" s="10"/>
+      <c r="AG214" s="10"/>
+      <c r="AH214" s="10"/>
+      <c r="AI214" s="10"/>
+      <c r="AJ214" s="10"/>
+      <c r="AK214" s="10"/>
+      <c r="AL214" s="10"/>
+      <c r="AM214" s="10"/>
+      <c r="AN214" s="10"/>
+      <c r="AO214" s="10"/>
+      <c r="AP214" s="10"/>
+      <c r="AQ214" s="10"/>
+      <c r="AR214" s="10"/>
+      <c r="AS214" s="10"/>
+      <c r="AT214" s="10"/>
+      <c r="AU214" s="10"/>
+      <c r="AV214" s="10"/>
+      <c r="AW214" s="10"/>
+      <c r="AX214" s="10"/>
+      <c r="AY214" s="10"/>
+      <c r="AZ214" s="10"/>
+      <c r="BA214" s="10"/>
+      <c r="BB214" s="10"/>
+      <c r="BC214" s="10"/>
+      <c r="BD214" s="10"/>
+      <c r="BE214" s="10"/>
+      <c r="BF214" s="10"/>
+      <c r="BG214" s="10"/>
+      <c r="BH214" s="10"/>
+      <c r="BI214" s="10"/>
+      <c r="BJ214" s="10"/>
+    </row>
+    <row r="215" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A215" s="26"/>
+      <c r="B215" s="32"/>
+      <c r="C215" s="32"/>
+      <c r="D215" s="29"/>
+      <c r="E215" s="28"/>
+      <c r="F215" s="29"/>
+      <c r="G215" s="31"/>
+      <c r="H215" s="43"/>
+      <c r="I215" s="44"/>
+      <c r="J215" s="44"/>
+      <c r="K215" s="45"/>
+      <c r="L215" s="42"/>
+      <c r="M215" s="40"/>
+      <c r="N215" s="64"/>
+      <c r="O215" s="67"/>
+      <c r="P215" s="10"/>
+      <c r="Q215" s="10"/>
+      <c r="R215" s="10"/>
+      <c r="S215" s="10"/>
+      <c r="T215" s="10"/>
+      <c r="U215" s="10"/>
+      <c r="V215" s="10"/>
+      <c r="W215" s="10"/>
+      <c r="X215" s="10"/>
+      <c r="Y215" s="10"/>
+      <c r="Z215" s="10"/>
+      <c r="AA215" s="10"/>
+      <c r="AB215" s="10"/>
+      <c r="AC215" s="10"/>
+      <c r="AD215" s="10"/>
+      <c r="AE215" s="10"/>
+      <c r="AF215" s="10"/>
+      <c r="AG215" s="10"/>
+      <c r="AH215" s="10"/>
+      <c r="AI215" s="10"/>
+      <c r="AJ215" s="10"/>
+      <c r="AK215" s="10"/>
+      <c r="AL215" s="10"/>
+      <c r="AM215" s="10"/>
+      <c r="AN215" s="10"/>
+      <c r="AO215" s="10"/>
+      <c r="AP215" s="10"/>
+      <c r="AQ215" s="10"/>
+      <c r="AR215" s="10"/>
+      <c r="AS215" s="10"/>
+      <c r="AT215" s="10"/>
+      <c r="AU215" s="10"/>
+      <c r="AV215" s="10"/>
+      <c r="AW215" s="10"/>
+      <c r="AX215" s="10"/>
+      <c r="AY215" s="10"/>
+      <c r="AZ215" s="10"/>
+      <c r="BA215" s="10"/>
+      <c r="BB215" s="10"/>
+      <c r="BC215" s="10"/>
+      <c r="BD215" s="10"/>
+      <c r="BE215" s="10"/>
+      <c r="BF215" s="10"/>
+      <c r="BG215" s="10"/>
+      <c r="BH215" s="10"/>
+      <c r="BI215" s="10"/>
+      <c r="BJ215" s="10"/>
+    </row>
+    <row r="216" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A216" s="26"/>
+      <c r="B216" s="32"/>
+      <c r="C216" s="32"/>
+      <c r="D216" s="29"/>
+      <c r="E216" s="28"/>
+      <c r="F216" s="29"/>
+      <c r="G216" s="31"/>
+      <c r="H216" s="43"/>
+      <c r="I216" s="44"/>
+      <c r="J216" s="44"/>
+      <c r="K216" s="45"/>
+      <c r="L216" s="42"/>
+      <c r="M216" s="40"/>
+      <c r="N216" s="64"/>
+      <c r="O216" s="67"/>
+      <c r="P216" s="10"/>
+      <c r="Q216" s="10"/>
+      <c r="R216" s="10"/>
+      <c r="S216" s="10"/>
+      <c r="T216" s="10"/>
+      <c r="U216" s="10"/>
+      <c r="V216" s="10"/>
+      <c r="W216" s="10"/>
+      <c r="X216" s="10"/>
+      <c r="Y216" s="10"/>
+      <c r="Z216" s="10"/>
+      <c r="AA216" s="10"/>
+      <c r="AB216" s="10"/>
+      <c r="AC216" s="10"/>
+      <c r="AD216" s="10"/>
+      <c r="AE216" s="10"/>
+      <c r="AF216" s="10"/>
+      <c r="AG216" s="10"/>
+      <c r="AH216" s="10"/>
+      <c r="AI216" s="10"/>
+      <c r="AJ216" s="10"/>
+      <c r="AK216" s="10"/>
+      <c r="AL216" s="10"/>
+      <c r="AM216" s="10"/>
+      <c r="AN216" s="10"/>
+      <c r="AO216" s="10"/>
+      <c r="AP216" s="10"/>
+      <c r="AQ216" s="10"/>
+      <c r="AR216" s="10"/>
+      <c r="AS216" s="10"/>
+      <c r="AT216" s="10"/>
+      <c r="AU216" s="10"/>
+      <c r="AV216" s="10"/>
+      <c r="AW216" s="10"/>
+      <c r="AX216" s="10"/>
+      <c r="AY216" s="10"/>
+      <c r="AZ216" s="10"/>
+      <c r="BA216" s="10"/>
+      <c r="BB216" s="10"/>
+      <c r="BC216" s="10"/>
+      <c r="BD216" s="10"/>
+      <c r="BE216" s="10"/>
+      <c r="BF216" s="10"/>
+      <c r="BG216" s="10"/>
+      <c r="BH216" s="10"/>
+      <c r="BI216" s="10"/>
+      <c r="BJ216" s="10"/>
+    </row>
+    <row r="217" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A217" s="26"/>
+      <c r="B217" s="32"/>
+      <c r="C217" s="32"/>
+      <c r="D217" s="29"/>
+      <c r="E217" s="28"/>
+      <c r="F217" s="29"/>
+      <c r="G217" s="31"/>
+      <c r="H217" s="43"/>
+      <c r="I217" s="44"/>
+      <c r="J217" s="44"/>
+      <c r="K217" s="45"/>
+      <c r="L217" s="42"/>
+      <c r="M217" s="40"/>
+      <c r="N217" s="64"/>
+      <c r="O217" s="67"/>
+      <c r="P217" s="10"/>
+      <c r="Q217" s="10"/>
+      <c r="R217" s="10"/>
+      <c r="S217" s="10"/>
+      <c r="T217" s="10"/>
+      <c r="U217" s="10"/>
+      <c r="V217" s="10"/>
+      <c r="W217" s="10"/>
+      <c r="X217" s="10"/>
+      <c r="Y217" s="10"/>
+      <c r="Z217" s="10"/>
+      <c r="AA217" s="10"/>
+      <c r="AB217" s="10"/>
+      <c r="AC217" s="10"/>
+      <c r="AD217" s="10"/>
+      <c r="AE217" s="10"/>
+      <c r="AF217" s="10"/>
+      <c r="AG217" s="10"/>
+      <c r="AH217" s="10"/>
+      <c r="AI217" s="10"/>
+      <c r="AJ217" s="10"/>
+      <c r="AK217" s="10"/>
+      <c r="AL217" s="10"/>
+      <c r="AM217" s="10"/>
+      <c r="AN217" s="10"/>
+      <c r="AO217" s="10"/>
+      <c r="AP217" s="10"/>
+      <c r="AQ217" s="10"/>
+      <c r="AR217" s="10"/>
+      <c r="AS217" s="10"/>
+      <c r="AT217" s="10"/>
+      <c r="AU217" s="10"/>
+      <c r="AV217" s="10"/>
+      <c r="AW217" s="10"/>
+      <c r="AX217" s="10"/>
+      <c r="AY217" s="10"/>
+      <c r="AZ217" s="10"/>
+      <c r="BA217" s="10"/>
+      <c r="BB217" s="10"/>
+      <c r="BC217" s="10"/>
+      <c r="BD217" s="10"/>
+      <c r="BE217" s="10"/>
+      <c r="BF217" s="10"/>
+      <c r="BG217" s="10"/>
+      <c r="BH217" s="10"/>
+      <c r="BI217" s="10"/>
+      <c r="BJ217" s="10"/>
+    </row>
+    <row r="218" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A218" s="26"/>
+      <c r="B218" s="32"/>
+      <c r="C218" s="32"/>
+      <c r="D218" s="29"/>
+      <c r="E218" s="28"/>
+      <c r="F218" s="29"/>
+      <c r="G218" s="31"/>
+      <c r="H218" s="43"/>
+      <c r="I218" s="44"/>
+      <c r="J218" s="44"/>
+      <c r="K218" s="45"/>
+      <c r="L218" s="42"/>
+      <c r="M218" s="40"/>
+      <c r="N218" s="64"/>
+      <c r="O218" s="67"/>
+      <c r="P218" s="10"/>
+      <c r="Q218" s="10"/>
+      <c r="R218" s="10"/>
+      <c r="S218" s="10"/>
+      <c r="T218" s="10"/>
+      <c r="U218" s="10"/>
+      <c r="V218" s="10"/>
+      <c r="W218" s="10"/>
+      <c r="X218" s="10"/>
+      <c r="Y218" s="10"/>
+      <c r="Z218" s="10"/>
+      <c r="AA218" s="10"/>
+      <c r="AB218" s="10"/>
+      <c r="AC218" s="10"/>
+      <c r="AD218" s="10"/>
+      <c r="AE218" s="10"/>
+      <c r="AF218" s="10"/>
+      <c r="AG218" s="10"/>
+      <c r="AH218" s="10"/>
+      <c r="AI218" s="10"/>
+      <c r="AJ218" s="10"/>
+      <c r="AK218" s="10"/>
+      <c r="AL218" s="10"/>
+      <c r="AM218" s="10"/>
+      <c r="AN218" s="10"/>
+      <c r="AO218" s="10"/>
+      <c r="AP218" s="10"/>
+      <c r="AQ218" s="10"/>
+      <c r="AR218" s="10"/>
+      <c r="AS218" s="10"/>
+      <c r="AT218" s="10"/>
+      <c r="AU218" s="10"/>
+      <c r="AV218" s="10"/>
+      <c r="AW218" s="10"/>
+      <c r="AX218" s="10"/>
+      <c r="AY218" s="10"/>
+      <c r="AZ218" s="10"/>
+      <c r="BA218" s="10"/>
+      <c r="BB218" s="10"/>
+      <c r="BC218" s="10"/>
+      <c r="BD218" s="10"/>
+      <c r="BE218" s="10"/>
+      <c r="BF218" s="10"/>
+      <c r="BG218" s="10"/>
+      <c r="BH218" s="10"/>
+      <c r="BI218" s="10"/>
+      <c r="BJ218" s="10"/>
+    </row>
+    <row r="219" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A219" s="26"/>
+      <c r="B219" s="32"/>
+      <c r="C219" s="32"/>
+      <c r="D219" s="29"/>
+      <c r="E219" s="28"/>
+      <c r="F219" s="29"/>
+      <c r="G219" s="31"/>
+      <c r="H219" s="43"/>
+      <c r="I219" s="44"/>
+      <c r="J219" s="44"/>
+      <c r="K219" s="45"/>
+      <c r="L219" s="42"/>
+      <c r="M219" s="40"/>
+      <c r="N219" s="64"/>
+      <c r="O219" s="67"/>
+      <c r="P219" s="10"/>
+      <c r="Q219" s="10"/>
+      <c r="R219" s="10"/>
+      <c r="S219" s="10"/>
+      <c r="T219" s="10"/>
+      <c r="U219" s="10"/>
+      <c r="V219" s="10"/>
+      <c r="W219" s="10"/>
+      <c r="X219" s="10"/>
+      <c r="Y219" s="10"/>
+      <c r="Z219" s="10"/>
+      <c r="AA219" s="10"/>
+      <c r="AB219" s="10"/>
+      <c r="AC219" s="10"/>
+      <c r="AD219" s="10"/>
+      <c r="AE219" s="10"/>
+      <c r="AF219" s="10"/>
+      <c r="AG219" s="10"/>
+      <c r="AH219" s="10"/>
+      <c r="AI219" s="10"/>
+      <c r="AJ219" s="10"/>
+      <c r="AK219" s="10"/>
+      <c r="AL219" s="10"/>
+      <c r="AM219" s="10"/>
+      <c r="AN219" s="10"/>
+      <c r="AO219" s="10"/>
+      <c r="AP219" s="10"/>
+      <c r="AQ219" s="10"/>
+      <c r="AR219" s="10"/>
+      <c r="AS219" s="10"/>
+      <c r="AT219" s="10"/>
+      <c r="AU219" s="10"/>
+      <c r="AV219" s="10"/>
+      <c r="AW219" s="10"/>
+      <c r="AX219" s="10"/>
+      <c r="AY219" s="10"/>
+      <c r="AZ219" s="10"/>
+      <c r="BA219" s="10"/>
+      <c r="BB219" s="10"/>
+      <c r="BC219" s="10"/>
+      <c r="BD219" s="10"/>
+      <c r="BE219" s="10"/>
+      <c r="BF219" s="10"/>
+      <c r="BG219" s="10"/>
+      <c r="BH219" s="10"/>
+      <c r="BI219" s="10"/>
+      <c r="BJ219" s="10"/>
+    </row>
+    <row r="220" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A220" s="26"/>
+      <c r="B220" s="32"/>
+      <c r="C220" s="32"/>
+      <c r="D220" s="29"/>
+      <c r="E220" s="28"/>
+      <c r="F220" s="29"/>
+      <c r="G220" s="31"/>
+      <c r="H220" s="43"/>
+      <c r="I220" s="44"/>
+      <c r="J220" s="44"/>
+      <c r="K220" s="45"/>
+      <c r="L220" s="42"/>
+      <c r="M220" s="40"/>
+      <c r="N220" s="64"/>
+      <c r="O220" s="67"/>
+      <c r="P220" s="10"/>
+      <c r="Q220" s="10"/>
+      <c r="R220" s="10"/>
+      <c r="S220" s="10"/>
+      <c r="T220" s="10"/>
+      <c r="U220" s="10"/>
+      <c r="V220" s="10"/>
+      <c r="W220" s="10"/>
+      <c r="X220" s="10"/>
+      <c r="Y220" s="10"/>
+      <c r="Z220" s="10"/>
+      <c r="AA220" s="10"/>
+      <c r="AB220" s="10"/>
+      <c r="AC220" s="10"/>
+      <c r="AD220" s="10"/>
+      <c r="AE220" s="10"/>
+      <c r="AF220" s="10"/>
+      <c r="AG220" s="10"/>
+      <c r="AH220" s="10"/>
+      <c r="AI220" s="10"/>
+      <c r="AJ220" s="10"/>
+      <c r="AK220" s="10"/>
+      <c r="AL220" s="10"/>
+      <c r="AM220" s="10"/>
+      <c r="AN220" s="10"/>
+      <c r="AO220" s="10"/>
+      <c r="AP220" s="10"/>
+      <c r="AQ220" s="10"/>
+      <c r="AR220" s="10"/>
+      <c r="AS220" s="10"/>
+      <c r="AT220" s="10"/>
+      <c r="AU220" s="10"/>
+      <c r="AV220" s="10"/>
+      <c r="AW220" s="10"/>
+      <c r="AX220" s="10"/>
+      <c r="AY220" s="10"/>
+      <c r="AZ220" s="10"/>
+      <c r="BA220" s="10"/>
+      <c r="BB220" s="10"/>
+      <c r="BC220" s="10"/>
+      <c r="BD220" s="10"/>
+      <c r="BE220" s="10"/>
+      <c r="BF220" s="10"/>
+      <c r="BG220" s="10"/>
+      <c r="BH220" s="10"/>
+      <c r="BI220" s="10"/>
+      <c r="BJ220" s="10"/>
+    </row>
+    <row r="221" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A221" s="26"/>
+      <c r="B221" s="32"/>
+      <c r="C221" s="32"/>
+      <c r="D221" s="29"/>
+      <c r="E221" s="28"/>
+      <c r="F221" s="29"/>
+      <c r="G221" s="31"/>
+      <c r="H221" s="43"/>
+      <c r="I221" s="44"/>
+      <c r="J221" s="44"/>
+      <c r="K221" s="45"/>
+      <c r="L221" s="42"/>
+      <c r="M221" s="40"/>
+      <c r="N221" s="64"/>
+      <c r="O221" s="67"/>
+      <c r="P221" s="10"/>
+      <c r="Q221" s="10"/>
+      <c r="R221" s="10"/>
+      <c r="S221" s="10"/>
+      <c r="T221" s="10"/>
+      <c r="U221" s="10"/>
+      <c r="V221" s="10"/>
+      <c r="W221" s="10"/>
+      <c r="X221" s="10"/>
+      <c r="Y221" s="10"/>
+      <c r="Z221" s="10"/>
+      <c r="AA221" s="10"/>
+      <c r="AB221" s="10"/>
+      <c r="AC221" s="10"/>
+      <c r="AD221" s="10"/>
+      <c r="AE221" s="10"/>
+      <c r="AF221" s="10"/>
+      <c r="AG221" s="10"/>
+      <c r="AH221" s="10"/>
+      <c r="AI221" s="10"/>
+      <c r="AJ221" s="10"/>
+      <c r="AK221" s="10"/>
+      <c r="AL221" s="10"/>
+      <c r="AM221" s="10"/>
+      <c r="AN221" s="10"/>
+      <c r="AO221" s="10"/>
+      <c r="AP221" s="10"/>
+      <c r="AQ221" s="10"/>
+      <c r="AR221" s="10"/>
+      <c r="AS221" s="10"/>
+      <c r="AT221" s="10"/>
+      <c r="AU221" s="10"/>
+      <c r="AV221" s="10"/>
+      <c r="AW221" s="10"/>
+      <c r="AX221" s="10"/>
+      <c r="AY221" s="10"/>
+      <c r="AZ221" s="10"/>
+      <c r="BA221" s="10"/>
+      <c r="BB221" s="10"/>
+      <c r="BC221" s="10"/>
+      <c r="BD221" s="10"/>
+      <c r="BE221" s="10"/>
+      <c r="BF221" s="10"/>
+      <c r="BG221" s="10"/>
+      <c r="BH221" s="10"/>
+      <c r="BI221" s="10"/>
+      <c r="BJ221" s="10"/>
+    </row>
+    <row r="222" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A222" s="26"/>
+      <c r="B222" s="32"/>
+      <c r="C222" s="32"/>
+      <c r="D222" s="29"/>
+      <c r="E222" s="28"/>
+      <c r="F222" s="29"/>
+      <c r="G222" s="31"/>
+      <c r="H222" s="43"/>
+      <c r="I222" s="44"/>
+      <c r="J222" s="44"/>
+      <c r="K222" s="45"/>
+      <c r="L222" s="42"/>
+      <c r="M222" s="40"/>
+      <c r="N222" s="64"/>
+      <c r="O222" s="67"/>
+      <c r="P222" s="10"/>
+      <c r="Q222" s="10"/>
+      <c r="R222" s="10"/>
+      <c r="S222" s="10"/>
+      <c r="T222" s="10"/>
+      <c r="U222" s="10"/>
+      <c r="V222" s="10"/>
+      <c r="W222" s="10"/>
+      <c r="X222" s="10"/>
+      <c r="Y222" s="10"/>
+      <c r="Z222" s="10"/>
+      <c r="AA222" s="10"/>
+      <c r="AB222" s="10"/>
+      <c r="AC222" s="10"/>
+      <c r="AD222" s="10"/>
+      <c r="AE222" s="10"/>
+      <c r="AF222" s="10"/>
+      <c r="AG222" s="10"/>
+      <c r="AH222" s="10"/>
+      <c r="AI222" s="10"/>
+      <c r="AJ222" s="10"/>
+      <c r="AK222" s="10"/>
+      <c r="AL222" s="10"/>
+      <c r="AM222" s="10"/>
+      <c r="AN222" s="10"/>
+      <c r="AO222" s="10"/>
+      <c r="AP222" s="10"/>
+      <c r="AQ222" s="10"/>
+      <c r="AR222" s="10"/>
+      <c r="AS222" s="10"/>
+      <c r="AT222" s="10"/>
+      <c r="AU222" s="10"/>
+      <c r="AV222" s="10"/>
+      <c r="AW222" s="10"/>
+      <c r="AX222" s="10"/>
+      <c r="AY222" s="10"/>
+      <c r="AZ222" s="10"/>
+      <c r="BA222" s="10"/>
+      <c r="BB222" s="10"/>
+      <c r="BC222" s="10"/>
+      <c r="BD222" s="10"/>
+      <c r="BE222" s="10"/>
+      <c r="BF222" s="10"/>
+      <c r="BG222" s="10"/>
+      <c r="BH222" s="10"/>
+      <c r="BI222" s="10"/>
+      <c r="BJ222" s="10"/>
+    </row>
+    <row r="223" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A223" s="26"/>
+      <c r="B223" s="32"/>
+      <c r="C223" s="32"/>
+      <c r="D223" s="29"/>
+      <c r="E223" s="28"/>
+      <c r="F223" s="29"/>
+      <c r="G223" s="31"/>
+      <c r="H223" s="43"/>
+      <c r="I223" s="44"/>
+      <c r="J223" s="44"/>
+      <c r="K223" s="45"/>
+      <c r="L223" s="42"/>
+      <c r="M223" s="40"/>
+      <c r="N223" s="64"/>
+      <c r="O223" s="67"/>
+      <c r="P223" s="10"/>
+      <c r="Q223" s="10"/>
+      <c r="R223" s="10"/>
+      <c r="S223" s="10"/>
+      <c r="T223" s="10"/>
+      <c r="U223" s="10"/>
+      <c r="V223" s="10"/>
+      <c r="W223" s="10"/>
+      <c r="X223" s="10"/>
+      <c r="Y223" s="10"/>
+      <c r="Z223" s="10"/>
+      <c r="AA223" s="10"/>
+      <c r="AB223" s="10"/>
+      <c r="AC223" s="10"/>
+      <c r="AD223" s="10"/>
+      <c r="AE223" s="10"/>
+      <c r="AF223" s="10"/>
+      <c r="AG223" s="10"/>
+      <c r="AH223" s="10"/>
+      <c r="AI223" s="10"/>
+      <c r="AJ223" s="10"/>
+      <c r="AK223" s="10"/>
+      <c r="AL223" s="10"/>
+      <c r="AM223" s="10"/>
+      <c r="AN223" s="10"/>
+      <c r="AO223" s="10"/>
+      <c r="AP223" s="10"/>
+      <c r="AQ223" s="10"/>
+      <c r="AR223" s="10"/>
+      <c r="AS223" s="10"/>
+      <c r="AT223" s="10"/>
+      <c r="AU223" s="10"/>
+      <c r="AV223" s="10"/>
+      <c r="AW223" s="10"/>
+      <c r="AX223" s="10"/>
+      <c r="AY223" s="10"/>
+      <c r="AZ223" s="10"/>
+      <c r="BA223" s="10"/>
+      <c r="BB223" s="10"/>
+      <c r="BC223" s="10"/>
+      <c r="BD223" s="10"/>
+      <c r="BE223" s="10"/>
+      <c r="BF223" s="10"/>
+      <c r="BG223" s="10"/>
+      <c r="BH223" s="10"/>
+      <c r="BI223" s="10"/>
+      <c r="BJ223" s="10"/>
+    </row>
+    <row r="224" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A224" s="26"/>
+      <c r="B224" s="32"/>
+      <c r="C224" s="32"/>
+      <c r="D224" s="29"/>
+      <c r="E224" s="28"/>
+      <c r="F224" s="29"/>
+      <c r="G224" s="31"/>
+      <c r="H224" s="43"/>
+      <c r="I224" s="44"/>
+      <c r="J224" s="44"/>
+      <c r="K224" s="45"/>
+      <c r="L224" s="42"/>
+      <c r="M224" s="40"/>
+      <c r="N224" s="64"/>
+      <c r="O224" s="67"/>
+      <c r="P224" s="10"/>
+      <c r="Q224" s="10"/>
+      <c r="R224" s="10"/>
+      <c r="S224" s="10"/>
+      <c r="T224" s="10"/>
+      <c r="U224" s="10"/>
+      <c r="V224" s="10"/>
+      <c r="W224" s="10"/>
+      <c r="X224" s="10"/>
+      <c r="Y224" s="10"/>
+      <c r="Z224" s="10"/>
+      <c r="AA224" s="10"/>
+      <c r="AB224" s="10"/>
+      <c r="AC224" s="10"/>
+      <c r="AD224" s="10"/>
+      <c r="AE224" s="10"/>
+      <c r="AF224" s="10"/>
+      <c r="AG224" s="10"/>
+      <c r="AH224" s="10"/>
+      <c r="AI224" s="10"/>
+      <c r="AJ224" s="10"/>
+      <c r="AK224" s="10"/>
+      <c r="AL224" s="10"/>
+      <c r="AM224" s="10"/>
+      <c r="AN224" s="10"/>
+      <c r="AO224" s="10"/>
+      <c r="AP224" s="10"/>
+      <c r="AQ224" s="10"/>
+      <c r="AR224" s="10"/>
+      <c r="AS224" s="10"/>
+      <c r="AT224" s="10"/>
+      <c r="AU224" s="10"/>
+      <c r="AV224" s="10"/>
+      <c r="AW224" s="10"/>
+      <c r="AX224" s="10"/>
+      <c r="AY224" s="10"/>
+      <c r="AZ224" s="10"/>
+      <c r="BA224" s="10"/>
+      <c r="BB224" s="10"/>
+      <c r="BC224" s="10"/>
+      <c r="BD224" s="10"/>
+      <c r="BE224" s="10"/>
+      <c r="BF224" s="10"/>
+      <c r="BG224" s="10"/>
+      <c r="BH224" s="10"/>
+      <c r="BI224" s="10"/>
+      <c r="BJ224" s="10"/>
+    </row>
+    <row r="225" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A225" s="26"/>
+      <c r="B225" s="32"/>
+      <c r="C225" s="32"/>
+      <c r="D225" s="29"/>
+      <c r="E225" s="28"/>
+      <c r="F225" s="29"/>
+      <c r="G225" s="31"/>
+      <c r="H225" s="43"/>
+      <c r="I225" s="44"/>
+      <c r="J225" s="44"/>
+      <c r="K225" s="45"/>
+      <c r="L225" s="42"/>
+      <c r="M225" s="40"/>
+      <c r="N225" s="64"/>
+      <c r="O225" s="67"/>
+      <c r="P225" s="10"/>
+      <c r="Q225" s="10"/>
+      <c r="R225" s="10"/>
+      <c r="S225" s="10"/>
+      <c r="T225" s="10"/>
+      <c r="U225" s="10"/>
+      <c r="V225" s="10"/>
+      <c r="W225" s="10"/>
+      <c r="X225" s="10"/>
+      <c r="Y225" s="10"/>
+      <c r="Z225" s="10"/>
+      <c r="AA225" s="10"/>
+      <c r="AB225" s="10"/>
+      <c r="AC225" s="10"/>
+      <c r="AD225" s="10"/>
+      <c r="AE225" s="10"/>
+      <c r="AF225" s="10"/>
+      <c r="AG225" s="10"/>
+      <c r="AH225" s="10"/>
+      <c r="AI225" s="10"/>
+      <c r="AJ225" s="10"/>
+      <c r="AK225" s="10"/>
+      <c r="AL225" s="10"/>
+      <c r="AM225" s="10"/>
+      <c r="AN225" s="10"/>
+      <c r="AO225" s="10"/>
+      <c r="AP225" s="10"/>
+      <c r="AQ225" s="10"/>
+      <c r="AR225" s="10"/>
+      <c r="AS225" s="10"/>
+      <c r="AT225" s="10"/>
+      <c r="AU225" s="10"/>
+      <c r="AV225" s="10"/>
+      <c r="AW225" s="10"/>
+      <c r="AX225" s="10"/>
+      <c r="AY225" s="10"/>
+      <c r="AZ225" s="10"/>
+      <c r="BA225" s="10"/>
+      <c r="BB225" s="10"/>
+      <c r="BC225" s="10"/>
+      <c r="BD225" s="10"/>
+      <c r="BE225" s="10"/>
+      <c r="BF225" s="10"/>
+      <c r="BG225" s="10"/>
+      <c r="BH225" s="10"/>
+      <c r="BI225" s="10"/>
+      <c r="BJ225" s="10"/>
+    </row>
+    <row r="226" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A226" s="26"/>
+      <c r="B226" s="32"/>
+      <c r="C226" s="32"/>
+      <c r="D226" s="29"/>
+      <c r="E226" s="28"/>
+      <c r="F226" s="29"/>
+      <c r="G226" s="31"/>
+      <c r="H226" s="43"/>
+      <c r="I226" s="44"/>
+      <c r="J226" s="44"/>
+      <c r="K226" s="45"/>
+      <c r="L226" s="42"/>
+      <c r="M226" s="40"/>
+      <c r="N226" s="64"/>
+      <c r="O226" s="67"/>
+      <c r="P226" s="10"/>
+      <c r="Q226" s="10"/>
+      <c r="R226" s="10"/>
+      <c r="S226" s="10"/>
+      <c r="T226" s="10"/>
+      <c r="U226" s="10"/>
+      <c r="V226" s="10"/>
+      <c r="W226" s="10"/>
+      <c r="X226" s="10"/>
+      <c r="Y226" s="10"/>
+      <c r="Z226" s="10"/>
+      <c r="AA226" s="10"/>
+      <c r="AB226" s="10"/>
+      <c r="AC226" s="10"/>
+      <c r="AD226" s="10"/>
+      <c r="AE226" s="10"/>
+      <c r="AF226" s="10"/>
+      <c r="AG226" s="10"/>
+      <c r="AH226" s="10"/>
+      <c r="AI226" s="10"/>
+      <c r="AJ226" s="10"/>
+      <c r="AK226" s="10"/>
+      <c r="AL226" s="10"/>
+      <c r="AM226" s="10"/>
+      <c r="AN226" s="10"/>
+      <c r="AO226" s="10"/>
+      <c r="AP226" s="10"/>
+      <c r="AQ226" s="10"/>
+      <c r="AR226" s="10"/>
+      <c r="AS226" s="10"/>
+      <c r="AT226" s="10"/>
+      <c r="AU226" s="10"/>
+      <c r="AV226" s="10"/>
+      <c r="AW226" s="10"/>
+      <c r="AX226" s="10"/>
+      <c r="AY226" s="10"/>
+      <c r="AZ226" s="10"/>
+      <c r="BA226" s="10"/>
+      <c r="BB226" s="10"/>
+      <c r="BC226" s="10"/>
+      <c r="BD226" s="10"/>
+      <c r="BE226" s="10"/>
+      <c r="BF226" s="10"/>
+      <c r="BG226" s="10"/>
+      <c r="BH226" s="10"/>
+      <c r="BI226" s="10"/>
+      <c r="BJ226" s="10"/>
+    </row>
+    <row r="227" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A227" s="26"/>
+      <c r="B227" s="32"/>
+      <c r="C227" s="32"/>
+      <c r="D227" s="29"/>
+      <c r="E227" s="28"/>
+      <c r="F227" s="29"/>
+      <c r="G227" s="31"/>
+      <c r="H227" s="43"/>
+      <c r="I227" s="44"/>
+      <c r="J227" s="44"/>
+      <c r="K227" s="45"/>
+      <c r="L227" s="42"/>
+      <c r="M227" s="40"/>
+      <c r="N227" s="64"/>
+      <c r="O227" s="67"/>
+      <c r="P227" s="10"/>
+      <c r="Q227" s="10"/>
+      <c r="R227" s="10"/>
+      <c r="S227" s="10"/>
+      <c r="T227" s="10"/>
+      <c r="U227" s="10"/>
+      <c r="V227" s="10"/>
+      <c r="W227" s="10"/>
+      <c r="X227" s="10"/>
+      <c r="Y227" s="10"/>
+      <c r="Z227" s="10"/>
+      <c r="AA227" s="10"/>
+      <c r="AB227" s="10"/>
+      <c r="AC227" s="10"/>
+      <c r="AD227" s="10"/>
+      <c r="AE227" s="10"/>
+      <c r="AF227" s="10"/>
+      <c r="AG227" s="10"/>
+      <c r="AH227" s="10"/>
+      <c r="AI227" s="10"/>
+      <c r="AJ227" s="10"/>
+      <c r="AK227" s="10"/>
+      <c r="AL227" s="10"/>
+      <c r="AM227" s="10"/>
+      <c r="AN227" s="10"/>
+      <c r="AO227" s="10"/>
+      <c r="AP227" s="10"/>
+      <c r="AQ227" s="10"/>
+      <c r="AR227" s="10"/>
+      <c r="AS227" s="10"/>
+      <c r="AT227" s="10"/>
+      <c r="AU227" s="10"/>
+      <c r="AV227" s="10"/>
+      <c r="AW227" s="10"/>
+      <c r="AX227" s="10"/>
+      <c r="AY227" s="10"/>
+      <c r="AZ227" s="10"/>
+      <c r="BA227" s="10"/>
+      <c r="BB227" s="10"/>
+      <c r="BC227" s="10"/>
+      <c r="BD227" s="10"/>
+      <c r="BE227" s="10"/>
+      <c r="BF227" s="10"/>
+      <c r="BG227" s="10"/>
+      <c r="BH227" s="10"/>
+      <c r="BI227" s="10"/>
+      <c r="BJ227" s="10"/>
+    </row>
+    <row r="228" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A228" s="26"/>
+      <c r="B228" s="32"/>
+      <c r="C228" s="32"/>
+      <c r="D228" s="29"/>
+      <c r="E228" s="28"/>
+      <c r="F228" s="29"/>
+      <c r="G228" s="31"/>
+      <c r="H228" s="43"/>
+      <c r="I228" s="44"/>
+      <c r="J228" s="44"/>
+      <c r="K228" s="45"/>
+      <c r="L228" s="42"/>
+      <c r="M228" s="40"/>
+      <c r="N228" s="64"/>
+      <c r="O228" s="67"/>
+      <c r="P228" s="10"/>
+      <c r="Q228" s="10"/>
+      <c r="R228" s="10"/>
+      <c r="S228" s="10"/>
+      <c r="T228" s="10"/>
+      <c r="U228" s="10"/>
+      <c r="V228" s="10"/>
+      <c r="W228" s="10"/>
+      <c r="X228" s="10"/>
+      <c r="Y228" s="10"/>
+      <c r="Z228" s="10"/>
+      <c r="AA228" s="10"/>
+      <c r="AB228" s="10"/>
+      <c r="AC228" s="10"/>
+      <c r="AD228" s="10"/>
+      <c r="AE228" s="10"/>
+      <c r="AF228" s="10"/>
+      <c r="AG228" s="10"/>
+      <c r="AH228" s="10"/>
+      <c r="AI228" s="10"/>
+      <c r="AJ228" s="10"/>
+      <c r="AK228" s="10"/>
+      <c r="AL228" s="10"/>
+      <c r="AM228" s="10"/>
+      <c r="AN228" s="10"/>
+      <c r="AO228" s="10"/>
+      <c r="AP228" s="10"/>
+      <c r="AQ228" s="10"/>
+      <c r="AR228" s="10"/>
+      <c r="AS228" s="10"/>
+      <c r="AT228" s="10"/>
+      <c r="AU228" s="10"/>
+      <c r="AV228" s="10"/>
+      <c r="AW228" s="10"/>
+      <c r="AX228" s="10"/>
+      <c r="AY228" s="10"/>
+      <c r="AZ228" s="10"/>
+      <c r="BA228" s="10"/>
+      <c r="BB228" s="10"/>
+      <c r="BC228" s="10"/>
+      <c r="BD228" s="10"/>
+      <c r="BE228" s="10"/>
+      <c r="BF228" s="10"/>
+      <c r="BG228" s="10"/>
+      <c r="BH228" s="10"/>
+      <c r="BI228" s="10"/>
+      <c r="BJ228" s="10"/>
+    </row>
+    <row r="229" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A229" s="26"/>
+      <c r="B229" s="32"/>
+      <c r="C229" s="32"/>
+      <c r="D229" s="29"/>
+      <c r="E229" s="28"/>
+      <c r="F229" s="29"/>
+      <c r="G229" s="31"/>
+      <c r="H229" s="43"/>
+      <c r="I229" s="44"/>
+      <c r="J229" s="44"/>
+      <c r="K229" s="45"/>
+      <c r="L229" s="42"/>
+      <c r="M229" s="40"/>
+      <c r="N229" s="64"/>
+      <c r="O229" s="67"/>
+      <c r="P229" s="10"/>
+      <c r="Q229" s="10"/>
+      <c r="R229" s="10"/>
+      <c r="S229" s="10"/>
+      <c r="T229" s="10"/>
+      <c r="U229" s="10"/>
+      <c r="V229" s="10"/>
+      <c r="W229" s="10"/>
+      <c r="X229" s="10"/>
+      <c r="Y229" s="10"/>
+      <c r="Z229" s="10"/>
+      <c r="AA229" s="10"/>
+      <c r="AB229" s="10"/>
+      <c r="AC229" s="10"/>
+      <c r="AD229" s="10"/>
+      <c r="AE229" s="10"/>
+      <c r="AF229" s="10"/>
+      <c r="AG229" s="10"/>
+      <c r="AH229" s="10"/>
+      <c r="AI229" s="10"/>
+      <c r="AJ229" s="10"/>
+      <c r="AK229" s="10"/>
+      <c r="AL229" s="10"/>
+      <c r="AM229" s="10"/>
+      <c r="AN229" s="10"/>
+      <c r="AO229" s="10"/>
+      <c r="AP229" s="10"/>
+      <c r="AQ229" s="10"/>
+      <c r="AR229" s="10"/>
+      <c r="AS229" s="10"/>
+      <c r="AT229" s="10"/>
+      <c r="AU229" s="10"/>
+      <c r="AV229" s="10"/>
+      <c r="AW229" s="10"/>
+      <c r="AX229" s="10"/>
+      <c r="AY229" s="10"/>
+      <c r="AZ229" s="10"/>
+      <c r="BA229" s="10"/>
+      <c r="BB229" s="10"/>
+      <c r="BC229" s="10"/>
+      <c r="BD229" s="10"/>
+      <c r="BE229" s="10"/>
+      <c r="BF229" s="10"/>
+      <c r="BG229" s="10"/>
+      <c r="BH229" s="10"/>
+      <c r="BI229" s="10"/>
+      <c r="BJ229" s="10"/>
+    </row>
+    <row r="230" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A230" s="26"/>
+      <c r="B230" s="32"/>
+      <c r="C230" s="32"/>
+      <c r="D230" s="29"/>
+      <c r="E230" s="28"/>
+      <c r="F230" s="29"/>
+      <c r="G230" s="31"/>
+      <c r="H230" s="43"/>
+      <c r="I230" s="44"/>
+      <c r="J230" s="44"/>
+      <c r="K230" s="45"/>
+      <c r="L230" s="42"/>
+      <c r="M230" s="40"/>
+      <c r="N230" s="64"/>
+      <c r="O230" s="67"/>
+      <c r="P230" s="10"/>
+      <c r="Q230" s="10"/>
+      <c r="R230" s="10"/>
+      <c r="S230" s="10"/>
+      <c r="T230" s="10"/>
+      <c r="U230" s="10"/>
+      <c r="V230" s="10"/>
+      <c r="W230" s="10"/>
+      <c r="X230" s="10"/>
+      <c r="Y230" s="10"/>
+      <c r="Z230" s="10"/>
+      <c r="AA230" s="10"/>
+      <c r="AB230" s="10"/>
+      <c r="AC230" s="10"/>
+      <c r="AD230" s="10"/>
+      <c r="AE230" s="10"/>
+      <c r="AF230" s="10"/>
+      <c r="AG230" s="10"/>
+      <c r="AH230" s="10"/>
+      <c r="AI230" s="10"/>
+      <c r="AJ230" s="10"/>
+      <c r="AK230" s="10"/>
+      <c r="AL230" s="10"/>
+      <c r="AM230" s="10"/>
+      <c r="AN230" s="10"/>
+      <c r="AO230" s="10"/>
+      <c r="AP230" s="10"/>
+      <c r="AQ230" s="10"/>
+      <c r="AR230" s="10"/>
+      <c r="AS230" s="10"/>
+      <c r="AT230" s="10"/>
+      <c r="AU230" s="10"/>
+      <c r="AV230" s="10"/>
+      <c r="AW230" s="10"/>
+      <c r="AX230" s="10"/>
+      <c r="AY230" s="10"/>
+      <c r="AZ230" s="10"/>
+      <c r="BA230" s="10"/>
+      <c r="BB230" s="10"/>
+      <c r="BC230" s="10"/>
+      <c r="BD230" s="10"/>
+      <c r="BE230" s="10"/>
+      <c r="BF230" s="10"/>
+      <c r="BG230" s="10"/>
+      <c r="BH230" s="10"/>
+      <c r="BI230" s="10"/>
+      <c r="BJ230" s="10"/>
+    </row>
+    <row r="231" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A231" s="26"/>
+      <c r="B231" s="32"/>
+      <c r="C231" s="32"/>
+      <c r="D231" s="29"/>
+      <c r="E231" s="28"/>
+      <c r="F231" s="29"/>
+      <c r="G231" s="31"/>
+      <c r="H231" s="43"/>
+      <c r="I231" s="44"/>
+      <c r="J231" s="44"/>
+      <c r="K231" s="45"/>
+      <c r="L231" s="42"/>
+      <c r="M231" s="40"/>
+      <c r="N231" s="64"/>
+      <c r="O231" s="67"/>
+      <c r="P231" s="10"/>
+      <c r="Q231" s="10"/>
+      <c r="R231" s="10"/>
+      <c r="S231" s="10"/>
+      <c r="T231" s="10"/>
+      <c r="U231" s="10"/>
+      <c r="V231" s="10"/>
+      <c r="W231" s="10"/>
+      <c r="X231" s="10"/>
+      <c r="Y231" s="10"/>
+      <c r="Z231" s="10"/>
+      <c r="AA231" s="10"/>
+      <c r="AB231" s="10"/>
+      <c r="AC231" s="10"/>
+      <c r="AD231" s="10"/>
+      <c r="AE231" s="10"/>
+      <c r="AF231" s="10"/>
+      <c r="AG231" s="10"/>
+      <c r="AH231" s="10"/>
+      <c r="AI231" s="10"/>
+      <c r="AJ231" s="10"/>
+      <c r="AK231" s="10"/>
+      <c r="AL231" s="10"/>
+      <c r="AM231" s="10"/>
+      <c r="AN231" s="10"/>
+      <c r="AO231" s="10"/>
+      <c r="AP231" s="10"/>
+      <c r="AQ231" s="10"/>
+      <c r="AR231" s="10"/>
+      <c r="AS231" s="10"/>
+      <c r="AT231" s="10"/>
+      <c r="AU231" s="10"/>
+      <c r="AV231" s="10"/>
+      <c r="AW231" s="10"/>
+      <c r="AX231" s="10"/>
+      <c r="AY231" s="10"/>
+      <c r="AZ231" s="10"/>
+      <c r="BA231" s="10"/>
+      <c r="BB231" s="10"/>
+      <c r="BC231" s="10"/>
+      <c r="BD231" s="10"/>
+      <c r="BE231" s="10"/>
+      <c r="BF231" s="10"/>
+      <c r="BG231" s="10"/>
+      <c r="BH231" s="10"/>
+      <c r="BI231" s="10"/>
+      <c r="BJ231" s="10"/>
+    </row>
+    <row r="232" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A232" s="26"/>
+      <c r="B232" s="32"/>
+      <c r="C232" s="32"/>
+      <c r="D232" s="29"/>
+      <c r="E232" s="28"/>
+      <c r="F232" s="29"/>
+      <c r="G232" s="31"/>
+      <c r="H232" s="43"/>
+      <c r="I232" s="44"/>
+      <c r="J232" s="44"/>
+      <c r="K232" s="45"/>
+      <c r="L232" s="42"/>
+      <c r="M232" s="40"/>
+      <c r="N232" s="64"/>
+      <c r="O232" s="67"/>
+      <c r="P232" s="10"/>
+      <c r="Q232" s="10"/>
+      <c r="R232" s="10"/>
+      <c r="S232" s="10"/>
+      <c r="T232" s="10"/>
+      <c r="U232" s="10"/>
+      <c r="V232" s="10"/>
+      <c r="W232" s="10"/>
+      <c r="X232" s="10"/>
+      <c r="Y232" s="10"/>
+      <c r="Z232" s="10"/>
+      <c r="AA232" s="10"/>
+      <c r="AB232" s="10"/>
+      <c r="AC232" s="10"/>
+      <c r="AD232" s="10"/>
+      <c r="AE232" s="10"/>
+      <c r="AF232" s="10"/>
+      <c r="AG232" s="10"/>
+      <c r="AH232" s="10"/>
+      <c r="AI232" s="10"/>
+      <c r="AJ232" s="10"/>
+      <c r="AK232" s="10"/>
+      <c r="AL232" s="10"/>
+      <c r="AM232" s="10"/>
+      <c r="AN232" s="10"/>
+      <c r="AO232" s="10"/>
+      <c r="AP232" s="10"/>
+      <c r="AQ232" s="10"/>
+      <c r="AR232" s="10"/>
+      <c r="AS232" s="10"/>
+      <c r="AT232" s="10"/>
+      <c r="AU232" s="10"/>
+      <c r="AV232" s="10"/>
+      <c r="AW232" s="10"/>
+      <c r="AX232" s="10"/>
+      <c r="AY232" s="10"/>
+      <c r="AZ232" s="10"/>
+      <c r="BA232" s="10"/>
+      <c r="BB232" s="10"/>
+      <c r="BC232" s="10"/>
+      <c r="BD232" s="10"/>
+      <c r="BE232" s="10"/>
+      <c r="BF232" s="10"/>
+      <c r="BG232" s="10"/>
+      <c r="BH232" s="10"/>
+      <c r="BI232" s="10"/>
+      <c r="BJ232" s="10"/>
+    </row>
+    <row r="233" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A233" s="26"/>
+      <c r="B233" s="32"/>
+      <c r="C233" s="32"/>
+      <c r="D233" s="29"/>
+      <c r="E233" s="28"/>
+      <c r="F233" s="29"/>
+      <c r="G233" s="31"/>
+      <c r="H233" s="43"/>
+      <c r="I233" s="44"/>
+      <c r="J233" s="44"/>
+      <c r="K233" s="45"/>
+      <c r="L233" s="42"/>
+      <c r="M233" s="40"/>
+      <c r="N233" s="64"/>
+      <c r="O233" s="67"/>
+      <c r="P233" s="10"/>
+      <c r="Q233" s="10"/>
+      <c r="R233" s="10"/>
+      <c r="S233" s="10"/>
+      <c r="T233" s="10"/>
+      <c r="U233" s="10"/>
+      <c r="V233" s="10"/>
+      <c r="W233" s="10"/>
+      <c r="X233" s="10"/>
+      <c r="Y233" s="10"/>
+      <c r="Z233" s="10"/>
+      <c r="AA233" s="10"/>
+      <c r="AB233" s="10"/>
+      <c r="AC233" s="10"/>
+      <c r="AD233" s="10"/>
+      <c r="AE233" s="10"/>
+      <c r="AF233" s="10"/>
+      <c r="AG233" s="10"/>
+      <c r="AH233" s="10"/>
+      <c r="AI233" s="10"/>
+      <c r="AJ233" s="10"/>
+      <c r="AK233" s="10"/>
+      <c r="AL233" s="10"/>
+      <c r="AM233" s="10"/>
+      <c r="AN233" s="10"/>
+      <c r="AO233" s="10"/>
+      <c r="AP233" s="10"/>
+      <c r="AQ233" s="10"/>
+      <c r="AR233" s="10"/>
+      <c r="AS233" s="10"/>
+      <c r="AT233" s="10"/>
+      <c r="AU233" s="10"/>
+      <c r="AV233" s="10"/>
+      <c r="AW233" s="10"/>
+      <c r="AX233" s="10"/>
+      <c r="AY233" s="10"/>
+      <c r="AZ233" s="10"/>
+      <c r="BA233" s="10"/>
+      <c r="BB233" s="10"/>
+      <c r="BC233" s="10"/>
+      <c r="BD233" s="10"/>
+      <c r="BE233" s="10"/>
+      <c r="BF233" s="10"/>
+      <c r="BG233" s="10"/>
+      <c r="BH233" s="10"/>
+      <c r="BI233" s="10"/>
+      <c r="BJ233" s="10"/>
+    </row>
+    <row r="234" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A234" s="26"/>
+      <c r="B234" s="32"/>
+      <c r="C234" s="32"/>
+      <c r="D234" s="29"/>
+      <c r="E234" s="28"/>
+      <c r="F234" s="29"/>
+      <c r="G234" s="31"/>
+      <c r="H234" s="43"/>
+      <c r="I234" s="44"/>
+      <c r="J234" s="44"/>
+      <c r="K234" s="45"/>
+      <c r="L234" s="42"/>
+      <c r="M234" s="40"/>
+      <c r="N234" s="64"/>
+      <c r="O234" s="67"/>
+      <c r="P234" s="10"/>
+      <c r="Q234" s="10"/>
+      <c r="R234" s="10"/>
+      <c r="S234" s="10"/>
+      <c r="T234" s="10"/>
+      <c r="U234" s="10"/>
+      <c r="V234" s="10"/>
+      <c r="W234" s="10"/>
+      <c r="X234" s="10"/>
+      <c r="Y234" s="10"/>
+      <c r="Z234" s="10"/>
+      <c r="AA234" s="10"/>
+      <c r="AB234" s="10"/>
+      <c r="AC234" s="10"/>
+      <c r="AD234" s="10"/>
+      <c r="AE234" s="10"/>
+      <c r="AF234" s="10"/>
+      <c r="AG234" s="10"/>
+      <c r="AH234" s="10"/>
+      <c r="AI234" s="10"/>
+      <c r="AJ234" s="10"/>
+      <c r="AK234" s="10"/>
+      <c r="AL234" s="10"/>
+      <c r="AM234" s="10"/>
+      <c r="AN234" s="10"/>
+      <c r="AO234" s="10"/>
+      <c r="AP234" s="10"/>
+      <c r="AQ234" s="10"/>
+      <c r="AR234" s="10"/>
+      <c r="AS234" s="10"/>
+      <c r="AT234" s="10"/>
+      <c r="AU234" s="10"/>
+      <c r="AV234" s="10"/>
+      <c r="AW234" s="10"/>
+      <c r="AX234" s="10"/>
+      <c r="AY234" s="10"/>
+      <c r="AZ234" s="10"/>
+      <c r="BA234" s="10"/>
+      <c r="BB234" s="10"/>
+      <c r="BC234" s="10"/>
+      <c r="BD234" s="10"/>
+      <c r="BE234" s="10"/>
+      <c r="BF234" s="10"/>
+      <c r="BG234" s="10"/>
+      <c r="BH234" s="10"/>
+      <c r="BI234" s="10"/>
+      <c r="BJ234" s="10"/>
+    </row>
+    <row r="235" spans="1:62" ht="17.25" customHeight="1">
+      <c r="A235" s="47"/>
+      <c r="B235" s="48"/>
+      <c r="C235" s="48"/>
+      <c r="D235" s="49"/>
+      <c r="E235" s="50"/>
+      <c r="F235" s="51"/>
+      <c r="G235" s="50"/>
+      <c r="H235" s="52"/>
+      <c r="I235" s="53"/>
+      <c r="J235" s="53"/>
+      <c r="K235" s="54"/>
+      <c r="L235" s="55"/>
+      <c r="M235" s="56"/>
+      <c r="N235" s="57"/>
+      <c r="O235" s="48"/>
+      <c r="P235" s="48"/>
+      <c r="Q235" s="48"/>
+      <c r="R235" s="48"/>
+      <c r="S235" s="48"/>
+      <c r="T235" s="48"/>
+      <c r="U235" s="48"/>
+      <c r="V235" s="48"/>
+      <c r="W235" s="48"/>
+      <c r="X235" s="48"/>
+      <c r="Y235" s="48"/>
+      <c r="Z235" s="48"/>
+      <c r="AA235" s="48"/>
+      <c r="AB235" s="48"/>
+      <c r="AC235" s="48"/>
+      <c r="AD235" s="48"/>
+      <c r="AE235" s="48"/>
+      <c r="AF235" s="48"/>
+      <c r="AG235" s="48"/>
+      <c r="AH235" s="48"/>
+      <c r="AI235" s="48"/>
+      <c r="AJ235" s="48"/>
+      <c r="AK235" s="48"/>
+      <c r="AL235" s="48"/>
+      <c r="AM235" s="48"/>
+      <c r="AN235" s="48"/>
+      <c r="AO235" s="48"/>
+      <c r="AP235" s="48"/>
+      <c r="AQ235" s="48"/>
+      <c r="AR235" s="48"/>
+      <c r="AS235" s="48"/>
+      <c r="AT235" s="48"/>
+      <c r="AU235" s="48"/>
+      <c r="AV235" s="48"/>
+      <c r="AW235" s="48"/>
+      <c r="AX235" s="48"/>
+      <c r="AY235" s="48"/>
+      <c r="AZ235" s="48"/>
+      <c r="BA235" s="48"/>
+      <c r="BB235" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="BC2:BL2"/>
+    <mergeCell ref="BH3:BL3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="AI3:AM3"/>
+    <mergeCell ref="AN3:AR3"/>
+    <mergeCell ref="AS3:AW3"/>
+    <mergeCell ref="AI2:BB2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="O2:AH2"/>
     <mergeCell ref="A3:G4"/>
@@ -17050,17 +20466,6 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="BC2:BL2"/>
-    <mergeCell ref="BH3:BL3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="AI3:AM3"/>
-    <mergeCell ref="AN3:AR3"/>
-    <mergeCell ref="AS3:AW3"/>
-    <mergeCell ref="AI2:BB2"/>
-    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200702.xlsx
+++ b/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200702.xlsx
@@ -742,714 +742,714 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.5.3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.3.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加对IP V3校准业务功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗志勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗志勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.4.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI校准功能联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP校准功能联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭明东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭工、欧阳、罗工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗工、李工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU执行板软件修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU表头校准部分修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZPDU执行板序列号功能增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZPDU执行板校准功能改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU执行板序列号功能增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU执行板校准功能改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU表头序列号功能增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU表头校准功能改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧阳玲军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧阳玲军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢红曼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翟忠宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准系统增加MPDU/RPDU校准功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI单相、三相、直流协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU执行板协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.4.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU表头协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.4.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加对RPDU校准业务功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.4.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPDU执行板协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.4.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加对MPDU互感器校准业务功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.4.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加对MPDU锰铜校准业务功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.5.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.5.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.4.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.6.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU校准功能联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPDU校准功能联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭工、欧阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前日期：</t>
+  </si>
+  <si>
+    <t>起始日期：</t>
+  </si>
+  <si>
+    <t>阶段联调及收尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能PDU质量管理系统项目进度计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁保持执行板软件修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准系统对磁保持执行板功能支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁保持执行板校准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目文档整理及完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗志勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭明东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁保持校准联调及交付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江长胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.3.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁保持执行板（八位）提供三块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP-V1/3序列号功能增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP-V1/3交流校准功能改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP-V1/3直流校准功能改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC管理系统子项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC管理系统子项目规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义目标和需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子项目任务分解、具体实施进度安排</t>
+  </si>
+  <si>
+    <t>MAC管理系统接口协议确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC管理系统总体设计方案编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各PDU与MAC管理系统协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP-PDU软件改进MAC协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPDU主控软件改进MAC协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZPDU主控软件改进MAC协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU主控软件改进MAC协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC管理系统软件开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件界面原型设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口协议及MAC地址创建功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI交流校准功能改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能联调及阶段收尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备出厂恢复管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BM、MPDU执行板序列号功能增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BM、MPDU执行板校准功能改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPDU、RPDU、BM设备校准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义目标、确定需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出厂恢复接口协议确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出厂恢复系统总体设计方案编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDU出厂恢复接口协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BM、SI-PDU出厂恢复功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP-V1/V3出厂恢复功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPDU出厂恢复功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU出厂恢复功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZPDU出厂恢复功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出厂恢复管理系统项目规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出厂恢复系统软件开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口协议及恢复设置检测功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">核心功能、日志记录等功能实现 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统联调、功能完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">核心功能、日志记录实现 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统联调、功能完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老化监测系统项目规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定目标、收集需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老化监测方案讨论和初步确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体设计方案编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础实验的验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老化监测系统软件开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各PDU通讯功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.3</t>
+  </si>
+  <si>
+    <t>4.2.4</t>
+  </si>
+  <si>
+    <t>核心功能、关键业务功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能完善、系统调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准系统子项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老化监测系统子项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产质量检测系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台服务管理平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BM、MPDU执行板软件修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>增加对IP V1校准业务功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.3.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.3.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加对IP V3校准业务功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗志勇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗志勇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.4.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SI校准功能联调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP校准功能联调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭明东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭工、欧阳、罗工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗工、李工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.4.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU执行板软件修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU表头校准部分修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZPDU执行板序列号功能增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZPDU执行板校准功能改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU执行板序列号功能增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU执行板校准功能改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.3.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.3.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU表头序列号功能增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU表头校准功能改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧阳玲军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧阳玲军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢红曼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>翟忠宁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校准系统增加MPDU/RPDU校准功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SI单相、三相、直流协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU执行板协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.4.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.4.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU表头协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.4.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加对RPDU校准业务功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.4.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPDU执行板协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.4.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加对MPDU互感器校准业务功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.4.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加对MPDU锰铜校准业务功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.5.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.5.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.4.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.6.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU校准功能联调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPDU校准功能联调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭工、欧阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30 天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前日期：</t>
-  </si>
-  <si>
-    <t>起始日期：</t>
-  </si>
-  <si>
-    <t>阶段联调及收尾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能PDU质量管理系统项目进度计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4.3.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磁保持执行板软件修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校准系统对磁保持执行板功能支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4.3.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磁保持执行板校准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目文档整理及完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗志勇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭明东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磁保持校准联调及交付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江长胜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4.3.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4.3.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4.3.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4.3.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磁保持执行板（八位）提供三块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP-V1/3序列号功能增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP-V1/3交流校准功能改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP-V1/3直流校准功能改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAC管理系统子项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAC管理系统子项目规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义目标和需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子项目任务分解、具体实施进度安排</t>
-  </si>
-  <si>
-    <t>MAC管理系统接口协议确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAC管理系统总体设计方案编写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各PDU与MAC管理系统协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP-PDU软件改进MAC协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPDU主控软件改进MAC协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZPDU主控软件改进MAC协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU主控软件改进MAC协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAC管理系统软件开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件界面原型设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口协议及MAC地址创建功能实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.2.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15 天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SI交流校准功能改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能联调及阶段收尾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备出厂恢复管理系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BM、MPDU执行板序列号功能增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BM、MPDU执行板校准功能改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPDU、RPDU、BM设备校准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义目标、确定需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出厂恢复接口协议确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出厂恢复系统总体设计方案编写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PDU出厂恢复接口协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BM、SI-PDU出厂恢复功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP-V1/V3出厂恢复功能实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPDU出厂恢复功能实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU出厂恢复功能实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZPDU出厂恢复功能实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出厂恢复管理系统项目规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出厂恢复系统软件开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口协议及恢复设置检测功能实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">核心功能、日志记录等功能实现 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统联调、功能完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">核心功能、日志记录实现 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统联调、功能完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BM、MPDU执行板软件修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老化监测系统项目规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定目标、收集需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老化监测方案讨论和初步确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总体设计方案编写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础实验的验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老化监测系统软件开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各PDU通讯功能实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.2.3</t>
-  </si>
-  <si>
-    <t>4.2.4</t>
-  </si>
-  <si>
-    <t>核心功能、关键业务功能实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能完善、系统调试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校准系统子项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老化监测系统子项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产质量检测系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台服务管理平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2029,8 +2029,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2038,8 +2044,20 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2060,12 +2078,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2074,26 +2086,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2596,7 +2596,7 @@
         <xdr:cNvPr id="23" name="直接连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2647,7 +2647,7 @@
         <xdr:cNvPr id="30" name="直接连接符 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2706,7 +2706,7 @@
         <xdr:cNvPr id="32" name="直接连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2765,7 +2765,7 @@
         <xdr:cNvPr id="33" name="直接连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2824,7 +2824,7 @@
         <xdr:cNvPr id="35" name="直接连接符 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2883,7 +2883,7 @@
         <xdr:cNvPr id="36" name="直接连接符 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2934,7 +2934,7 @@
         <xdr:cNvPr id="40" name="直接连接符 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2993,7 +2993,7 @@
         <xdr:cNvPr id="42" name="直接连接符 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3052,7 +3052,7 @@
         <xdr:cNvPr id="43" name="直接连接符 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3103,7 +3103,7 @@
         <xdr:cNvPr id="45" name="直接连接符 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3162,7 +3162,7 @@
         <xdr:cNvPr id="47" name="直接连接符 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3221,7 +3221,7 @@
         <xdr:cNvPr id="49" name="直接连接符 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3272,7 +3272,7 @@
         <xdr:cNvPr id="52" name="直接连接符 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3331,7 +3331,7 @@
         <xdr:cNvPr id="53" name="直接连接符 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3390,7 +3390,7 @@
         <xdr:cNvPr id="55" name="直接连接符 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3449,7 +3449,7 @@
         <xdr:cNvPr id="58" name="直接连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3508,7 +3508,7 @@
         <xdr:cNvPr id="59" name="直接连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3567,7 +3567,7 @@
         <xdr:cNvPr id="61" name="直接连接符 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3618,7 +3618,7 @@
         <xdr:cNvPr id="63" name="直接连接符 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3669,7 +3669,7 @@
         <xdr:cNvPr id="34" name="直接连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3720,7 +3720,7 @@
         <xdr:cNvPr id="37" name="直接连接符 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3779,7 +3779,7 @@
         <xdr:cNvPr id="38" name="直接连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4139,10 +4139,10 @@
   <dimension ref="A1:BL235"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="4" topLeftCell="O18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="4" topLeftCell="O87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28:G33"/>
+      <selection pane="bottomRight" activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -4165,215 +4165,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="36.75" customHeight="1">
-      <c r="A1" s="80" t="s">
-        <v>272</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
+      <c r="A1" s="89" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
       <c r="N1" s="72"/>
     </row>
     <row r="2" spans="1:64" ht="17.25" customHeight="1">
-      <c r="A2" s="100" t="s">
-        <v>269</v>
-      </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="101">
+      <c r="A2" s="101" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="101"/>
+      <c r="C2" s="88">
         <f ca="1">TODAY()</f>
         <v>44033</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="K2" s="100" t="s">
-        <v>270</v>
-      </c>
-      <c r="L2" s="100"/>
-      <c r="M2" s="101">
+      <c r="D2" s="88"/>
+      <c r="K2" s="101" t="s">
+        <v>269</v>
+      </c>
+      <c r="L2" s="101"/>
+      <c r="M2" s="88">
         <v>43992</v>
       </c>
-      <c r="N2" s="101"/>
-      <c r="O2" s="81">
+      <c r="N2" s="88"/>
+      <c r="O2" s="83">
         <v>43983</v>
       </c>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="82"/>
-      <c r="AG2" s="82"/>
-      <c r="AH2" s="83"/>
-      <c r="AI2" s="81">
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="83">
         <v>44013</v>
       </c>
-      <c r="AJ2" s="82"/>
-      <c r="AK2" s="82"/>
-      <c r="AL2" s="82"/>
-      <c r="AM2" s="82"/>
-      <c r="AN2" s="82"/>
-      <c r="AO2" s="82"/>
-      <c r="AP2" s="82"/>
-      <c r="AQ2" s="82"/>
-      <c r="AR2" s="82"/>
-      <c r="AS2" s="82"/>
-      <c r="AT2" s="82"/>
-      <c r="AU2" s="82"/>
-      <c r="AV2" s="82"/>
-      <c r="AW2" s="82"/>
-      <c r="AX2" s="82"/>
-      <c r="AY2" s="82"/>
-      <c r="AZ2" s="82"/>
-      <c r="BA2" s="82"/>
-      <c r="BB2" s="83"/>
-      <c r="BC2" s="81">
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="84"/>
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="84"/>
+      <c r="AV2" s="84"/>
+      <c r="AW2" s="84"/>
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="84"/>
+      <c r="AZ2" s="84"/>
+      <c r="BA2" s="84"/>
+      <c r="BB2" s="87"/>
+      <c r="BC2" s="83">
         <v>44044</v>
       </c>
-      <c r="BD2" s="82"/>
-      <c r="BE2" s="82"/>
-      <c r="BF2" s="82"/>
-      <c r="BG2" s="82"/>
-      <c r="BH2" s="82"/>
-      <c r="BI2" s="82"/>
-      <c r="BJ2" s="82"/>
-      <c r="BK2" s="82"/>
-      <c r="BL2" s="82"/>
+      <c r="BD2" s="84"/>
+      <c r="BE2" s="84"/>
+      <c r="BF2" s="84"/>
+      <c r="BG2" s="84"/>
+      <c r="BH2" s="84"/>
+      <c r="BI2" s="84"/>
+      <c r="BJ2" s="84"/>
+      <c r="BK2" s="84"/>
+      <c r="BL2" s="84"/>
     </row>
     <row r="3" spans="1:64">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="I3" s="90" t="s">
+      <c r="I3" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="90" t="s">
+      <c r="J3" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="K3" s="90" t="s">
+      <c r="K3" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="92" t="s">
+      <c r="L3" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="M3" s="90" t="s">
+      <c r="M3" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="N3" s="90" t="s">
+      <c r="N3" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="O3" s="95">
+      <c r="O3" s="80">
         <v>43990</v>
       </c>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="97"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="95">
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="80">
         <v>43997</v>
       </c>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="99"/>
-      <c r="Y3" s="95">
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="80">
         <v>44004</v>
       </c>
-      <c r="Z3" s="96"/>
-      <c r="AA3" s="96"/>
-      <c r="AB3" s="96"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="95">
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="82"/>
+      <c r="AD3" s="80">
         <v>44011</v>
       </c>
-      <c r="AE3" s="96"/>
-      <c r="AF3" s="96"/>
-      <c r="AG3" s="96"/>
-      <c r="AH3" s="99"/>
-      <c r="AI3" s="95">
+      <c r="AE3" s="81"/>
+      <c r="AF3" s="81"/>
+      <c r="AG3" s="81"/>
+      <c r="AH3" s="82"/>
+      <c r="AI3" s="80">
         <v>44018</v>
       </c>
-      <c r="AJ3" s="96"/>
-      <c r="AK3" s="96"/>
-      <c r="AL3" s="96"/>
-      <c r="AM3" s="99"/>
-      <c r="AN3" s="95">
+      <c r="AJ3" s="81"/>
+      <c r="AK3" s="81"/>
+      <c r="AL3" s="81"/>
+      <c r="AM3" s="82"/>
+      <c r="AN3" s="80">
         <v>44025</v>
       </c>
-      <c r="AO3" s="96"/>
-      <c r="AP3" s="96"/>
-      <c r="AQ3" s="96"/>
-      <c r="AR3" s="99"/>
-      <c r="AS3" s="95">
+      <c r="AO3" s="81"/>
+      <c r="AP3" s="81"/>
+      <c r="AQ3" s="81"/>
+      <c r="AR3" s="82"/>
+      <c r="AS3" s="80">
         <v>44032</v>
       </c>
-      <c r="AT3" s="96"/>
-      <c r="AU3" s="96"/>
-      <c r="AV3" s="96"/>
-      <c r="AW3" s="99"/>
-      <c r="AX3" s="95">
+      <c r="AT3" s="81"/>
+      <c r="AU3" s="81"/>
+      <c r="AV3" s="81"/>
+      <c r="AW3" s="82"/>
+      <c r="AX3" s="80">
         <v>44039</v>
       </c>
-      <c r="AY3" s="96"/>
-      <c r="AZ3" s="96"/>
-      <c r="BA3" s="96"/>
-      <c r="BB3" s="99"/>
-      <c r="BC3" s="95">
+      <c r="AY3" s="81"/>
+      <c r="AZ3" s="81"/>
+      <c r="BA3" s="81"/>
+      <c r="BB3" s="82"/>
+      <c r="BC3" s="80">
         <v>44046</v>
       </c>
-      <c r="BD3" s="96"/>
-      <c r="BE3" s="96"/>
-      <c r="BF3" s="96"/>
-      <c r="BG3" s="99"/>
-      <c r="BH3" s="95">
+      <c r="BD3" s="81"/>
+      <c r="BE3" s="81"/>
+      <c r="BF3" s="81"/>
+      <c r="BG3" s="82"/>
+      <c r="BH3" s="80">
         <v>44053</v>
       </c>
-      <c r="BI3" s="96"/>
-      <c r="BJ3" s="96"/>
-      <c r="BK3" s="96"/>
-      <c r="BL3" s="99"/>
+      <c r="BI3" s="81"/>
+      <c r="BJ3" s="81"/>
+      <c r="BK3" s="81"/>
+      <c r="BL3" s="82"/>
     </row>
     <row r="4" spans="1:64">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
       <c r="O4" s="5" t="s">
         <v>111</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="16"/>
@@ -5816,7 +5816,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="31"/>
       <c r="H21" s="43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I21" s="44">
         <v>44004</v>
@@ -5965,7 +5965,7 @@
         <v>180</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" s="31"/>
@@ -5988,7 +5988,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="63" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O23" s="67"/>
       <c r="P23" s="10"/>
@@ -6047,7 +6047,7 @@
         <v>181</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F24" s="28"/>
       <c r="G24" s="31"/>
@@ -6226,7 +6226,7 @@
         <v>1</v>
       </c>
       <c r="N26" s="63" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O26" s="67"/>
       <c r="P26" s="10"/>
@@ -6366,7 +6366,7 @@
         <v>167</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
@@ -6438,15 +6438,15 @@
       <c r="B29" s="32"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="31"/>
       <c r="H29" s="43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I29" s="44">
         <v>44029</v>
@@ -6462,7 +6462,7 @@
         <v>1</v>
       </c>
       <c r="N29" s="63" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O29" s="67"/>
       <c r="P29" s="10"/>
@@ -6518,15 +6518,15 @@
       <c r="B30" s="32"/>
       <c r="C30" s="27"/>
       <c r="D30" s="28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="31"/>
       <c r="H30" s="43" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I30" s="44">
         <v>44032</v>
@@ -6536,7 +6536,7 @@
       </c>
       <c r="K30" s="45"/>
       <c r="L30" s="28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M30" s="39"/>
       <c r="N30" s="63" t="s">
@@ -6596,15 +6596,15 @@
       <c r="B31" s="32"/>
       <c r="C31" s="27"/>
       <c r="D31" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F31" s="29"/>
       <c r="G31" s="31"/>
       <c r="H31" s="43" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I31" s="44">
         <v>44032</v>
@@ -6614,11 +6614,11 @@
       </c>
       <c r="K31" s="45"/>
       <c r="L31" s="28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M31" s="39"/>
       <c r="N31" s="63" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O31" s="67"/>
       <c r="P31" s="10"/>
@@ -6674,15 +6674,15 @@
       <c r="B32" s="32"/>
       <c r="C32" s="27"/>
       <c r="D32" s="28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="31"/>
       <c r="H32" s="43" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I32" s="44">
         <v>44032</v>
@@ -6692,11 +6692,11 @@
       </c>
       <c r="K32" s="45"/>
       <c r="L32" s="42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M32" s="39"/>
       <c r="N32" s="63" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O32" s="67"/>
       <c r="P32" s="10"/>
@@ -6752,15 +6752,15 @@
       <c r="B33" s="32"/>
       <c r="C33" s="27"/>
       <c r="D33" s="28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F33" s="29"/>
       <c r="G33" s="31"/>
       <c r="H33" s="43" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I33" s="44">
         <v>44039</v>
@@ -6770,11 +6770,11 @@
       </c>
       <c r="K33" s="45"/>
       <c r="L33" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M33" s="39"/>
       <c r="N33" s="63" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O33" s="67"/>
       <c r="P33" s="10"/>
@@ -6897,7 +6897,7 @@
       <c r="A35" s="26"/>
       <c r="B35" s="32"/>
       <c r="C35" s="32" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D35" s="29" t="s">
         <v>195</v>
@@ -6906,7 +6906,7 @@
       <c r="F35" s="29"/>
       <c r="G35" s="31"/>
       <c r="H35" s="43" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I35" s="44">
         <v>44046</v>
@@ -6972,10 +6972,10 @@
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
       <c r="D36" s="27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F36" s="70"/>
       <c r="G36" s="31"/>
@@ -7046,10 +7046,10 @@
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
       <c r="D37" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F37" s="70"/>
       <c r="G37" s="31"/>
@@ -7120,10 +7120,10 @@
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
       <c r="D38" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="31"/>
@@ -7193,7 +7193,7 @@
       <c r="A39" s="26"/>
       <c r="B39" s="32"/>
       <c r="C39" s="69" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D39" s="29" t="s">
         <v>189</v>
@@ -7202,7 +7202,7 @@
       <c r="F39" s="51"/>
       <c r="G39" s="31"/>
       <c r="H39" s="43" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I39" s="44">
         <v>44046</v>
@@ -7268,7 +7268,7 @@
       <c r="B40" s="32"/>
       <c r="C40" s="32"/>
       <c r="D40" s="27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E40" s="28" t="s">
         <v>185</v>
@@ -7342,10 +7342,10 @@
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
       <c r="D41" s="27" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F41" s="29"/>
       <c r="G41" s="31"/>
@@ -7416,7 +7416,7 @@
       <c r="B42" s="32"/>
       <c r="C42" s="32"/>
       <c r="D42" s="27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E42" s="28" t="s">
         <v>186</v>
@@ -7498,7 +7498,7 @@
       <c r="F43" s="29"/>
       <c r="G43" s="31"/>
       <c r="H43" s="43" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I43" s="44">
         <v>44046</v>
@@ -7582,7 +7582,7 @@
       <c r="L44" s="42"/>
       <c r="M44" s="40"/>
       <c r="N44" s="64" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="O44" s="67"/>
       <c r="P44" s="10"/>
@@ -7641,7 +7641,7 @@
         <v>199</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F45" s="29"/>
       <c r="G45" s="31"/>
@@ -7806,7 +7806,7 @@
       <c r="L47" s="42"/>
       <c r="M47" s="40"/>
       <c r="N47" s="64" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O47" s="67"/>
       <c r="P47" s="10"/>
@@ -7862,10 +7862,10 @@
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
       <c r="D48" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>210</v>
+        <v>388</v>
       </c>
       <c r="F48" s="29"/>
       <c r="G48" s="31"/>
@@ -7882,7 +7882,7 @@
       </c>
       <c r="M48" s="40"/>
       <c r="N48" s="64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O48" s="67"/>
       <c r="P48" s="10"/>
@@ -7938,10 +7938,10 @@
       <c r="B49" s="32"/>
       <c r="C49" s="32"/>
       <c r="D49" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E49" s="28" t="s">
         <v>212</v>
-      </c>
-      <c r="E49" s="28" t="s">
-        <v>213</v>
       </c>
       <c r="F49" s="51"/>
       <c r="G49" s="31"/>
@@ -7956,7 +7956,7 @@
       <c r="L49" s="42"/>
       <c r="M49" s="40"/>
       <c r="N49" s="64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O49" s="67"/>
       <c r="P49" s="10"/>
@@ -8011,16 +8011,16 @@
       <c r="A50" s="26"/>
       <c r="B50" s="32"/>
       <c r="C50" s="69" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E50" s="28"/>
       <c r="F50" s="51"/>
       <c r="G50" s="31"/>
       <c r="H50" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I50" s="44">
         <v>44067</v>
@@ -8086,10 +8086,10 @@
       <c r="B51" s="32"/>
       <c r="C51" s="32"/>
       <c r="D51" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G51" s="31"/>
       <c r="H51" s="43" t="s">
@@ -8103,7 +8103,7 @@
       <c r="L51" s="42"/>
       <c r="M51" s="40"/>
       <c r="N51" s="64" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O51" s="67"/>
       <c r="P51" s="10"/>
@@ -8159,10 +8159,10 @@
       <c r="B52" s="32"/>
       <c r="C52" s="32"/>
       <c r="D52" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G52" s="31"/>
       <c r="H52" s="43" t="s">
@@ -8176,7 +8176,7 @@
       <c r="L52" s="42"/>
       <c r="M52" s="40"/>
       <c r="N52" s="64" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O52" s="67"/>
       <c r="P52" s="10"/>
@@ -8232,7 +8232,7 @@
       <c r="B53" s="32"/>
       <c r="C53" s="32"/>
       <c r="D53" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E53" s="28" t="s">
         <v>184</v>
@@ -8249,7 +8249,7 @@
       <c r="L53" s="42"/>
       <c r="M53" s="40"/>
       <c r="N53" s="64" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O53" s="67"/>
       <c r="P53" s="10"/>
@@ -8306,7 +8306,7 @@
         <v>1.6</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D54" s="27"/>
       <c r="E54" s="28"/>
@@ -8375,7 +8375,7 @@
         <v>194</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="E55" s="28"/>
       <c r="F55" s="29"/>
@@ -8441,10 +8441,10 @@
       <c r="B56" s="32"/>
       <c r="C56" s="32"/>
       <c r="D56" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F56" s="29"/>
       <c r="G56" s="31"/>
@@ -8459,7 +8459,7 @@
       <c r="L56" s="42"/>
       <c r="M56" s="40"/>
       <c r="N56" s="64" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O56" s="67"/>
       <c r="P56" s="10"/>
@@ -8515,10 +8515,10 @@
       <c r="B57" s="32"/>
       <c r="C57" s="32"/>
       <c r="D57" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F57" s="29"/>
       <c r="G57" s="31"/>
@@ -8533,7 +8533,7 @@
       <c r="L57" s="42"/>
       <c r="M57" s="40"/>
       <c r="N57" s="64" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O57" s="67"/>
       <c r="P57" s="10"/>
@@ -8588,10 +8588,10 @@
       <c r="A58" s="26"/>
       <c r="B58" s="32"/>
       <c r="C58" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="D58" s="29" t="s">
         <v>224</v>
-      </c>
-      <c r="D58" s="29" t="s">
-        <v>225</v>
       </c>
       <c r="E58" s="28"/>
       <c r="F58" s="29"/>
@@ -8657,10 +8657,10 @@
       <c r="B59" s="32"/>
       <c r="C59" s="32"/>
       <c r="D59" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F59" s="29"/>
       <c r="G59" s="31"/>
@@ -8675,7 +8675,7 @@
       <c r="L59" s="42"/>
       <c r="M59" s="40"/>
       <c r="N59" s="64" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O59" s="67"/>
       <c r="P59" s="10"/>
@@ -8731,10 +8731,10 @@
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
       <c r="D60" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F60" s="29"/>
       <c r="G60" s="31"/>
@@ -8749,7 +8749,7 @@
       <c r="L60" s="42"/>
       <c r="M60" s="40"/>
       <c r="N60" s="64" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O60" s="67"/>
       <c r="P60" s="10"/>
@@ -8804,10 +8804,10 @@
       <c r="A61" s="26"/>
       <c r="B61" s="32"/>
       <c r="C61" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D61" s="29" t="s">
         <v>226</v>
-      </c>
-      <c r="D61" s="29" t="s">
-        <v>227</v>
       </c>
       <c r="E61" s="28"/>
       <c r="F61" s="29"/>
@@ -8873,10 +8873,10 @@
       <c r="B62" s="32"/>
       <c r="C62" s="32"/>
       <c r="D62" s="29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F62" s="29"/>
       <c r="G62" s="31"/>
@@ -8891,7 +8891,7 @@
       <c r="L62" s="42"/>
       <c r="M62" s="40"/>
       <c r="N62" s="64" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O62" s="67"/>
       <c r="P62" s="10"/>
@@ -8947,10 +8947,10 @@
       <c r="B63" s="32"/>
       <c r="C63" s="32"/>
       <c r="D63" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F63" s="29"/>
       <c r="G63" s="31"/>
@@ -8965,7 +8965,7 @@
       <c r="L63" s="42"/>
       <c r="M63" s="40"/>
       <c r="N63" s="64" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O63" s="67"/>
       <c r="P63" s="10"/>
@@ -9020,10 +9020,10 @@
       <c r="A64" s="26"/>
       <c r="B64" s="32"/>
       <c r="C64" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="D64" s="29" t="s">
         <v>244</v>
-      </c>
-      <c r="D64" s="29" t="s">
-        <v>245</v>
       </c>
       <c r="E64" s="28"/>
       <c r="F64" s="29"/>
@@ -9089,10 +9089,10 @@
       <c r="B65" s="32"/>
       <c r="C65" s="32"/>
       <c r="D65" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E65" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F65" s="29"/>
       <c r="G65" s="31"/>
@@ -9163,10 +9163,10 @@
       <c r="B66" s="32"/>
       <c r="C66" s="32"/>
       <c r="D66" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="E66" s="28" t="s">
         <v>249</v>
-      </c>
-      <c r="E66" s="28" t="s">
-        <v>250</v>
       </c>
       <c r="F66" s="29"/>
       <c r="G66" s="31"/>
@@ -9181,7 +9181,7 @@
       <c r="L66" s="42"/>
       <c r="M66" s="40"/>
       <c r="N66" s="64" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O66" s="67"/>
       <c r="P66" s="10"/>
@@ -9237,10 +9237,10 @@
       <c r="B67" s="32"/>
       <c r="C67" s="32"/>
       <c r="D67" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="E67" s="28" t="s">
         <v>251</v>
-      </c>
-      <c r="E67" s="28" t="s">
-        <v>252</v>
       </c>
       <c r="F67" s="29"/>
       <c r="G67" s="31"/>
@@ -9255,7 +9255,7 @@
       <c r="L67" s="42"/>
       <c r="M67" s="40"/>
       <c r="N67" s="64" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O67" s="67"/>
       <c r="P67" s="10"/>
@@ -9311,10 +9311,10 @@
       <c r="B68" s="32"/>
       <c r="C68" s="32"/>
       <c r="D68" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="E68" s="28" t="s">
         <v>253</v>
-      </c>
-      <c r="E68" s="28" t="s">
-        <v>254</v>
       </c>
       <c r="F68" s="29"/>
       <c r="G68" s="31"/>
@@ -9329,7 +9329,7 @@
       <c r="L68" s="42"/>
       <c r="M68" s="40"/>
       <c r="N68" s="64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O68" s="67"/>
       <c r="P68" s="10"/>
@@ -9385,10 +9385,10 @@
       <c r="B69" s="32"/>
       <c r="C69" s="32"/>
       <c r="D69" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="E69" s="28" t="s">
         <v>255</v>
-      </c>
-      <c r="E69" s="28" t="s">
-        <v>256</v>
       </c>
       <c r="F69" s="29"/>
       <c r="G69" s="31"/>
@@ -9459,10 +9459,10 @@
       <c r="B70" s="32"/>
       <c r="C70" s="32"/>
       <c r="D70" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="E70" s="28" t="s">
         <v>257</v>
-      </c>
-      <c r="E70" s="28" t="s">
-        <v>258</v>
       </c>
       <c r="F70" s="29"/>
       <c r="G70" s="31"/>
@@ -9477,7 +9477,7 @@
       <c r="L70" s="42"/>
       <c r="M70" s="40"/>
       <c r="N70" s="64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O70" s="67"/>
       <c r="P70" s="10"/>
@@ -9532,10 +9532,10 @@
       <c r="A71" s="26"/>
       <c r="B71" s="32"/>
       <c r="C71" s="69" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E71" s="28"/>
       <c r="F71" s="29"/>
@@ -9601,10 +9601,10 @@
       <c r="B72" s="32"/>
       <c r="C72" s="32"/>
       <c r="D72" s="27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E72" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F72" s="29"/>
       <c r="G72" s="31"/>
@@ -9675,10 +9675,10 @@
       <c r="B73" s="32"/>
       <c r="C73" s="32"/>
       <c r="D73" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E73" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F73" s="29"/>
       <c r="G73" s="31"/>
@@ -9693,7 +9693,7 @@
       <c r="L73" s="42"/>
       <c r="M73" s="40"/>
       <c r="N73" s="64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O73" s="67"/>
       <c r="P73" s="10"/>
@@ -9749,7 +9749,7 @@
       <c r="B74" s="32"/>
       <c r="C74" s="32"/>
       <c r="D74" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E74" s="28" t="s">
         <v>184</v>
@@ -9767,7 +9767,7 @@
       <c r="L74" s="42"/>
       <c r="M74" s="40"/>
       <c r="N74" s="64" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O74" s="67"/>
       <c r="P74" s="10"/>
@@ -9887,7 +9887,7 @@
         <v>2</v>
       </c>
       <c r="B76" s="74" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C76" s="74"/>
       <c r="D76" s="29"/>
@@ -9956,7 +9956,7 @@
         <v>2.1</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D77" s="29"/>
       <c r="E77" s="28"/>
@@ -10022,16 +10022,16 @@
       <c r="A78" s="15"/>
       <c r="B78" s="71"/>
       <c r="C78" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D78" s="29" t="s">
         <v>297</v>
-      </c>
-      <c r="D78" s="29" t="s">
-        <v>298</v>
       </c>
       <c r="E78" s="28"/>
       <c r="F78" s="29"/>
       <c r="G78" s="31"/>
       <c r="H78" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I78" s="44">
         <v>44109</v>
@@ -10094,16 +10094,16 @@
       <c r="A79" s="15"/>
       <c r="B79" s="71"/>
       <c r="C79" s="32" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D79" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E79" s="28"/>
       <c r="F79" s="29"/>
       <c r="G79" s="31"/>
       <c r="H79" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I79" s="44">
         <v>44116</v>
@@ -10166,16 +10166,16 @@
       <c r="A80" s="15"/>
       <c r="B80" s="71"/>
       <c r="C80" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="D80" s="29" t="s">
         <v>301</v>
-      </c>
-      <c r="D80" s="29" t="s">
-        <v>302</v>
       </c>
       <c r="E80" s="28"/>
       <c r="F80" s="29"/>
       <c r="G80" s="31"/>
       <c r="H80" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I80" s="44">
         <v>44123</v>
@@ -10238,16 +10238,16 @@
       <c r="A81" s="15"/>
       <c r="B81" s="71"/>
       <c r="C81" s="32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E81" s="28"/>
       <c r="F81" s="29"/>
       <c r="G81" s="31"/>
       <c r="H81" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I81" s="44">
         <v>44130</v>
@@ -10312,7 +10312,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D82" s="29"/>
       <c r="E82" s="28"/>
@@ -10378,16 +10378,16 @@
       <c r="A83" s="15"/>
       <c r="B83" s="71"/>
       <c r="C83" s="32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E83" s="28"/>
       <c r="F83" s="29"/>
       <c r="G83" s="31"/>
       <c r="H83" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I83" s="44">
         <v>44123</v>
@@ -10450,16 +10450,16 @@
       <c r="A84" s="15"/>
       <c r="B84" s="71"/>
       <c r="C84" s="32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E84" s="28"/>
       <c r="F84" s="29"/>
       <c r="G84" s="31"/>
       <c r="H84" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I84" s="44">
         <v>44123</v>
@@ -10522,16 +10522,16 @@
       <c r="A85" s="15"/>
       <c r="B85" s="71"/>
       <c r="C85" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="D85" s="29" t="s">
         <v>311</v>
-      </c>
-      <c r="D85" s="29" t="s">
-        <v>312</v>
       </c>
       <c r="E85" s="28"/>
       <c r="F85" s="29"/>
       <c r="G85" s="31"/>
       <c r="H85" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I85" s="44">
         <v>44123</v>
@@ -10594,16 +10594,16 @@
       <c r="A86" s="15"/>
       <c r="B86" s="71"/>
       <c r="C86" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="D86" s="29" t="s">
         <v>313</v>
-      </c>
-      <c r="D86" s="29" t="s">
-        <v>314</v>
       </c>
       <c r="E86" s="28"/>
       <c r="F86" s="29"/>
       <c r="G86" s="31"/>
       <c r="H86" s="43" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I86" s="44">
         <v>44123</v>
@@ -10668,7 +10668,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C87" s="75" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D87" s="51"/>
       <c r="E87" s="28"/>
@@ -10734,16 +10734,16 @@
       <c r="A88" s="15"/>
       <c r="B88" s="76"/>
       <c r="C88" s="77" t="s">
+        <v>315</v>
+      </c>
+      <c r="D88" s="78" t="s">
         <v>316</v>
-      </c>
-      <c r="D88" s="78" t="s">
-        <v>317</v>
       </c>
       <c r="E88" s="28"/>
       <c r="F88" s="29"/>
       <c r="G88" s="31"/>
       <c r="H88" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I88" s="44">
         <v>44137</v>
@@ -10806,16 +10806,16 @@
       <c r="A89" s="15"/>
       <c r="B89" s="76"/>
       <c r="C89" s="32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D89" s="32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E89" s="28"/>
       <c r="F89" s="29"/>
       <c r="G89" s="31"/>
       <c r="H89" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I89" s="44">
         <v>44144</v>
@@ -10878,16 +10878,16 @@
       <c r="A90" s="15"/>
       <c r="B90" s="76"/>
       <c r="C90" s="77" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D90" s="78" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E90" s="28"/>
       <c r="F90" s="29"/>
       <c r="G90" s="31"/>
       <c r="H90" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I90" s="44">
         <v>44151</v>
@@ -10950,16 +10950,16 @@
       <c r="A91" s="15"/>
       <c r="B91" s="32"/>
       <c r="C91" s="75" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D91" s="79" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E91" s="28"/>
       <c r="F91" s="29"/>
       <c r="G91" s="31"/>
       <c r="H91" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I91" s="44">
         <v>44158</v>
@@ -11087,7 +11087,7 @@
         <v>3</v>
       </c>
       <c r="B93" s="74" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C93" s="32"/>
       <c r="D93" s="29"/>
@@ -11156,7 +11156,7 @@
         <v>3.1</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D94" s="29"/>
       <c r="E94" s="28"/>
@@ -11222,16 +11222,16 @@
       <c r="A95" s="26"/>
       <c r="B95" s="32"/>
       <c r="C95" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D95" s="29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E95" s="28"/>
       <c r="F95" s="29"/>
       <c r="G95" s="31"/>
       <c r="H95" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I95" s="44">
         <v>44166</v>
@@ -11294,16 +11294,16 @@
       <c r="A96" s="26"/>
       <c r="B96" s="32"/>
       <c r="C96" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="D96" s="29" t="s">
         <v>341</v>
-      </c>
-      <c r="D96" s="29" t="s">
-        <v>342</v>
       </c>
       <c r="E96" s="28"/>
       <c r="F96" s="29"/>
       <c r="G96" s="31"/>
       <c r="H96" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I96" s="44">
         <v>44172</v>
@@ -11366,16 +11366,16 @@
       <c r="A97" s="26"/>
       <c r="B97" s="32"/>
       <c r="C97" s="32" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D97" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E97" s="28"/>
       <c r="F97" s="29"/>
       <c r="G97" s="31"/>
       <c r="H97" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I97" s="44">
         <v>44179</v>
@@ -11438,16 +11438,16 @@
       <c r="A98" s="26"/>
       <c r="B98" s="32"/>
       <c r="C98" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="D98" s="29" t="s">
         <v>344</v>
-      </c>
-      <c r="D98" s="29" t="s">
-        <v>345</v>
       </c>
       <c r="E98" s="28"/>
       <c r="F98" s="29"/>
       <c r="G98" s="31"/>
       <c r="H98" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I98" s="44">
         <v>44186</v>
@@ -11512,7 +11512,7 @@
         <v>3.2</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D99" s="29"/>
       <c r="E99" s="28"/>
@@ -11578,16 +11578,16 @@
       <c r="A100" s="26"/>
       <c r="B100" s="32"/>
       <c r="C100" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="D100" s="29" t="s">
         <v>347</v>
-      </c>
-      <c r="D100" s="29" t="s">
-        <v>348</v>
       </c>
       <c r="E100" s="28"/>
       <c r="F100" s="29"/>
       <c r="G100" s="31"/>
       <c r="H100" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I100" s="44">
         <v>44179</v>
@@ -11650,16 +11650,16 @@
       <c r="A101" s="26"/>
       <c r="B101" s="32"/>
       <c r="C101" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="D101" s="29" t="s">
         <v>349</v>
-      </c>
-      <c r="D101" s="29" t="s">
-        <v>350</v>
       </c>
       <c r="E101" s="28"/>
       <c r="F101" s="29"/>
       <c r="G101" s="31"/>
       <c r="H101" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I101" s="44">
         <v>44179</v>
@@ -11722,16 +11722,16 @@
       <c r="A102" s="26"/>
       <c r="B102" s="32"/>
       <c r="C102" s="32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D102" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E102" s="28"/>
       <c r="F102" s="29"/>
       <c r="G102" s="31"/>
       <c r="H102" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I102" s="44">
         <v>44179</v>
@@ -11794,16 +11794,16 @@
       <c r="A103" s="26"/>
       <c r="B103" s="32"/>
       <c r="C103" s="32" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D103" s="29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E103" s="28"/>
       <c r="F103" s="29"/>
       <c r="G103" s="31"/>
       <c r="H103" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I103" s="44">
         <v>44179</v>
@@ -11866,16 +11866,16 @@
       <c r="A104" s="26"/>
       <c r="B104" s="32"/>
       <c r="C104" s="32" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D104" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E104" s="28"/>
       <c r="F104" s="29"/>
       <c r="G104" s="31"/>
       <c r="H104" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I104" s="44">
         <v>44179</v>
@@ -11940,7 +11940,7 @@
         <v>3.3</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D105" s="29"/>
       <c r="E105" s="28"/>
@@ -12006,16 +12006,16 @@
       <c r="A106" s="26"/>
       <c r="B106" s="32"/>
       <c r="C106" s="77" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D106" s="78" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E106" s="28"/>
       <c r="F106" s="29"/>
       <c r="G106" s="31"/>
       <c r="H106" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I106" s="44">
         <v>44193</v>
@@ -12078,16 +12078,16 @@
       <c r="A107" s="26"/>
       <c r="B107" s="32"/>
       <c r="C107" s="32" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D107" s="32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E107" s="28"/>
       <c r="F107" s="29"/>
       <c r="G107" s="31"/>
       <c r="H107" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I107" s="44">
         <v>44200</v>
@@ -12150,16 +12150,16 @@
       <c r="A108" s="26"/>
       <c r="B108" s="32"/>
       <c r="C108" s="77" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D108" s="78" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E108" s="28"/>
       <c r="F108" s="29"/>
       <c r="G108" s="31"/>
       <c r="H108" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I108" s="44">
         <v>44207</v>
@@ -12222,16 +12222,16 @@
       <c r="A109" s="26"/>
       <c r="B109" s="32"/>
       <c r="C109" s="75" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D109" s="79" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E109" s="28"/>
       <c r="F109" s="29"/>
       <c r="G109" s="31"/>
       <c r="H109" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I109" s="44">
         <v>44214</v>
@@ -12359,7 +12359,7 @@
         <v>4</v>
       </c>
       <c r="B111" s="74" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C111" s="32"/>
       <c r="D111" s="29"/>
@@ -12428,7 +12428,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D112" s="29"/>
       <c r="E112" s="28"/>
@@ -12493,16 +12493,16 @@
       <c r="A113" s="13"/>
       <c r="B113" s="71"/>
       <c r="C113" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="D113" s="29" t="s">
         <v>369</v>
-      </c>
-      <c r="D113" s="29" t="s">
-        <v>371</v>
       </c>
       <c r="E113" s="28"/>
       <c r="F113" s="29"/>
       <c r="G113" s="31"/>
       <c r="H113" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I113" s="44">
         <v>44221</v>
@@ -12565,16 +12565,16 @@
       <c r="A114" s="13"/>
       <c r="B114" s="71"/>
       <c r="C114" s="32" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D114" s="29" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E114" s="28"/>
       <c r="F114" s="29"/>
       <c r="G114" s="31"/>
       <c r="H114" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I114" s="44">
         <v>44228</v>
@@ -12637,16 +12637,16 @@
       <c r="A115" s="13"/>
       <c r="B115" s="74"/>
       <c r="C115" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="D115" s="29" t="s">
         <v>372</v>
-      </c>
-      <c r="D115" s="29" t="s">
-        <v>374</v>
       </c>
       <c r="E115" s="28"/>
       <c r="F115" s="29"/>
       <c r="G115" s="31"/>
       <c r="H115" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I115" s="44">
         <v>44249</v>
@@ -12709,16 +12709,16 @@
       <c r="A116" s="13"/>
       <c r="B116" s="74"/>
       <c r="C116" s="32" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D116" s="29" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E116" s="28"/>
       <c r="F116" s="29"/>
       <c r="G116" s="31"/>
       <c r="H116" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I116" s="44">
         <v>44256</v>
@@ -12783,7 +12783,7 @@
         <v>4.2</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D117" s="29"/>
       <c r="E117" s="28"/>
@@ -12849,16 +12849,16 @@
       <c r="A118" s="26"/>
       <c r="B118" s="32"/>
       <c r="C118" s="32" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D118" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E118" s="28"/>
       <c r="F118" s="29"/>
       <c r="G118" s="31"/>
       <c r="H118" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I118" s="44">
         <v>44263</v>
@@ -12921,16 +12921,16 @@
       <c r="A119" s="26"/>
       <c r="B119" s="32"/>
       <c r="C119" s="32" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D119" s="29" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E119" s="28"/>
       <c r="F119" s="29"/>
       <c r="G119" s="31"/>
       <c r="H119" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I119" s="44">
         <v>44270</v>
@@ -12993,16 +12993,16 @@
       <c r="A120" s="26"/>
       <c r="B120" s="32"/>
       <c r="C120" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="D120" s="29" t="s">
         <v>381</v>
-      </c>
-      <c r="D120" s="29" t="s">
-        <v>383</v>
       </c>
       <c r="E120" s="28"/>
       <c r="F120" s="29"/>
       <c r="G120" s="31"/>
       <c r="H120" s="43" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I120" s="44">
         <v>44277</v>
@@ -13065,16 +13065,16 @@
       <c r="A121" s="26"/>
       <c r="B121" s="32"/>
       <c r="C121" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="D121" s="29" t="s">
         <v>382</v>
-      </c>
-      <c r="D121" s="29" t="s">
-        <v>384</v>
       </c>
       <c r="E121" s="28"/>
       <c r="F121" s="29"/>
       <c r="G121" s="31"/>
       <c r="H121" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I121" s="44">
         <v>44284</v>
@@ -13202,7 +13202,7 @@
         <v>5</v>
       </c>
       <c r="B123" s="74" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C123" s="32"/>
       <c r="D123" s="29"/>
@@ -13402,7 +13402,7 @@
         <v>6</v>
       </c>
       <c r="B126" s="74" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C126" s="32"/>
       <c r="D126" s="29"/>
@@ -20439,17 +20439,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="BC2:BL2"/>
-    <mergeCell ref="BH3:BL3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="AI3:AM3"/>
-    <mergeCell ref="AN3:AR3"/>
-    <mergeCell ref="AS3:AW3"/>
-    <mergeCell ref="AI2:BB2"/>
-    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="O2:AH2"/>
     <mergeCell ref="A3:G4"/>
@@ -20466,6 +20455,17 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="BC2:BL2"/>
+    <mergeCell ref="BH3:BL3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="AI3:AM3"/>
+    <mergeCell ref="AN3:AR3"/>
+    <mergeCell ref="AS3:AW3"/>
+    <mergeCell ref="AI2:BB2"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200702.xlsx
+++ b/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200702.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="391">
   <si>
     <t>标识号</t>
   </si>
@@ -644,14 +644,6 @@
     <t>阶段成果交付</t>
   </si>
   <si>
-    <t>SI序列号功能增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SI直流校准功能改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>交流三相、直流标准源软件控制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -660,18 +652,763 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SI表头软件修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>校准系统增加SI校准业务功能</t>
+  </si>
+  <si>
+    <t>5 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP表头软件修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP-Vi/3单三相直流协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准系统增加IP/SI校准功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭明东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭明东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗志勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加对IP V3校准业务功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗志勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗志勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI校准功能联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP校准功能联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭明东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭工、欧阳、罗工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZPDU执行板序列号功能增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZPDU执行板校准功能改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU执行板序列号功能增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU执行板校准功能改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU表头序列号功能增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU表头校准功能改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧阳玲军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧阳玲军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢红曼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翟忠宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI单相、三相、直流协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU执行板协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU表头协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加对RPDU校准业务功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPDU执行板协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加对MPDU互感器校准业务功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加对MPDU锰铜校准业务功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU校准功能联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPDU校准功能联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭工、欧阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前日期：</t>
+  </si>
+  <si>
+    <t>起始日期：</t>
+  </si>
+  <si>
+    <t>智能PDU质量管理系统项目进度计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁保持执行板软件修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准系统对磁保持执行板功能支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁保持执行板校准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目文档整理及完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗志勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭明东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁保持校准联调及交付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江长胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.3.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁保持执行板（八位）提供三块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP-V1/3序列号功能增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP-V1/3交流校准功能改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP-V1/3直流校准功能改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC管理系统子项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC管理系统子项目规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义目标和需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子项目任务分解、具体实施进度安排</t>
+  </si>
+  <si>
+    <t>MAC管理系统接口协议确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC管理系统总体设计方案编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各PDU与MAC管理系统协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP-PDU软件改进MAC协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPDU主控软件改进MAC协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZPDU主控软件改进MAC协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU主控软件改进MAC协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC管理系统软件开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件界面原型设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口协议及MAC地址创建功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能联调及阶段收尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备出厂恢复管理系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义目标、确定需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出厂恢复接口协议确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出厂恢复系统总体设计方案编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDU出厂恢复接口协议对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BM、SI-PDU出厂恢复功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP-V1/V3出厂恢复功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPDU出厂恢复功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU出厂恢复功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZPDU出厂恢复功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出厂恢复管理系统项目规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出厂恢复系统软件开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口协议及恢复设置检测功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">核心功能、日志记录等功能实现 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统联调、功能完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">核心功能、日志记录实现 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统联调、功能完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老化监测系统项目规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定目标、收集需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老化监测方案讨论和初步确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体设计方案编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础实验的验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老化监测系统软件开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各PDU通讯功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.3</t>
+  </si>
+  <si>
+    <t>4.2.4</t>
+  </si>
+  <si>
+    <t>核心功能、关键业务功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能完善、系统调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校准系统子项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老化监测系统子项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产质量检测系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台服务管理平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加对IP V1校准业务功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.1.1</t>
+  </si>
+  <si>
+    <t>1.6.1.2</t>
   </si>
   <si>
     <t>1.5.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校准系统增加SI校准业务功能</t>
+  </si>
+  <si>
+    <t>1.5.2.1</t>
+  </si>
+  <si>
+    <t>1.5.2.2</t>
   </si>
   <si>
     <t>1.5.3</t>
+  </si>
+  <si>
+    <t>1.5.3.1</t>
+  </si>
+  <si>
+    <t>1.5.3.2</t>
+  </si>
+  <si>
+    <t>1.5.4</t>
+  </si>
+  <si>
+    <t>1.5.4.1</t>
+  </si>
+  <si>
+    <t>1.5.4.2</t>
+  </si>
+  <si>
+    <t>1.5.4.3</t>
+  </si>
+  <si>
+    <t>1.5.4.4</t>
+  </si>
+  <si>
+    <t>1.5.4.5</t>
+  </si>
+  <si>
+    <t>1.5.5</t>
+  </si>
+  <si>
+    <t>1.5.5.1</t>
+  </si>
+  <si>
+    <t>1.5.5.2</t>
+  </si>
+  <si>
+    <t>1.6.1</t>
+  </si>
+  <si>
+    <t>1.6.1.3</t>
+  </si>
+  <si>
+    <t>1.6.2</t>
+  </si>
+  <si>
+    <t>1.6.2.1</t>
+  </si>
+  <si>
+    <t>1.6.2.2</t>
+  </si>
+  <si>
+    <t>1.6.2.3</t>
+  </si>
+  <si>
+    <t>1.6.3</t>
+  </si>
+  <si>
+    <t>1.6.3.1</t>
+  </si>
+  <si>
+    <t>1.6.3.2</t>
+  </si>
+  <si>
+    <t>1.6.3.3</t>
+  </si>
+  <si>
+    <t>1.6.3.4</t>
+  </si>
+  <si>
+    <t>1.6.3.6</t>
+  </si>
+  <si>
+    <t>1.6.4</t>
+  </si>
+  <si>
+    <t>1.6.4.1</t>
+  </si>
+  <si>
+    <t>1.6.4.2</t>
+  </si>
+  <si>
+    <t>1.6.4.3</t>
+  </si>
+  <si>
+    <t>1.5.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPDU、RPDU设备校准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPDU执行板序列号功能增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPDU执行板校准功能改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZPDU磁保持执行板校准功能改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI、BM表头软件修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI、BM序列号功能增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI、BM交流校准功能改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI、BM直流校准功能改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李科杰</t>
+  </si>
+  <si>
+    <t>李科杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI、IP、BM设备校准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPDU执行板软件修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPDU表头校准部分修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段联调及收尾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -679,122 +1416,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.6.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP表头软件修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SI和IP设备校准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.3.3</t>
-  </si>
-  <si>
-    <t>1.5.3.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.3.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP-Vi/3单三相直流协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校准系统增加IP/SI校准功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李科杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李科杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李科杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭明东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭明东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗志勇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.3.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.3.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.3.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加对IP V3校准业务功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗志勇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗志勇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.4.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SI校准功能联调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP校准功能联调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭明东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭工、欧阳、罗工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗工、李工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.4.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.2</t>
+    <t>校准系统增加MPDU/RPDU校准功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -802,654 +1424,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.6.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU表头校准部分修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZPDU执行板序列号功能增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZPDU执行板校准功能改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU执行板序列号功能增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU执行板校准功能改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.3.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.3.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU表头序列号功能增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU表头校准功能改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧阳玲军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧阳玲军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢红曼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>翟忠宁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校准系统增加MPDU/RPDU校准功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SI单相、三相、直流协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU执行板协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.4.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.4.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU表头协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.4.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加对RPDU校准业务功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.4.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPDU执行板协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.4.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加对MPDU互感器校准业务功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.4.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加对MPDU锰铜校准业务功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.5.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.5.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.4.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.6.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU校准功能联调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPDU校准功能联调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭工、欧阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30 天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前日期：</t>
-  </si>
-  <si>
-    <t>起始日期：</t>
-  </si>
-  <si>
-    <t>阶段联调及收尾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能PDU质量管理系统项目进度计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4.3.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磁保持执行板软件修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校准系统对磁保持执行板功能支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4.3.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磁保持执行板校准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目文档整理及完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗志勇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭明东</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磁保持校准联调及交付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江长胜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4.3.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4.3.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4.3.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4.3.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磁保持执行板（八位）提供三块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP-V1/3序列号功能增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP-V1/3交流校准功能改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP-V1/3直流校准功能改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAC管理系统子项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAC管理系统子项目规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义目标和需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子项目任务分解、具体实施进度安排</t>
-  </si>
-  <si>
-    <t>MAC管理系统接口协议确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAC管理系统总体设计方案编写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各PDU与MAC管理系统协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP-PDU软件改进MAC协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPDU主控软件改进MAC协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZPDU主控软件改进MAC协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU主控软件改进MAC协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAC管理系统软件开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件界面原型设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口协议及MAC地址创建功能实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.5.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5.2.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15 天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SI交流校准功能改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能联调及阶段收尾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备出厂恢复管理系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BM、MPDU执行板序列号功能增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BM、MPDU执行板校准功能改进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPDU、RPDU、BM设备校准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义目标、确定需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出厂恢复接口协议确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出厂恢复系统总体设计方案编写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PDU出厂恢复接口协议对接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BM、SI-PDU出厂恢复功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP-V1/V3出厂恢复功能实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPDU出厂恢复功能实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPDU出厂恢复功能实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZPDU出厂恢复功能实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出厂恢复管理系统项目规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出厂恢复系统软件开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口协议及恢复设置检测功能实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">核心功能、日志记录等功能实现 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统联调、功能完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">核心功能、日志记录实现 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统联调、功能完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老化监测系统项目规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定目标、收集需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老化监测方案讨论和初步确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总体设计方案编写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础实验的验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老化监测系统软件开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各PDU通讯功能实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.2.3</t>
-  </si>
-  <si>
-    <t>4.2.4</t>
-  </si>
-  <si>
-    <t>核心功能、关键业务功能实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能完善、系统调试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校准系统子项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老化监测系统子项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产质量检测系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台服务管理平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BM、MPDU执行板软件修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加对IP V1校准业务功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1832,7 +1807,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2029,14 +2004,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2044,20 +2013,8 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2078,6 +2035,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2086,14 +2049,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2596,7 +2574,7 @@
         <xdr:cNvPr id="23" name="直接连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2647,7 +2625,7 @@
         <xdr:cNvPr id="30" name="直接连接符 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2706,7 +2684,7 @@
         <xdr:cNvPr id="32" name="直接连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2765,7 +2743,7 @@
         <xdr:cNvPr id="33" name="直接连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2824,7 +2802,7 @@
         <xdr:cNvPr id="35" name="直接连接符 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2883,7 +2861,7 @@
         <xdr:cNvPr id="36" name="直接连接符 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2934,7 +2912,7 @@
         <xdr:cNvPr id="40" name="直接连接符 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2993,7 +2971,7 @@
         <xdr:cNvPr id="42" name="直接连接符 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3052,7 +3030,7 @@
         <xdr:cNvPr id="43" name="直接连接符 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3103,7 +3081,7 @@
         <xdr:cNvPr id="45" name="直接连接符 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3162,7 +3140,7 @@
         <xdr:cNvPr id="47" name="直接连接符 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3221,7 +3199,7 @@
         <xdr:cNvPr id="49" name="直接连接符 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3272,7 +3250,7 @@
         <xdr:cNvPr id="52" name="直接连接符 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3331,7 +3309,7 @@
         <xdr:cNvPr id="53" name="直接连接符 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3390,7 +3368,7 @@
         <xdr:cNvPr id="55" name="直接连接符 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3449,7 +3427,7 @@
         <xdr:cNvPr id="58" name="直接连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3508,7 +3486,7 @@
         <xdr:cNvPr id="59" name="直接连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3567,7 +3545,7 @@
         <xdr:cNvPr id="61" name="直接连接符 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3618,7 +3596,7 @@
         <xdr:cNvPr id="63" name="直接连接符 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3669,7 +3647,7 @@
         <xdr:cNvPr id="34" name="直接连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3720,7 +3698,7 @@
         <xdr:cNvPr id="37" name="直接连接符 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3779,7 +3757,7 @@
         <xdr:cNvPr id="38" name="直接连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4139,10 +4117,10 @@
   <dimension ref="A1:BL235"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="4" topLeftCell="O87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B126" sqref="B126"/>
+      <selection pane="bottomRight" activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -4165,215 +4143,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="36.75" customHeight="1">
-      <c r="A1" s="89" t="s">
-        <v>271</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
+      <c r="A1" s="80" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
       <c r="N1" s="72"/>
     </row>
     <row r="2" spans="1:64" ht="17.25" customHeight="1">
-      <c r="A2" s="101" t="s">
-        <v>268</v>
-      </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="88">
+      <c r="A2" s="100" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="100"/>
+      <c r="C2" s="101">
         <f ca="1">TODAY()</f>
-        <v>44033</v>
-      </c>
-      <c r="D2" s="88"/>
-      <c r="K2" s="101" t="s">
-        <v>269</v>
-      </c>
-      <c r="L2" s="101"/>
-      <c r="M2" s="88">
+        <v>44034</v>
+      </c>
+      <c r="D2" s="101"/>
+      <c r="K2" s="100" t="s">
+        <v>226</v>
+      </c>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101">
         <v>43992</v>
       </c>
-      <c r="N2" s="88"/>
-      <c r="O2" s="83">
+      <c r="N2" s="101"/>
+      <c r="O2" s="81">
         <v>43983</v>
       </c>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="83">
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="81">
         <v>44013</v>
       </c>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84"/>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
-      <c r="AW2" s="84"/>
-      <c r="AX2" s="84"/>
-      <c r="AY2" s="84"/>
-      <c r="AZ2" s="84"/>
-      <c r="BA2" s="84"/>
-      <c r="BB2" s="87"/>
-      <c r="BC2" s="83">
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="82"/>
+      <c r="AL2" s="82"/>
+      <c r="AM2" s="82"/>
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="82"/>
+      <c r="AP2" s="82"/>
+      <c r="AQ2" s="82"/>
+      <c r="AR2" s="82"/>
+      <c r="AS2" s="82"/>
+      <c r="AT2" s="82"/>
+      <c r="AU2" s="82"/>
+      <c r="AV2" s="82"/>
+      <c r="AW2" s="82"/>
+      <c r="AX2" s="82"/>
+      <c r="AY2" s="82"/>
+      <c r="AZ2" s="82"/>
+      <c r="BA2" s="82"/>
+      <c r="BB2" s="83"/>
+      <c r="BC2" s="81">
         <v>44044</v>
       </c>
-      <c r="BD2" s="84"/>
-      <c r="BE2" s="84"/>
-      <c r="BF2" s="84"/>
-      <c r="BG2" s="84"/>
-      <c r="BH2" s="84"/>
-      <c r="BI2" s="84"/>
-      <c r="BJ2" s="84"/>
-      <c r="BK2" s="84"/>
-      <c r="BL2" s="84"/>
+      <c r="BD2" s="82"/>
+      <c r="BE2" s="82"/>
+      <c r="BF2" s="82"/>
+      <c r="BG2" s="82"/>
+      <c r="BH2" s="82"/>
+      <c r="BI2" s="82"/>
+      <c r="BJ2" s="82"/>
+      <c r="BK2" s="82"/>
+      <c r="BL2" s="82"/>
     </row>
     <row r="3" spans="1:64">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="I3" s="85" t="s">
+      <c r="I3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="85" t="s">
+      <c r="J3" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="K3" s="85" t="s">
+      <c r="K3" s="90" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="96" t="s">
+      <c r="L3" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="M3" s="85" t="s">
+      <c r="M3" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="N3" s="85" t="s">
+      <c r="N3" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="O3" s="80">
+      <c r="O3" s="95">
         <v>43990</v>
       </c>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="80">
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="95">
         <v>43997</v>
       </c>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="80">
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="95">
         <v>44004</v>
       </c>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="81"/>
-      <c r="AC3" s="82"/>
-      <c r="AD3" s="80">
+      <c r="Z3" s="96"/>
+      <c r="AA3" s="96"/>
+      <c r="AB3" s="96"/>
+      <c r="AC3" s="99"/>
+      <c r="AD3" s="95">
         <v>44011</v>
       </c>
-      <c r="AE3" s="81"/>
-      <c r="AF3" s="81"/>
-      <c r="AG3" s="81"/>
-      <c r="AH3" s="82"/>
-      <c r="AI3" s="80">
+      <c r="AE3" s="96"/>
+      <c r="AF3" s="96"/>
+      <c r="AG3" s="96"/>
+      <c r="AH3" s="99"/>
+      <c r="AI3" s="95">
         <v>44018</v>
       </c>
-      <c r="AJ3" s="81"/>
-      <c r="AK3" s="81"/>
-      <c r="AL3" s="81"/>
-      <c r="AM3" s="82"/>
-      <c r="AN3" s="80">
+      <c r="AJ3" s="96"/>
+      <c r="AK3" s="96"/>
+      <c r="AL3" s="96"/>
+      <c r="AM3" s="99"/>
+      <c r="AN3" s="95">
         <v>44025</v>
       </c>
-      <c r="AO3" s="81"/>
-      <c r="AP3" s="81"/>
-      <c r="AQ3" s="81"/>
-      <c r="AR3" s="82"/>
-      <c r="AS3" s="80">
+      <c r="AO3" s="96"/>
+      <c r="AP3" s="96"/>
+      <c r="AQ3" s="96"/>
+      <c r="AR3" s="99"/>
+      <c r="AS3" s="95">
         <v>44032</v>
       </c>
-      <c r="AT3" s="81"/>
-      <c r="AU3" s="81"/>
-      <c r="AV3" s="81"/>
-      <c r="AW3" s="82"/>
-      <c r="AX3" s="80">
+      <c r="AT3" s="96"/>
+      <c r="AU3" s="96"/>
+      <c r="AV3" s="96"/>
+      <c r="AW3" s="99"/>
+      <c r="AX3" s="95">
         <v>44039</v>
       </c>
-      <c r="AY3" s="81"/>
-      <c r="AZ3" s="81"/>
-      <c r="BA3" s="81"/>
-      <c r="BB3" s="82"/>
-      <c r="BC3" s="80">
+      <c r="AY3" s="96"/>
+      <c r="AZ3" s="96"/>
+      <c r="BA3" s="96"/>
+      <c r="BB3" s="99"/>
+      <c r="BC3" s="95">
         <v>44046</v>
       </c>
-      <c r="BD3" s="81"/>
-      <c r="BE3" s="81"/>
-      <c r="BF3" s="81"/>
-      <c r="BG3" s="82"/>
-      <c r="BH3" s="80">
+      <c r="BD3" s="96"/>
+      <c r="BE3" s="96"/>
+      <c r="BF3" s="96"/>
+      <c r="BG3" s="99"/>
+      <c r="BH3" s="95">
         <v>44053</v>
       </c>
-      <c r="BI3" s="81"/>
-      <c r="BJ3" s="81"/>
-      <c r="BK3" s="81"/>
-      <c r="BL3" s="82"/>
+      <c r="BI3" s="96"/>
+      <c r="BJ3" s="96"/>
+      <c r="BK3" s="96"/>
+      <c r="BL3" s="99"/>
     </row>
     <row r="4" spans="1:64">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
       <c r="O4" s="5" t="s">
         <v>111</v>
       </c>
@@ -4530,7 +4508,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>383</v>
+        <v>326</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="16"/>
@@ -5155,7 +5133,7 @@
       <c r="BI12" s="10"/>
       <c r="BJ12" s="10"/>
     </row>
-    <row r="13" spans="1:64" ht="17.25" customHeight="1" outlineLevel="2">
+    <row r="13" spans="1:64" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A13" s="26"/>
       <c r="B13" s="15"/>
       <c r="C13" s="27" t="s">
@@ -5237,7 +5215,7 @@
       <c r="BI13" s="10"/>
       <c r="BJ13" s="10"/>
     </row>
-    <row r="14" spans="1:64" ht="17.25" customHeight="1" outlineLevel="2">
+    <row r="14" spans="1:64" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A14" s="26"/>
       <c r="B14" s="15"/>
       <c r="C14" s="27" t="s">
@@ -5317,7 +5295,7 @@
       <c r="BI14" s="10"/>
       <c r="BJ14" s="10"/>
     </row>
-    <row r="15" spans="1:64" s="8" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="15" spans="1:64" s="8" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" collapsed="1">
       <c r="A15" s="26"/>
       <c r="B15" s="27">
         <v>1.3</v>
@@ -5395,7 +5373,7 @@
       <c r="BI15" s="12"/>
       <c r="BJ15" s="12"/>
     </row>
-    <row r="16" spans="1:64" ht="17.25" customHeight="1" outlineLevel="2">
+    <row r="16" spans="1:64" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A16" s="26"/>
       <c r="B16" s="15"/>
       <c r="C16" s="27" t="s">
@@ -5475,7 +5453,7 @@
       <c r="BI16" s="10"/>
       <c r="BJ16" s="10"/>
     </row>
-    <row r="17" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
+    <row r="17" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A17" s="26"/>
       <c r="B17" s="15"/>
       <c r="C17" s="27" t="s">
@@ -5557,7 +5535,7 @@
       <c r="BI17" s="10"/>
       <c r="BJ17" s="10"/>
     </row>
-    <row r="18" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
+    <row r="18" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A18" s="26"/>
       <c r="B18" s="15"/>
       <c r="C18" s="27" t="s">
@@ -5639,7 +5617,7 @@
       <c r="BI18" s="10"/>
       <c r="BJ18" s="10"/>
     </row>
-    <row r="19" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
+    <row r="19" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A19" s="26"/>
       <c r="B19" s="15"/>
       <c r="C19" s="27" t="s">
@@ -5721,7 +5699,7 @@
       <c r="BI19" s="10"/>
       <c r="BJ19" s="10"/>
     </row>
-    <row r="20" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
+    <row r="20" spans="1:62" ht="17.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A20" s="26"/>
       <c r="B20" s="15"/>
       <c r="C20" s="27" t="s">
@@ -5803,7 +5781,7 @@
       <c r="BI20" s="10"/>
       <c r="BJ20" s="10"/>
     </row>
-    <row r="21" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="21" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1" collapsed="1">
       <c r="A21" s="26"/>
       <c r="B21" s="15">
         <v>1.4</v>
@@ -5816,7 +5794,7 @@
       <c r="F21" s="29"/>
       <c r="G21" s="31"/>
       <c r="H21" s="43" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="I21" s="44">
         <v>44004</v>
@@ -5965,7 +5943,7 @@
         <v>180</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" s="31"/>
@@ -5988,7 +5966,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="63" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="O23" s="67"/>
       <c r="P23" s="10"/>
@@ -6047,7 +6025,7 @@
         <v>181</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="F24" s="28"/>
       <c r="G24" s="31"/>
@@ -6226,7 +6204,7 @@
         <v>1</v>
       </c>
       <c r="N26" s="63" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="O26" s="67"/>
       <c r="P26" s="10"/>
@@ -6366,7 +6344,7 @@
         <v>167</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
@@ -6438,15 +6416,15 @@
       <c r="B29" s="32"/>
       <c r="C29" s="27"/>
       <c r="D29" s="28" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>290</v>
+        <v>246</v>
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="31"/>
       <c r="H29" s="43" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="I29" s="44">
         <v>44029</v>
@@ -6462,7 +6440,7 @@
         <v>1</v>
       </c>
       <c r="N29" s="63" t="s">
-        <v>284</v>
+        <v>240</v>
       </c>
       <c r="O29" s="67"/>
       <c r="P29" s="10"/>
@@ -6518,15 +6496,15 @@
       <c r="B30" s="32"/>
       <c r="C30" s="27"/>
       <c r="D30" s="28" t="s">
-        <v>285</v>
+        <v>241</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="31"/>
       <c r="H30" s="43" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="I30" s="44">
         <v>44032</v>
@@ -6536,7 +6514,7 @@
       </c>
       <c r="K30" s="45"/>
       <c r="L30" s="28" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="M30" s="39"/>
       <c r="N30" s="63" t="s">
@@ -6596,15 +6574,15 @@
       <c r="B31" s="32"/>
       <c r="C31" s="27"/>
       <c r="D31" s="28" t="s">
-        <v>286</v>
+        <v>242</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="F31" s="29"/>
       <c r="G31" s="31"/>
       <c r="H31" s="43" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="I31" s="44">
         <v>44032</v>
@@ -6614,11 +6592,11 @@
       </c>
       <c r="K31" s="45"/>
       <c r="L31" s="28" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="M31" s="39"/>
       <c r="N31" s="63" t="s">
-        <v>279</v>
+        <v>235</v>
       </c>
       <c r="O31" s="67"/>
       <c r="P31" s="10"/>
@@ -6674,15 +6652,15 @@
       <c r="B32" s="32"/>
       <c r="C32" s="27"/>
       <c r="D32" s="28" t="s">
-        <v>287</v>
+        <v>243</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="31"/>
       <c r="H32" s="43" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="I32" s="44">
         <v>44032</v>
@@ -6692,11 +6670,11 @@
       </c>
       <c r="K32" s="45"/>
       <c r="L32" s="42" t="s">
-        <v>289</v>
+        <v>245</v>
       </c>
       <c r="M32" s="39"/>
       <c r="N32" s="63" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
       <c r="O32" s="67"/>
       <c r="P32" s="10"/>
@@ -6752,15 +6730,15 @@
       <c r="B33" s="32"/>
       <c r="C33" s="27"/>
       <c r="D33" s="28" t="s">
-        <v>288</v>
+        <v>244</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="F33" s="29"/>
       <c r="G33" s="31"/>
       <c r="H33" s="43" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="I33" s="44">
         <v>44039</v>
@@ -6770,11 +6748,11 @@
       </c>
       <c r="K33" s="45"/>
       <c r="L33" s="28" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="M33" s="39"/>
       <c r="N33" s="63" t="s">
-        <v>282</v>
+        <v>238</v>
       </c>
       <c r="O33" s="67"/>
       <c r="P33" s="10"/>
@@ -6831,7 +6809,7 @@
         <v>1.5</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>196</v>
+        <v>369</v>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="28"/>
@@ -6893,91 +6871,87 @@
       <c r="BI34" s="10"/>
       <c r="BJ34" s="10"/>
     </row>
-    <row r="35" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
+    <row r="35" spans="1:62" s="8" customFormat="1" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A35" s="26"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32" t="s">
-        <v>322</v>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71" t="s">
+        <v>186</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>195</v>
+        <v>382</v>
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="29"/>
       <c r="G35" s="31"/>
       <c r="H35" s="43" t="s">
-        <v>330</v>
-      </c>
-      <c r="I35" s="44">
-        <v>44046</v>
-      </c>
-      <c r="J35" s="44">
-        <v>44060</v>
-      </c>
-      <c r="K35" s="45"/>
+        <v>383</v>
+      </c>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
       <c r="L35" s="42"/>
       <c r="M35" s="40"/>
       <c r="N35" s="64"/>
-      <c r="O35" s="67"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="10"/>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="10"/>
-      <c r="AB35" s="10"/>
-      <c r="AC35" s="10"/>
-      <c r="AD35" s="10"/>
-      <c r="AE35" s="10"/>
-      <c r="AF35" s="10"/>
-      <c r="AG35" s="10"/>
-      <c r="AH35" s="10"/>
-      <c r="AI35" s="10"/>
-      <c r="AJ35" s="10"/>
-      <c r="AK35" s="10"/>
-      <c r="AL35" s="10"/>
-      <c r="AM35" s="10"/>
-      <c r="AN35" s="10"/>
-      <c r="AO35" s="10"/>
-      <c r="AP35" s="10"/>
-      <c r="AQ35" s="10"/>
-      <c r="AR35" s="10"/>
-      <c r="AS35" s="10"/>
-      <c r="AT35" s="10"/>
-      <c r="AU35" s="10"/>
-      <c r="AV35" s="10"/>
-      <c r="AW35" s="10"/>
-      <c r="AX35" s="10"/>
-      <c r="AY35" s="10"/>
-      <c r="AZ35" s="10"/>
-      <c r="BA35" s="10"/>
-      <c r="BB35" s="10"/>
-      <c r="BC35" s="10"/>
-      <c r="BD35" s="10"/>
-      <c r="BE35" s="10"/>
-      <c r="BF35" s="10"/>
-      <c r="BG35" s="10"/>
-      <c r="BH35" s="10"/>
-      <c r="BI35" s="10"/>
-      <c r="BJ35" s="10"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="12"/>
+      <c r="AE35" s="12"/>
+      <c r="AF35" s="12"/>
+      <c r="AG35" s="12"/>
+      <c r="AH35" s="12"/>
+      <c r="AI35" s="12"/>
+      <c r="AJ35" s="12"/>
+      <c r="AK35" s="12"/>
+      <c r="AL35" s="12"/>
+      <c r="AM35" s="12"/>
+      <c r="AN35" s="12"/>
+      <c r="AO35" s="12"/>
+      <c r="AP35" s="12"/>
+      <c r="AQ35" s="12"/>
+      <c r="AR35" s="12"/>
+      <c r="AS35" s="12"/>
+      <c r="AT35" s="12"/>
+      <c r="AU35" s="12"/>
+      <c r="AV35" s="12"/>
+      <c r="AW35" s="12"/>
+      <c r="AX35" s="12"/>
+      <c r="AY35" s="12"/>
+      <c r="AZ35" s="12"/>
+      <c r="BA35" s="12"/>
+      <c r="BB35" s="12"/>
+      <c r="BC35" s="12"/>
+      <c r="BD35" s="12"/>
+      <c r="BE35" s="12"/>
+      <c r="BF35" s="12"/>
+      <c r="BG35" s="12"/>
+      <c r="BH35" s="12"/>
+      <c r="BI35" s="12"/>
+      <c r="BJ35" s="12"/>
     </row>
     <row r="36" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A36" s="26"/>
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
-      <c r="D36" s="27" t="s">
-        <v>323</v>
+      <c r="D36" s="29" t="s">
+        <v>367</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="F36" s="70"/>
+        <v>370</v>
+      </c>
+      <c r="F36" s="29"/>
       <c r="G36" s="31"/>
       <c r="H36" s="43" t="s">
         <v>127</v>
@@ -6990,7 +6964,7 @@
       <c r="L36" s="42"/>
       <c r="M36" s="40"/>
       <c r="N36" s="64" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="O36" s="67"/>
       <c r="P36" s="10"/>
@@ -7045,13 +7019,13 @@
       <c r="A37" s="26"/>
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
-      <c r="D37" s="27" t="s">
-        <v>324</v>
+      <c r="D37" s="29" t="s">
+        <v>368</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="F37" s="70"/>
+        <v>371</v>
+      </c>
+      <c r="F37" s="29"/>
       <c r="G37" s="31"/>
       <c r="H37" s="43" t="s">
         <v>127</v>
@@ -7061,10 +7035,12 @@
       </c>
       <c r="J37" s="44"/>
       <c r="K37" s="45"/>
-      <c r="L37" s="42"/>
+      <c r="L37" s="29" t="s">
+        <v>367</v>
+      </c>
       <c r="M37" s="40"/>
       <c r="N37" s="64" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="O37" s="67"/>
       <c r="P37" s="10"/>
@@ -7119,11 +7095,11 @@
       <c r="A38" s="26"/>
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
-      <c r="D38" s="27" t="s">
-        <v>325</v>
+      <c r="D38" s="29" t="s">
+        <v>372</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>293</v>
+        <v>373</v>
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="31"/>
@@ -7135,10 +7111,12 @@
       </c>
       <c r="J38" s="44"/>
       <c r="K38" s="45"/>
-      <c r="L38" s="42"/>
+      <c r="L38" s="29" t="s">
+        <v>390</v>
+      </c>
       <c r="M38" s="40"/>
       <c r="N38" s="64" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="O38" s="67"/>
       <c r="P38" s="10"/>
@@ -7189,89 +7167,85 @@
       <c r="BI38" s="10"/>
       <c r="BJ38" s="10"/>
     </row>
-    <row r="39" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
+    <row r="39" spans="1:62" s="8" customFormat="1" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A39" s="26"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="69" t="s">
-        <v>326</v>
+      <c r="B39" s="71"/>
+      <c r="C39" s="71" t="s">
+        <v>336</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>189</v>
+        <v>389</v>
       </c>
       <c r="E39" s="28"/>
-      <c r="F39" s="51"/>
+      <c r="F39" s="29"/>
       <c r="G39" s="31"/>
       <c r="H39" s="43" t="s">
-        <v>330</v>
-      </c>
-      <c r="I39" s="44">
-        <v>44046</v>
-      </c>
-      <c r="J39" s="44">
-        <v>44060</v>
-      </c>
-      <c r="K39" s="45"/>
+        <v>385</v>
+      </c>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
       <c r="L39" s="42"/>
       <c r="M39" s="40"/>
       <c r="N39" s="64"/>
-      <c r="O39" s="67"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="10"/>
-      <c r="AA39" s="10"/>
-      <c r="AB39" s="10"/>
-      <c r="AC39" s="10"/>
-      <c r="AD39" s="10"/>
-      <c r="AE39" s="10"/>
-      <c r="AF39" s="10"/>
-      <c r="AG39" s="10"/>
-      <c r="AH39" s="10"/>
-      <c r="AI39" s="10"/>
-      <c r="AJ39" s="10"/>
-      <c r="AK39" s="10"/>
-      <c r="AL39" s="10"/>
-      <c r="AM39" s="10"/>
-      <c r="AN39" s="10"/>
-      <c r="AO39" s="10"/>
-      <c r="AP39" s="10"/>
-      <c r="AQ39" s="10"/>
-      <c r="AR39" s="10"/>
-      <c r="AS39" s="10"/>
-      <c r="AT39" s="10"/>
-      <c r="AU39" s="10"/>
-      <c r="AV39" s="10"/>
-      <c r="AW39" s="10"/>
-      <c r="AX39" s="10"/>
-      <c r="AY39" s="10"/>
-      <c r="AZ39" s="10"/>
-      <c r="BA39" s="10"/>
-      <c r="BB39" s="10"/>
-      <c r="BC39" s="10"/>
-      <c r="BD39" s="10"/>
-      <c r="BE39" s="10"/>
-      <c r="BF39" s="10"/>
-      <c r="BG39" s="10"/>
-      <c r="BH39" s="10"/>
-      <c r="BI39" s="10"/>
-      <c r="BJ39" s="10"/>
+      <c r="O39" s="68"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
+      <c r="AF39" s="12"/>
+      <c r="AG39" s="12"/>
+      <c r="AH39" s="12"/>
+      <c r="AI39" s="12"/>
+      <c r="AJ39" s="12"/>
+      <c r="AK39" s="12"/>
+      <c r="AL39" s="12"/>
+      <c r="AM39" s="12"/>
+      <c r="AN39" s="12"/>
+      <c r="AO39" s="12"/>
+      <c r="AP39" s="12"/>
+      <c r="AQ39" s="12"/>
+      <c r="AR39" s="12"/>
+      <c r="AS39" s="12"/>
+      <c r="AT39" s="12"/>
+      <c r="AU39" s="12"/>
+      <c r="AV39" s="12"/>
+      <c r="AW39" s="12"/>
+      <c r="AX39" s="12"/>
+      <c r="AY39" s="12"/>
+      <c r="AZ39" s="12"/>
+      <c r="BA39" s="12"/>
+      <c r="BB39" s="12"/>
+      <c r="BC39" s="12"/>
+      <c r="BD39" s="12"/>
+      <c r="BE39" s="12"/>
+      <c r="BF39" s="12"/>
+      <c r="BG39" s="12"/>
+      <c r="BH39" s="12"/>
+      <c r="BI39" s="12"/>
+      <c r="BJ39" s="12"/>
     </row>
     <row r="40" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A40" s="26"/>
       <c r="B40" s="32"/>
       <c r="C40" s="32"/>
-      <c r="D40" s="27" t="s">
-        <v>327</v>
+      <c r="D40" s="29" t="s">
+        <v>337</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="F40" s="29"/>
       <c r="G40" s="31"/>
@@ -7286,7 +7260,7 @@
       <c r="L40" s="42"/>
       <c r="M40" s="40"/>
       <c r="N40" s="64" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="O40" s="67"/>
       <c r="P40" s="10"/>
@@ -7341,11 +7315,11 @@
       <c r="A41" s="26"/>
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
-      <c r="D41" s="27" t="s">
-        <v>328</v>
+      <c r="D41" s="29" t="s">
+        <v>338</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>331</v>
+        <v>206</v>
       </c>
       <c r="F41" s="29"/>
       <c r="G41" s="31"/>
@@ -7357,10 +7331,12 @@
       </c>
       <c r="J41" s="44"/>
       <c r="K41" s="45"/>
-      <c r="L41" s="42"/>
+      <c r="L41" s="29" t="s">
+        <v>337</v>
+      </c>
       <c r="M41" s="40"/>
       <c r="N41" s="64" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="O41" s="67"/>
       <c r="P41" s="10"/>
@@ -7411,105 +7387,101 @@
       <c r="BI41" s="10"/>
       <c r="BJ41" s="10"/>
     </row>
-    <row r="42" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
+    <row r="42" spans="1:62" s="8" customFormat="1" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A42" s="26"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="27" t="s">
-        <v>329</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>186</v>
-      </c>
+      <c r="B42" s="71"/>
+      <c r="C42" s="71" t="s">
+        <v>339</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="E42" s="28"/>
       <c r="F42" s="29"/>
       <c r="G42" s="31"/>
       <c r="H42" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="I42" s="44">
-        <v>44060</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="I42" s="44"/>
       <c r="J42" s="44"/>
-      <c r="K42" s="45"/>
+      <c r="K42" s="44"/>
       <c r="L42" s="42"/>
       <c r="M42" s="40"/>
-      <c r="N42" s="64" t="s">
-        <v>202</v>
-      </c>
-      <c r="O42" s="67"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="10"/>
-      <c r="Z42" s="10"/>
-      <c r="AA42" s="10"/>
-      <c r="AB42" s="10"/>
-      <c r="AC42" s="10"/>
-      <c r="AD42" s="10"/>
-      <c r="AE42" s="10"/>
-      <c r="AF42" s="10"/>
-      <c r="AG42" s="10"/>
-      <c r="AH42" s="10"/>
-      <c r="AI42" s="10"/>
-      <c r="AJ42" s="10"/>
-      <c r="AK42" s="10"/>
-      <c r="AL42" s="10"/>
-      <c r="AM42" s="10"/>
-      <c r="AN42" s="10"/>
-      <c r="AO42" s="10"/>
-      <c r="AP42" s="10"/>
-      <c r="AQ42" s="10"/>
-      <c r="AR42" s="10"/>
-      <c r="AS42" s="10"/>
-      <c r="AT42" s="10"/>
-      <c r="AU42" s="10"/>
-      <c r="AV42" s="10"/>
-      <c r="AW42" s="10"/>
-      <c r="AX42" s="10"/>
-      <c r="AY42" s="10"/>
-      <c r="AZ42" s="10"/>
-      <c r="BA42" s="10"/>
-      <c r="BB42" s="10"/>
-      <c r="BC42" s="10"/>
-      <c r="BD42" s="10"/>
-      <c r="BE42" s="10"/>
-      <c r="BF42" s="10"/>
-      <c r="BG42" s="10"/>
-      <c r="BH42" s="10"/>
-      <c r="BI42" s="10"/>
-      <c r="BJ42" s="10"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="68"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="12"/>
+      <c r="AF42" s="12"/>
+      <c r="AG42" s="12"/>
+      <c r="AH42" s="12"/>
+      <c r="AI42" s="12"/>
+      <c r="AJ42" s="12"/>
+      <c r="AK42" s="12"/>
+      <c r="AL42" s="12"/>
+      <c r="AM42" s="12"/>
+      <c r="AN42" s="12"/>
+      <c r="AO42" s="12"/>
+      <c r="AP42" s="12"/>
+      <c r="AQ42" s="12"/>
+      <c r="AR42" s="12"/>
+      <c r="AS42" s="12"/>
+      <c r="AT42" s="12"/>
+      <c r="AU42" s="12"/>
+      <c r="AV42" s="12"/>
+      <c r="AW42" s="12"/>
+      <c r="AX42" s="12"/>
+      <c r="AY42" s="12"/>
+      <c r="AZ42" s="12"/>
+      <c r="BA42" s="12"/>
+      <c r="BB42" s="12"/>
+      <c r="BC42" s="12"/>
+      <c r="BD42" s="12"/>
+      <c r="BE42" s="12"/>
+      <c r="BF42" s="12"/>
+      <c r="BG42" s="12"/>
+      <c r="BH42" s="12"/>
+      <c r="BI42" s="12"/>
+      <c r="BJ42" s="12"/>
     </row>
     <row r="43" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A43" s="26"/>
       <c r="B43" s="32"/>
-      <c r="C43" s="69" t="s">
-        <v>192</v>
-      </c>
+      <c r="C43" s="32"/>
       <c r="D43" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="E43" s="28"/>
+        <v>340</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>207</v>
+      </c>
       <c r="F43" s="29"/>
       <c r="G43" s="31"/>
       <c r="H43" s="43" t="s">
-        <v>330</v>
+        <v>127</v>
       </c>
       <c r="I43" s="44">
         <v>44046</v>
       </c>
-      <c r="J43" s="44">
-        <v>44060</v>
-      </c>
+      <c r="J43" s="44"/>
       <c r="K43" s="45"/>
       <c r="L43" s="42"/>
       <c r="M43" s="40"/>
-      <c r="N43" s="64"/>
+      <c r="N43" s="64" t="s">
+        <v>212</v>
+      </c>
       <c r="O43" s="67"/>
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
@@ -7563,11 +7535,11 @@
       <c r="A44" s="26"/>
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
-      <c r="D44" s="27" t="s">
-        <v>198</v>
+      <c r="D44" s="29" t="s">
+        <v>341</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="F44" s="29"/>
       <c r="G44" s="31"/>
@@ -7575,14 +7547,16 @@
         <v>127</v>
       </c>
       <c r="I44" s="44">
-        <v>44046</v>
+        <v>44053</v>
       </c>
       <c r="J44" s="44"/>
       <c r="K44" s="45"/>
-      <c r="L44" s="42"/>
+      <c r="L44" s="29" t="s">
+        <v>340</v>
+      </c>
       <c r="M44" s="40"/>
       <c r="N44" s="64" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="O44" s="67"/>
       <c r="P44" s="10"/>
@@ -7633,89 +7607,85 @@
       <c r="BI44" s="10"/>
       <c r="BJ44" s="10"/>
     </row>
-    <row r="45" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
+    <row r="45" spans="1:62" s="8" customFormat="1" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A45" s="26"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>245</v>
-      </c>
+      <c r="B45" s="71"/>
+      <c r="C45" s="71" t="s">
+        <v>342</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="E45" s="28"/>
       <c r="F45" s="29"/>
       <c r="G45" s="31"/>
       <c r="H45" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="I45" s="44">
-        <v>44053</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="I45" s="44"/>
       <c r="J45" s="44"/>
-      <c r="K45" s="45"/>
+      <c r="K45" s="44"/>
       <c r="L45" s="42"/>
       <c r="M45" s="40"/>
-      <c r="N45" s="64" t="s">
-        <v>207</v>
-      </c>
-      <c r="O45" s="67"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="10"/>
-      <c r="W45" s="10"/>
-      <c r="X45" s="10"/>
-      <c r="Y45" s="10"/>
-      <c r="Z45" s="10"/>
-      <c r="AA45" s="10"/>
-      <c r="AB45" s="10"/>
-      <c r="AC45" s="10"/>
-      <c r="AD45" s="10"/>
-      <c r="AE45" s="10"/>
-      <c r="AF45" s="10"/>
-      <c r="AG45" s="10"/>
-      <c r="AH45" s="10"/>
-      <c r="AI45" s="10"/>
-      <c r="AJ45" s="10"/>
-      <c r="AK45" s="10"/>
-      <c r="AL45" s="10"/>
-      <c r="AM45" s="10"/>
-      <c r="AN45" s="10"/>
-      <c r="AO45" s="10"/>
-      <c r="AP45" s="10"/>
-      <c r="AQ45" s="10"/>
-      <c r="AR45" s="10"/>
-      <c r="AS45" s="10"/>
-      <c r="AT45" s="10"/>
-      <c r="AU45" s="10"/>
-      <c r="AV45" s="10"/>
-      <c r="AW45" s="10"/>
-      <c r="AX45" s="10"/>
-      <c r="AY45" s="10"/>
-      <c r="AZ45" s="10"/>
-      <c r="BA45" s="10"/>
-      <c r="BB45" s="10"/>
-      <c r="BC45" s="10"/>
-      <c r="BD45" s="10"/>
-      <c r="BE45" s="10"/>
-      <c r="BF45" s="10"/>
-      <c r="BG45" s="10"/>
-      <c r="BH45" s="10"/>
-      <c r="BI45" s="10"/>
-      <c r="BJ45" s="10"/>
+      <c r="N45" s="64"/>
+      <c r="O45" s="68"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="12"/>
+      <c r="AD45" s="12"/>
+      <c r="AE45" s="12"/>
+      <c r="AF45" s="12"/>
+      <c r="AG45" s="12"/>
+      <c r="AH45" s="12"/>
+      <c r="AI45" s="12"/>
+      <c r="AJ45" s="12"/>
+      <c r="AK45" s="12"/>
+      <c r="AL45" s="12"/>
+      <c r="AM45" s="12"/>
+      <c r="AN45" s="12"/>
+      <c r="AO45" s="12"/>
+      <c r="AP45" s="12"/>
+      <c r="AQ45" s="12"/>
+      <c r="AR45" s="12"/>
+      <c r="AS45" s="12"/>
+      <c r="AT45" s="12"/>
+      <c r="AU45" s="12"/>
+      <c r="AV45" s="12"/>
+      <c r="AW45" s="12"/>
+      <c r="AX45" s="12"/>
+      <c r="AY45" s="12"/>
+      <c r="AZ45" s="12"/>
+      <c r="BA45" s="12"/>
+      <c r="BB45" s="12"/>
+      <c r="BC45" s="12"/>
+      <c r="BD45" s="12"/>
+      <c r="BE45" s="12"/>
+      <c r="BF45" s="12"/>
+      <c r="BG45" s="12"/>
+      <c r="BH45" s="12"/>
+      <c r="BI45" s="12"/>
+      <c r="BJ45" s="12"/>
     </row>
     <row r="46" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A46" s="26"/>
       <c r="B46" s="32"/>
       <c r="C46" s="32"/>
-      <c r="D46" s="27" t="s">
-        <v>197</v>
+      <c r="D46" s="29" t="s">
+        <v>343</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="F46" s="29"/>
       <c r="G46" s="31"/>
@@ -7723,16 +7693,14 @@
         <v>127</v>
       </c>
       <c r="I46" s="44">
-        <v>44060</v>
+        <v>44046</v>
       </c>
       <c r="J46" s="44"/>
       <c r="K46" s="45"/>
-      <c r="L46" s="42" t="s">
-        <v>188</v>
-      </c>
+      <c r="L46" s="42"/>
       <c r="M46" s="40"/>
       <c r="N46" s="64" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="O46" s="67"/>
       <c r="P46" s="10"/>
@@ -7787,26 +7755,28 @@
       <c r="A47" s="26"/>
       <c r="B47" s="32"/>
       <c r="C47" s="32"/>
-      <c r="D47" s="27" t="s">
-        <v>209</v>
+      <c r="D47" s="29" t="s">
+        <v>344</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="F47" s="29"/>
       <c r="G47" s="31"/>
       <c r="H47" s="43" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="I47" s="44">
-        <v>44046</v>
+        <v>44053</v>
       </c>
       <c r="J47" s="44"/>
       <c r="K47" s="45"/>
-      <c r="L47" s="42"/>
+      <c r="L47" s="71" t="s">
+        <v>336</v>
+      </c>
       <c r="M47" s="40"/>
       <c r="N47" s="64" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="O47" s="67"/>
       <c r="P47" s="10"/>
@@ -7861,11 +7831,11 @@
       <c r="A48" s="26"/>
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
-      <c r="D48" s="27" t="s">
-        <v>210</v>
+      <c r="D48" s="29" t="s">
+        <v>345</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>388</v>
+        <v>216</v>
       </c>
       <c r="F48" s="29"/>
       <c r="G48" s="31"/>
@@ -7873,16 +7843,16 @@
         <v>127</v>
       </c>
       <c r="I48" s="44">
-        <v>44053</v>
+        <v>44060</v>
       </c>
       <c r="J48" s="44"/>
       <c r="K48" s="45"/>
-      <c r="L48" s="42" t="s">
-        <v>190</v>
+      <c r="L48" s="71" t="s">
+        <v>339</v>
       </c>
       <c r="M48" s="40"/>
       <c r="N48" s="64" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="O48" s="67"/>
       <c r="P48" s="10"/>
@@ -7937,26 +7907,25 @@
       <c r="A49" s="26"/>
       <c r="B49" s="32"/>
       <c r="C49" s="32"/>
-      <c r="D49" s="27" t="s">
-        <v>211</v>
+      <c r="D49" s="29" t="s">
+        <v>346</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="F49" s="51"/>
+        <v>217</v>
+      </c>
+      <c r="F49" s="29"/>
       <c r="G49" s="31"/>
       <c r="H49" s="43" t="s">
         <v>127</v>
       </c>
       <c r="I49" s="44">
-        <v>44060</v>
+        <v>44046</v>
       </c>
       <c r="J49" s="44"/>
       <c r="K49" s="45"/>
-      <c r="L49" s="42"/>
       <c r="M49" s="40"/>
       <c r="N49" s="64" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="O49" s="67"/>
       <c r="P49" s="10"/>
@@ -8010,28 +7979,30 @@
     <row r="50" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A50" s="26"/>
       <c r="B50" s="32"/>
-      <c r="C50" s="69" t="s">
-        <v>216</v>
-      </c>
+      <c r="C50" s="32"/>
       <c r="D50" s="29" t="s">
-        <v>333</v>
-      </c>
-      <c r="E50" s="28"/>
-      <c r="F50" s="51"/>
+        <v>347</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F50" s="29"/>
       <c r="G50" s="31"/>
       <c r="H50" s="43" t="s">
-        <v>332</v>
+        <v>127</v>
       </c>
       <c r="I50" s="44">
-        <v>44067</v>
-      </c>
-      <c r="J50" s="44">
-        <v>44074</v>
-      </c>
+        <v>44053</v>
+      </c>
+      <c r="J50" s="44"/>
       <c r="K50" s="45"/>
-      <c r="L50" s="42"/>
+      <c r="L50" s="71" t="s">
+        <v>186</v>
+      </c>
       <c r="M50" s="40"/>
-      <c r="N50" s="64"/>
+      <c r="N50" s="64" t="s">
+        <v>195</v>
+      </c>
       <c r="O50" s="67"/>
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
@@ -8085,25 +8056,26 @@
       <c r="A51" s="26"/>
       <c r="B51" s="32"/>
       <c r="C51" s="32"/>
-      <c r="D51" s="27" t="s">
-        <v>222</v>
+      <c r="D51" s="29" t="s">
+        <v>347</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>217</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="F51" s="29"/>
       <c r="G51" s="31"/>
       <c r="H51" s="43" t="s">
         <v>127</v>
       </c>
       <c r="I51" s="44">
-        <v>44067</v>
+        <v>44060</v>
       </c>
       <c r="J51" s="44"/>
       <c r="K51" s="45"/>
       <c r="L51" s="42"/>
       <c r="M51" s="40"/>
       <c r="N51" s="64" t="s">
-        <v>265</v>
+        <v>198</v>
       </c>
       <c r="O51" s="67"/>
       <c r="P51" s="10"/>
@@ -8154,102 +8126,102 @@
       <c r="BI51" s="10"/>
       <c r="BJ51" s="10"/>
     </row>
-    <row r="52" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
+    <row r="52" spans="1:62" s="8" customFormat="1" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A52" s="26"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="E52" s="28" t="s">
-        <v>218</v>
-      </c>
+      <c r="B52" s="71"/>
+      <c r="C52" s="102" t="s">
+        <v>348</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="E52" s="28"/>
+      <c r="F52" s="29"/>
       <c r="G52" s="31"/>
       <c r="H52" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="I52" s="44">
-        <v>44067</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="I52" s="44"/>
       <c r="J52" s="44"/>
-      <c r="K52" s="45"/>
+      <c r="K52" s="44"/>
       <c r="L52" s="42"/>
       <c r="M52" s="40"/>
-      <c r="N52" s="64" t="s">
-        <v>221</v>
-      </c>
-      <c r="O52" s="67"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="10"/>
-      <c r="S52" s="10"/>
-      <c r="T52" s="10"/>
-      <c r="U52" s="10"/>
-      <c r="V52" s="10"/>
-      <c r="W52" s="10"/>
-      <c r="X52" s="10"/>
-      <c r="Y52" s="10"/>
-      <c r="Z52" s="10"/>
-      <c r="AA52" s="10"/>
-      <c r="AB52" s="10"/>
-      <c r="AC52" s="10"/>
-      <c r="AD52" s="10"/>
-      <c r="AE52" s="10"/>
-      <c r="AF52" s="10"/>
-      <c r="AG52" s="10"/>
-      <c r="AH52" s="10"/>
-      <c r="AI52" s="10"/>
-      <c r="AJ52" s="10"/>
-      <c r="AK52" s="10"/>
-      <c r="AL52" s="10"/>
-      <c r="AM52" s="10"/>
-      <c r="AN52" s="10"/>
-      <c r="AO52" s="10"/>
-      <c r="AP52" s="10"/>
-      <c r="AQ52" s="10"/>
-      <c r="AR52" s="10"/>
-      <c r="AS52" s="10"/>
-      <c r="AT52" s="10"/>
-      <c r="AU52" s="10"/>
-      <c r="AV52" s="10"/>
-      <c r="AW52" s="10"/>
-      <c r="AX52" s="10"/>
-      <c r="AY52" s="10"/>
-      <c r="AZ52" s="10"/>
-      <c r="BA52" s="10"/>
-      <c r="BB52" s="10"/>
-      <c r="BC52" s="10"/>
-      <c r="BD52" s="10"/>
-      <c r="BE52" s="10"/>
-      <c r="BF52" s="10"/>
-      <c r="BG52" s="10"/>
-      <c r="BH52" s="10"/>
-      <c r="BI52" s="10"/>
-      <c r="BJ52" s="10"/>
+      <c r="N52" s="64"/>
+      <c r="O52" s="68"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="12"/>
+      <c r="Y52" s="12"/>
+      <c r="Z52" s="12"/>
+      <c r="AA52" s="12"/>
+      <c r="AB52" s="12"/>
+      <c r="AC52" s="12"/>
+      <c r="AD52" s="12"/>
+      <c r="AE52" s="12"/>
+      <c r="AF52" s="12"/>
+      <c r="AG52" s="12"/>
+      <c r="AH52" s="12"/>
+      <c r="AI52" s="12"/>
+      <c r="AJ52" s="12"/>
+      <c r="AK52" s="12"/>
+      <c r="AL52" s="12"/>
+      <c r="AM52" s="12"/>
+      <c r="AN52" s="12"/>
+      <c r="AO52" s="12"/>
+      <c r="AP52" s="12"/>
+      <c r="AQ52" s="12"/>
+      <c r="AR52" s="12"/>
+      <c r="AS52" s="12"/>
+      <c r="AT52" s="12"/>
+      <c r="AU52" s="12"/>
+      <c r="AV52" s="12"/>
+      <c r="AW52" s="12"/>
+      <c r="AX52" s="12"/>
+      <c r="AY52" s="12"/>
+      <c r="AZ52" s="12"/>
+      <c r="BA52" s="12"/>
+      <c r="BB52" s="12"/>
+      <c r="BC52" s="12"/>
+      <c r="BD52" s="12"/>
+      <c r="BE52" s="12"/>
+      <c r="BF52" s="12"/>
+      <c r="BG52" s="12"/>
+      <c r="BH52" s="12"/>
+      <c r="BI52" s="12"/>
+      <c r="BJ52" s="12"/>
     </row>
     <row r="53" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A53" s="26"/>
       <c r="B53" s="32"/>
       <c r="C53" s="32"/>
       <c r="D53" s="27" t="s">
-        <v>261</v>
+        <v>349</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>184</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="F53" s="29"/>
       <c r="G53" s="31"/>
       <c r="H53" s="43" t="s">
         <v>127</v>
       </c>
       <c r="I53" s="44">
-        <v>44074</v>
+        <v>44067</v>
       </c>
       <c r="J53" s="44"/>
       <c r="K53" s="45"/>
-      <c r="L53" s="42"/>
+      <c r="L53" s="29" t="s">
+        <v>345</v>
+      </c>
       <c r="M53" s="40"/>
       <c r="N53" s="64" t="s">
-        <v>266</v>
+        <v>193</v>
       </c>
       <c r="O53" s="67"/>
       <c r="P53" s="10"/>
@@ -8300,25 +8272,33 @@
       <c r="BI53" s="10"/>
       <c r="BJ53" s="10"/>
     </row>
-    <row r="54" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="54" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A54" s="26"/>
-      <c r="B54" s="32">
-        <v>1.6</v>
-      </c>
-      <c r="C54" s="32" t="s">
-        <v>338</v>
-      </c>
-      <c r="D54" s="27"/>
-      <c r="E54" s="28"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="E54" s="28" t="s">
+        <v>221</v>
+      </c>
       <c r="F54" s="29"/>
       <c r="G54" s="31"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="44"/>
+      <c r="H54" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="I54" s="44">
+        <v>44067</v>
+      </c>
       <c r="J54" s="44"/>
       <c r="K54" s="45"/>
-      <c r="L54" s="42"/>
+      <c r="L54" s="29" t="s">
+        <v>347</v>
+      </c>
       <c r="M54" s="40"/>
-      <c r="N54" s="64"/>
+      <c r="N54" s="64" t="s">
+        <v>198</v>
+      </c>
       <c r="O54" s="67"/>
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
@@ -8368,15 +8348,15 @@
       <c r="BI54" s="10"/>
       <c r="BJ54" s="10"/>
     </row>
-    <row r="55" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
+    <row r="55" spans="1:62" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A55" s="26"/>
-      <c r="B55" s="32"/>
+      <c r="B55" s="32">
+        <v>1.6</v>
+      </c>
       <c r="C55" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="D55" s="29" t="s">
-        <v>387</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="D55" s="27"/>
       <c r="E55" s="28"/>
       <c r="F55" s="29"/>
       <c r="G55" s="31"/>
@@ -8439,28 +8419,28 @@
     <row r="56" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A56" s="26"/>
       <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
+      <c r="C56" s="32" t="s">
+        <v>351</v>
+      </c>
       <c r="D56" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="E56" s="28" t="s">
-        <v>336</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="E56" s="28"/>
       <c r="F56" s="29"/>
       <c r="G56" s="31"/>
       <c r="H56" s="43" t="s">
-        <v>127</v>
+        <v>278</v>
       </c>
       <c r="I56" s="44">
-        <v>44081</v>
-      </c>
-      <c r="J56" s="44"/>
+        <v>44075</v>
+      </c>
+      <c r="J56" s="44">
+        <v>44092</v>
+      </c>
       <c r="K56" s="45"/>
       <c r="L56" s="42"/>
       <c r="M56" s="40"/>
-      <c r="N56" s="64" t="s">
-        <v>240</v>
-      </c>
+      <c r="N56" s="64"/>
       <c r="O56" s="67"/>
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
@@ -8514,26 +8494,26 @@
       <c r="A57" s="26"/>
       <c r="B57" s="32"/>
       <c r="C57" s="32"/>
-      <c r="D57" s="29" t="s">
-        <v>229</v>
+      <c r="D57" s="27" t="s">
+        <v>334</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>337</v>
-      </c>
-      <c r="F57" s="29"/>
+        <v>247</v>
+      </c>
+      <c r="F57" s="70"/>
       <c r="G57" s="31"/>
       <c r="H57" s="43" t="s">
         <v>127</v>
       </c>
       <c r="I57" s="44">
-        <v>44088</v>
+        <v>44075</v>
       </c>
       <c r="J57" s="44"/>
       <c r="K57" s="45"/>
       <c r="L57" s="42"/>
       <c r="M57" s="40"/>
       <c r="N57" s="64" t="s">
-        <v>240</v>
+        <v>379</v>
       </c>
       <c r="O57" s="67"/>
       <c r="P57" s="10"/>
@@ -8587,22 +8567,28 @@
     <row r="58" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A58" s="26"/>
       <c r="B58" s="32"/>
-      <c r="C58" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="D58" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="E58" s="28"/>
-      <c r="F58" s="29"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="F58" s="70"/>
       <c r="G58" s="31"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="44"/>
+      <c r="H58" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="I58" s="44">
+        <v>44081</v>
+      </c>
       <c r="J58" s="44"/>
       <c r="K58" s="45"/>
       <c r="L58" s="42"/>
       <c r="M58" s="40"/>
-      <c r="N58" s="64"/>
+      <c r="N58" s="64" t="s">
+        <v>378</v>
+      </c>
       <c r="O58" s="67"/>
       <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
@@ -8656,11 +8642,11 @@
       <c r="A59" s="26"/>
       <c r="B59" s="32"/>
       <c r="C59" s="32"/>
-      <c r="D59" s="29" t="s">
-        <v>228</v>
+      <c r="D59" s="27" t="s">
+        <v>352</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="F59" s="29"/>
       <c r="G59" s="31"/>
@@ -8668,14 +8654,14 @@
         <v>127</v>
       </c>
       <c r="I59" s="44">
-        <v>44081</v>
+        <v>44088</v>
       </c>
       <c r="J59" s="44"/>
       <c r="K59" s="45"/>
       <c r="L59" s="42"/>
       <c r="M59" s="40"/>
       <c r="N59" s="64" t="s">
-        <v>241</v>
+        <v>378</v>
       </c>
       <c r="O59" s="67"/>
       <c r="P59" s="10"/>
@@ -8729,28 +8715,28 @@
     <row r="60" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A60" s="26"/>
       <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
+      <c r="C60" s="69" t="s">
+        <v>353</v>
+      </c>
       <c r="D60" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="E60" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="F60" s="29"/>
+        <v>374</v>
+      </c>
+      <c r="E60" s="28"/>
+      <c r="F60" s="51"/>
       <c r="G60" s="31"/>
       <c r="H60" s="43" t="s">
-        <v>127</v>
+        <v>278</v>
       </c>
       <c r="I60" s="44">
-        <v>44088</v>
-      </c>
-      <c r="J60" s="44"/>
+        <v>44075</v>
+      </c>
+      <c r="J60" s="44">
+        <v>44092</v>
+      </c>
       <c r="K60" s="45"/>
       <c r="L60" s="42"/>
       <c r="M60" s="40"/>
-      <c r="N60" s="64" t="s">
-        <v>241</v>
-      </c>
+      <c r="N60" s="64"/>
       <c r="O60" s="67"/>
       <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
@@ -8803,22 +8789,28 @@
     <row r="61" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A61" s="26"/>
       <c r="B61" s="32"/>
-      <c r="C61" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="D61" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="E61" s="28"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>375</v>
+      </c>
       <c r="F61" s="29"/>
       <c r="G61" s="31"/>
-      <c r="H61" s="43"/>
-      <c r="I61" s="44"/>
+      <c r="H61" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="I61" s="44">
+        <v>44075</v>
+      </c>
       <c r="J61" s="44"/>
       <c r="K61" s="45"/>
       <c r="L61" s="42"/>
       <c r="M61" s="40"/>
-      <c r="N61" s="64"/>
+      <c r="N61" s="64" t="s">
+        <v>192</v>
+      </c>
       <c r="O61" s="67"/>
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
@@ -8872,11 +8864,11 @@
       <c r="A62" s="26"/>
       <c r="B62" s="32"/>
       <c r="C62" s="32"/>
-      <c r="D62" s="29" t="s">
-        <v>235</v>
+      <c r="D62" s="27" t="s">
+        <v>355</v>
       </c>
       <c r="E62" s="28" t="s">
-        <v>237</v>
+        <v>376</v>
       </c>
       <c r="F62" s="29"/>
       <c r="G62" s="31"/>
@@ -8891,7 +8883,7 @@
       <c r="L62" s="42"/>
       <c r="M62" s="40"/>
       <c r="N62" s="64" t="s">
-        <v>242</v>
+        <v>192</v>
       </c>
       <c r="O62" s="67"/>
       <c r="P62" s="10"/>
@@ -8946,11 +8938,11 @@
       <c r="A63" s="26"/>
       <c r="B63" s="32"/>
       <c r="C63" s="32"/>
-      <c r="D63" s="29" t="s">
-        <v>236</v>
+      <c r="D63" s="27" t="s">
+        <v>356</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>238</v>
+        <v>377</v>
       </c>
       <c r="F63" s="29"/>
       <c r="G63" s="31"/>
@@ -8965,7 +8957,7 @@
       <c r="L63" s="42"/>
       <c r="M63" s="40"/>
       <c r="N63" s="64" t="s">
-        <v>242</v>
+        <v>192</v>
       </c>
       <c r="O63" s="67"/>
       <c r="P63" s="10"/>
@@ -9019,18 +9011,24 @@
     <row r="64" spans="1:62" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A64" s="26"/>
       <c r="B64" s="32"/>
-      <c r="C64" s="32" t="s">
-        <v>243</v>
+      <c r="C64" s="69" t="s">
+        <v>357</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>244</v>
+        <v>191</v>
       </c>
       <c r="E64" s="28"/>
       <c r="F64" s="29"/>
       <c r="G64" s="31"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="44"/>
-      <c r="J64" s="44"/>
+      <c r="H64" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="I64" s="44">
+        <v>44075</v>
+      </c>
+      <c r="J64" s="44">
+        <v>44092</v>
+      </c>
       <c r="K64" s="45"/>
       <c r="L64" s="42"/>
       <c r="M64" s="40"/>
@@ -9088,11 +9086,11 @@
       <c r="A65" s="26"/>
       <c r="B65" s="32"/>
       <c r="C65" s="32"/>
-      <c r="D65" s="29" t="s">
-        <v>247</v>
+      <c r="D65" s="27" t="s">
+        <v>358</v>
       </c>
       <c r="E65" s="28" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="F65" s="29"/>
       <c r="G65" s="31"/>
@@ -9100,14 +9098,14 @@
         <v>127</v>
       </c>
       <c r="I65" s="44">
-        <v>44081</v>
+        <v>44075</v>
       </c>
       <c r="J65" s="44"/>
       <c r="K65" s="45"/>
       <c r="L65" s="42"/>
       <c r="M65" s="40"/>
       <c r="N65" s="64" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="O65" s="67"/>
       <c r="P65" s="10"/>
@@ -9162,26 +9160,26 @@
       <c r="A66" s="26"/>
       <c r="B66" s="32"/>
       <c r="C66" s="32"/>
-      <c r="D66" s="29" t="s">
-        <v>248</v>
+      <c r="D66" s="27" t="s">
+        <v>359</v>
       </c>
       <c r="E66" s="28" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="F66" s="29"/>
       <c r="G66" s="31"/>
       <c r="H66" s="43" t="s">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c r="I66" s="44">
-        <v>44088</v>
+        <v>44081</v>
       </c>
       <c r="J66" s="44"/>
       <c r="K66" s="45"/>
       <c r="L66" s="42"/>
       <c r="M66" s="40"/>
       <c r="N66" s="64" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="O66" s="67"/>
       <c r="P66" s="10"/>
@@ -9236,11 +9234,11 @@
       <c r="A67" s="26"/>
       <c r="B67" s="32"/>
       <c r="C67" s="32"/>
-      <c r="D67" s="29" t="s">
-        <v>250</v>
+      <c r="D67" s="27" t="s">
+        <v>360</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>251</v>
+        <v>187</v>
       </c>
       <c r="F67" s="29"/>
       <c r="G67" s="31"/>
@@ -9248,14 +9246,16 @@
         <v>127</v>
       </c>
       <c r="I67" s="44">
-        <v>44095</v>
+        <v>44088</v>
       </c>
       <c r="J67" s="44"/>
       <c r="K67" s="45"/>
-      <c r="L67" s="42"/>
+      <c r="L67" s="42" t="s">
+        <v>351</v>
+      </c>
       <c r="M67" s="40"/>
       <c r="N67" s="64" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="O67" s="67"/>
       <c r="P67" s="10"/>
@@ -9310,11 +9310,11 @@
       <c r="A68" s="26"/>
       <c r="B68" s="32"/>
       <c r="C68" s="32"/>
-      <c r="D68" s="29" t="s">
-        <v>252</v>
+      <c r="D68" s="27" t="s">
+        <v>361</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>253</v>
+        <v>190</v>
       </c>
       <c r="F68" s="29"/>
       <c r="G68" s="31"/>
@@ -9322,14 +9322,14 @@
         <v>127</v>
       </c>
       <c r="I68" s="44">
-        <v>44081</v>
+        <v>44075</v>
       </c>
       <c r="J68" s="44"/>
       <c r="K68" s="45"/>
       <c r="L68" s="42"/>
       <c r="M68" s="40"/>
       <c r="N68" s="64" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="O68" s="67"/>
       <c r="P68" s="10"/>
@@ -9384,11 +9384,11 @@
       <c r="A69" s="26"/>
       <c r="B69" s="32"/>
       <c r="C69" s="32"/>
-      <c r="D69" s="29" t="s">
-        <v>254</v>
+      <c r="D69" s="27" t="s">
+        <v>362</v>
       </c>
       <c r="E69" s="28" t="s">
-        <v>255</v>
+        <v>330</v>
       </c>
       <c r="F69" s="29"/>
       <c r="G69" s="31"/>
@@ -9396,14 +9396,16 @@
         <v>127</v>
       </c>
       <c r="I69" s="44">
-        <v>44088</v>
+        <v>44081</v>
       </c>
       <c r="J69" s="44"/>
       <c r="K69" s="45"/>
-      <c r="L69" s="42"/>
+      <c r="L69" s="42" t="s">
+        <v>353</v>
+      </c>
       <c r="M69" s="40"/>
       <c r="N69" s="64" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="O69" s="67"/>
       <c r="P69" s="10"/>
@@ -9458,26 +9460,26 @@
       <c r="A70" s="26"/>
       <c r="B70" s="32"/>
       <c r="C70" s="32"/>
-      <c r="D70" s="29" t="s">
-        <v>256</v>
+      <c r="D70" s="27" t="s">
+        <v>362</v>
       </c>
       <c r="E70" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="F70" s="29"/>
+        <v>196</v>
+      </c>
+      <c r="F70" s="51"/>
       <c r="G70" s="31"/>
       <c r="H70" s="43" t="s">
         <v>127</v>
       </c>
       <c r="I70" s="44">
-        <v>44095</v>
+        <v>44088</v>
       </c>
       <c r="J70" s="44"/>
       <c r="K70" s="45"/>
       <c r="L70" s="42"/>
       <c r="M70" s="40"/>
       <c r="N70" s="64" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="O70" s="67"/>
       <c r="P70" s="10"/>
@@ -9532,17 +9534,23 @@
       <c r="A71" s="26"/>
       <c r="B71" s="32"/>
       <c r="C71" s="69" t="s">
-        <v>258</v>
+        <v>363</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="E71" s="28"/>
-      <c r="F71" s="29"/>
+      <c r="F71" s="51"/>
       <c r="G71" s="31"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="44"/>
+      <c r="H71" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="I71" s="44">
+        <v>44095</v>
+      </c>
+      <c r="J71" s="44">
+        <v>44104</v>
+      </c>
       <c r="K71" s="45"/>
       <c r="L71" s="42"/>
       <c r="M71" s="40"/>
@@ -9601,25 +9609,24 @@
       <c r="B72" s="32"/>
       <c r="C72" s="32"/>
       <c r="D72" s="27" t="s">
-        <v>259</v>
+        <v>364</v>
       </c>
       <c r="E72" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="F72" s="29"/>
+        <v>199</v>
+      </c>
       <c r="G72" s="31"/>
       <c r="H72" s="43" t="s">
         <v>127</v>
       </c>
       <c r="I72" s="44">
-        <v>44102</v>
+        <v>44095</v>
       </c>
       <c r="J72" s="44"/>
       <c r="K72" s="45"/>
       <c r="L72" s="42"/>
       <c r="M72" s="40"/>
       <c r="N72" s="64" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="O72" s="67"/>
       <c r="P72" s="10"/>
@@ -9675,25 +9682,24 @@
       <c r="B73" s="32"/>
       <c r="C73" s="32"/>
       <c r="D73" s="27" t="s">
-        <v>260</v>
+        <v>365</v>
       </c>
       <c r="E73" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="F73" s="29"/>
+        <v>200</v>
+      </c>
       <c r="G73" s="31"/>
       <c r="H73" s="43" t="s">
         <v>127</v>
       </c>
       <c r="I73" s="44">
-        <v>44102</v>
+        <v>44095</v>
       </c>
       <c r="J73" s="44"/>
       <c r="K73" s="45"/>
       <c r="L73" s="42"/>
       <c r="M73" s="40"/>
       <c r="N73" s="64" t="s">
-        <v>214</v>
+        <v>331</v>
       </c>
       <c r="O73" s="67"/>
       <c r="P73" s="10"/>
@@ -9749,25 +9755,24 @@
       <c r="B74" s="32"/>
       <c r="C74" s="32"/>
       <c r="D74" s="27" t="s">
-        <v>262</v>
+        <v>366</v>
       </c>
       <c r="E74" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="F74" s="29"/>
       <c r="G74" s="31"/>
       <c r="H74" s="43" t="s">
-        <v>127</v>
+        <v>332</v>
       </c>
       <c r="I74" s="44">
-        <v>44109</v>
+        <v>44102</v>
       </c>
       <c r="J74" s="44"/>
       <c r="K74" s="45"/>
       <c r="L74" s="42"/>
       <c r="M74" s="40"/>
       <c r="N74" s="64" t="s">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="O74" s="67"/>
       <c r="P74" s="10"/>
@@ -9887,7 +9892,7 @@
         <v>2</v>
       </c>
       <c r="B76" s="74" t="s">
-        <v>294</v>
+        <v>250</v>
       </c>
       <c r="C76" s="74"/>
       <c r="D76" s="29"/>
@@ -9956,7 +9961,7 @@
         <v>2.1</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>295</v>
+        <v>251</v>
       </c>
       <c r="D77" s="29"/>
       <c r="E77" s="28"/>
@@ -10022,16 +10027,16 @@
       <c r="A78" s="15"/>
       <c r="B78" s="71"/>
       <c r="C78" s="32" t="s">
-        <v>296</v>
+        <v>252</v>
       </c>
       <c r="D78" s="29" t="s">
-        <v>297</v>
+        <v>253</v>
       </c>
       <c r="E78" s="28"/>
       <c r="F78" s="29"/>
       <c r="G78" s="31"/>
       <c r="H78" s="43" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="I78" s="44">
         <v>44109</v>
@@ -10094,16 +10099,16 @@
       <c r="A79" s="15"/>
       <c r="B79" s="71"/>
       <c r="C79" s="32" t="s">
-        <v>298</v>
+        <v>254</v>
       </c>
       <c r="D79" s="29" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="E79" s="28"/>
       <c r="F79" s="29"/>
       <c r="G79" s="31"/>
       <c r="H79" s="43" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="I79" s="44">
         <v>44116</v>
@@ -10166,16 +10171,16 @@
       <c r="A80" s="15"/>
       <c r="B80" s="71"/>
       <c r="C80" s="32" t="s">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="E80" s="28"/>
       <c r="F80" s="29"/>
       <c r="G80" s="31"/>
       <c r="H80" s="43" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="I80" s="44">
         <v>44123</v>
@@ -10238,16 +10243,16 @@
       <c r="A81" s="15"/>
       <c r="B81" s="71"/>
       <c r="C81" s="32" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>303</v>
+        <v>259</v>
       </c>
       <c r="E81" s="28"/>
       <c r="F81" s="29"/>
       <c r="G81" s="31"/>
       <c r="H81" s="43" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="I81" s="44">
         <v>44130</v>
@@ -10312,7 +10317,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>305</v>
+        <v>261</v>
       </c>
       <c r="D82" s="29"/>
       <c r="E82" s="28"/>
@@ -10378,16 +10383,16 @@
       <c r="A83" s="15"/>
       <c r="B83" s="71"/>
       <c r="C83" s="32" t="s">
-        <v>306</v>
+        <v>262</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>308</v>
+        <v>264</v>
       </c>
       <c r="E83" s="28"/>
       <c r="F83" s="29"/>
       <c r="G83" s="31"/>
       <c r="H83" s="43" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="I83" s="44">
         <v>44123</v>
@@ -10450,16 +10455,16 @@
       <c r="A84" s="15"/>
       <c r="B84" s="71"/>
       <c r="C84" s="32" t="s">
-        <v>307</v>
+        <v>263</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="E84" s="28"/>
       <c r="F84" s="29"/>
       <c r="G84" s="31"/>
       <c r="H84" s="43" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="I84" s="44">
         <v>44123</v>
@@ -10522,16 +10527,16 @@
       <c r="A85" s="15"/>
       <c r="B85" s="71"/>
       <c r="C85" s="32" t="s">
-        <v>310</v>
+        <v>266</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="E85" s="28"/>
       <c r="F85" s="29"/>
       <c r="G85" s="31"/>
       <c r="H85" s="43" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="I85" s="44">
         <v>44123</v>
@@ -10594,16 +10599,16 @@
       <c r="A86" s="15"/>
       <c r="B86" s="71"/>
       <c r="C86" s="32" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="E86" s="28"/>
       <c r="F86" s="29"/>
       <c r="G86" s="31"/>
       <c r="H86" s="43" t="s">
-        <v>321</v>
+        <v>277</v>
       </c>
       <c r="I86" s="44">
         <v>44123</v>
@@ -10668,7 +10673,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C87" s="75" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="D87" s="51"/>
       <c r="E87" s="28"/>
@@ -10734,16 +10739,16 @@
       <c r="A88" s="15"/>
       <c r="B88" s="76"/>
       <c r="C88" s="77" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="D88" s="78" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="E88" s="28"/>
       <c r="F88" s="29"/>
       <c r="G88" s="31"/>
       <c r="H88" s="43" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="I88" s="44">
         <v>44137</v>
@@ -10806,16 +10811,16 @@
       <c r="A89" s="15"/>
       <c r="B89" s="76"/>
       <c r="C89" s="32" t="s">
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="D89" s="32" t="s">
-        <v>319</v>
+        <v>275</v>
       </c>
       <c r="E89" s="28"/>
       <c r="F89" s="29"/>
       <c r="G89" s="31"/>
       <c r="H89" s="43" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="I89" s="44">
         <v>44144</v>
@@ -10878,16 +10883,16 @@
       <c r="A90" s="15"/>
       <c r="B90" s="76"/>
       <c r="C90" s="77" t="s">
-        <v>318</v>
+        <v>274</v>
       </c>
       <c r="D90" s="78" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
       <c r="E90" s="28"/>
       <c r="F90" s="29"/>
       <c r="G90" s="31"/>
       <c r="H90" s="43" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="I90" s="44">
         <v>44151</v>
@@ -10950,16 +10955,16 @@
       <c r="A91" s="15"/>
       <c r="B91" s="32"/>
       <c r="C91" s="75" t="s">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="D91" s="79" t="s">
-        <v>363</v>
+        <v>306</v>
       </c>
       <c r="E91" s="28"/>
       <c r="F91" s="29"/>
       <c r="G91" s="31"/>
       <c r="H91" s="43" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="I91" s="44">
         <v>44158</v>
@@ -11087,7 +11092,7 @@
         <v>3</v>
       </c>
       <c r="B93" s="74" t="s">
-        <v>334</v>
+        <v>280</v>
       </c>
       <c r="C93" s="32"/>
       <c r="D93" s="29"/>
@@ -11156,7 +11161,7 @@
         <v>3.1</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>355</v>
+        <v>298</v>
       </c>
       <c r="D94" s="29"/>
       <c r="E94" s="28"/>
@@ -11222,16 +11227,16 @@
       <c r="A95" s="26"/>
       <c r="B95" s="32"/>
       <c r="C95" s="32" t="s">
-        <v>335</v>
+        <v>281</v>
       </c>
       <c r="D95" s="29" t="s">
-        <v>339</v>
+        <v>282</v>
       </c>
       <c r="E95" s="28"/>
       <c r="F95" s="29"/>
       <c r="G95" s="31"/>
       <c r="H95" s="43" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="I95" s="44">
         <v>44166</v>
@@ -11294,16 +11299,16 @@
       <c r="A96" s="26"/>
       <c r="B96" s="32"/>
       <c r="C96" s="32" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="D96" s="29" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="E96" s="28"/>
       <c r="F96" s="29"/>
       <c r="G96" s="31"/>
       <c r="H96" s="43" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="I96" s="44">
         <v>44172</v>
@@ -11366,16 +11371,16 @@
       <c r="A97" s="26"/>
       <c r="B97" s="32"/>
       <c r="C97" s="32" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="D97" s="29" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="E97" s="28"/>
       <c r="F97" s="29"/>
       <c r="G97" s="31"/>
       <c r="H97" s="43" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="I97" s="44">
         <v>44179</v>
@@ -11438,16 +11443,16 @@
       <c r="A98" s="26"/>
       <c r="B98" s="32"/>
       <c r="C98" s="32" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="D98" s="29" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="E98" s="28"/>
       <c r="F98" s="29"/>
       <c r="G98" s="31"/>
       <c r="H98" s="43" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="I98" s="44">
         <v>44186</v>
@@ -11512,7 +11517,7 @@
         <v>3.2</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="D99" s="29"/>
       <c r="E99" s="28"/>
@@ -11578,16 +11583,16 @@
       <c r="A100" s="26"/>
       <c r="B100" s="32"/>
       <c r="C100" s="32" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="D100" s="29" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="E100" s="28"/>
       <c r="F100" s="29"/>
       <c r="G100" s="31"/>
       <c r="H100" s="43" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="I100" s="44">
         <v>44179</v>
@@ -11650,16 +11655,16 @@
       <c r="A101" s="26"/>
       <c r="B101" s="32"/>
       <c r="C101" s="32" t="s">
-        <v>348</v>
+        <v>291</v>
       </c>
       <c r="D101" s="29" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
       <c r="E101" s="28"/>
       <c r="F101" s="29"/>
       <c r="G101" s="31"/>
       <c r="H101" s="43" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="I101" s="44">
         <v>44179</v>
@@ -11722,16 +11727,16 @@
       <c r="A102" s="26"/>
       <c r="B102" s="32"/>
       <c r="C102" s="32" t="s">
-        <v>350</v>
+        <v>293</v>
       </c>
       <c r="D102" s="29" t="s">
-        <v>352</v>
+        <v>295</v>
       </c>
       <c r="E102" s="28"/>
       <c r="F102" s="29"/>
       <c r="G102" s="31"/>
       <c r="H102" s="43" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="I102" s="44">
         <v>44179</v>
@@ -11794,16 +11799,16 @@
       <c r="A103" s="26"/>
       <c r="B103" s="32"/>
       <c r="C103" s="32" t="s">
-        <v>351</v>
+        <v>294</v>
       </c>
       <c r="D103" s="29" t="s">
-        <v>353</v>
+        <v>296</v>
       </c>
       <c r="E103" s="28"/>
       <c r="F103" s="29"/>
       <c r="G103" s="31"/>
       <c r="H103" s="43" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="I103" s="44">
         <v>44179</v>
@@ -11866,16 +11871,16 @@
       <c r="A104" s="26"/>
       <c r="B104" s="32"/>
       <c r="C104" s="32" t="s">
-        <v>351</v>
+        <v>294</v>
       </c>
       <c r="D104" s="29" t="s">
-        <v>354</v>
+        <v>297</v>
       </c>
       <c r="E104" s="28"/>
       <c r="F104" s="29"/>
       <c r="G104" s="31"/>
       <c r="H104" s="43" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="I104" s="44">
         <v>44179</v>
@@ -11940,7 +11945,7 @@
         <v>3.3</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>356</v>
+        <v>299</v>
       </c>
       <c r="D105" s="29"/>
       <c r="E105" s="28"/>
@@ -12006,16 +12011,16 @@
       <c r="A106" s="26"/>
       <c r="B106" s="32"/>
       <c r="C106" s="77" t="s">
-        <v>357</v>
+        <v>300</v>
       </c>
       <c r="D106" s="78" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="E106" s="28"/>
       <c r="F106" s="29"/>
       <c r="G106" s="31"/>
       <c r="H106" s="43" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="I106" s="44">
         <v>44193</v>
@@ -12078,16 +12083,16 @@
       <c r="A107" s="26"/>
       <c r="B107" s="32"/>
       <c r="C107" s="32" t="s">
-        <v>358</v>
+        <v>301</v>
       </c>
       <c r="D107" s="32" t="s">
-        <v>361</v>
+        <v>304</v>
       </c>
       <c r="E107" s="28"/>
       <c r="F107" s="29"/>
       <c r="G107" s="31"/>
       <c r="H107" s="43" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="I107" s="44">
         <v>44200</v>
@@ -12150,16 +12155,16 @@
       <c r="A108" s="26"/>
       <c r="B108" s="32"/>
       <c r="C108" s="77" t="s">
-        <v>359</v>
+        <v>302</v>
       </c>
       <c r="D108" s="78" t="s">
-        <v>364</v>
+        <v>307</v>
       </c>
       <c r="E108" s="28"/>
       <c r="F108" s="29"/>
       <c r="G108" s="31"/>
       <c r="H108" s="43" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="I108" s="44">
         <v>44207</v>
@@ -12222,16 +12227,16 @@
       <c r="A109" s="26"/>
       <c r="B109" s="32"/>
       <c r="C109" s="75" t="s">
-        <v>360</v>
+        <v>303</v>
       </c>
       <c r="D109" s="79" t="s">
-        <v>365</v>
+        <v>308</v>
       </c>
       <c r="E109" s="28"/>
       <c r="F109" s="29"/>
       <c r="G109" s="31"/>
       <c r="H109" s="43" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="I109" s="44">
         <v>44214</v>
@@ -12359,7 +12364,7 @@
         <v>4</v>
       </c>
       <c r="B111" s="74" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
       <c r="C111" s="32"/>
       <c r="D111" s="29"/>
@@ -12428,7 +12433,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>366</v>
+        <v>309</v>
       </c>
       <c r="D112" s="29"/>
       <c r="E112" s="28"/>
@@ -12493,16 +12498,16 @@
       <c r="A113" s="13"/>
       <c r="B113" s="71"/>
       <c r="C113" s="32" t="s">
-        <v>367</v>
+        <v>310</v>
       </c>
       <c r="D113" s="29" t="s">
-        <v>369</v>
+        <v>312</v>
       </c>
       <c r="E113" s="28"/>
       <c r="F113" s="29"/>
       <c r="G113" s="31"/>
       <c r="H113" s="43" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="I113" s="44">
         <v>44221</v>
@@ -12565,16 +12570,16 @@
       <c r="A114" s="13"/>
       <c r="B114" s="71"/>
       <c r="C114" s="32" t="s">
-        <v>368</v>
+        <v>311</v>
       </c>
       <c r="D114" s="29" t="s">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="E114" s="28"/>
       <c r="F114" s="29"/>
       <c r="G114" s="31"/>
       <c r="H114" s="43" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="I114" s="44">
         <v>44228</v>
@@ -12637,16 +12642,16 @@
       <c r="A115" s="13"/>
       <c r="B115" s="74"/>
       <c r="C115" s="32" t="s">
-        <v>370</v>
+        <v>313</v>
       </c>
       <c r="D115" s="29" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="E115" s="28"/>
       <c r="F115" s="29"/>
       <c r="G115" s="31"/>
       <c r="H115" s="43" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="I115" s="44">
         <v>44249</v>
@@ -12709,16 +12714,16 @@
       <c r="A116" s="13"/>
       <c r="B116" s="74"/>
       <c r="C116" s="32" t="s">
-        <v>373</v>
+        <v>316</v>
       </c>
       <c r="D116" s="29" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
       <c r="E116" s="28"/>
       <c r="F116" s="29"/>
       <c r="G116" s="31"/>
       <c r="H116" s="43" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="I116" s="44">
         <v>44256</v>
@@ -12783,7 +12788,7 @@
         <v>4.2</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="D117" s="29"/>
       <c r="E117" s="28"/>
@@ -12849,16 +12854,16 @@
       <c r="A118" s="26"/>
       <c r="B118" s="32"/>
       <c r="C118" s="32" t="s">
-        <v>376</v>
+        <v>319</v>
       </c>
       <c r="D118" s="29" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="E118" s="28"/>
       <c r="F118" s="29"/>
       <c r="G118" s="31"/>
       <c r="H118" s="43" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="I118" s="44">
         <v>44263</v>
@@ -12921,16 +12926,16 @@
       <c r="A119" s="26"/>
       <c r="B119" s="32"/>
       <c r="C119" s="32" t="s">
-        <v>377</v>
+        <v>320</v>
       </c>
       <c r="D119" s="29" t="s">
-        <v>378</v>
+        <v>321</v>
       </c>
       <c r="E119" s="28"/>
       <c r="F119" s="29"/>
       <c r="G119" s="31"/>
       <c r="H119" s="43" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="I119" s="44">
         <v>44270</v>
@@ -12993,16 +12998,16 @@
       <c r="A120" s="26"/>
       <c r="B120" s="32"/>
       <c r="C120" s="32" t="s">
-        <v>379</v>
+        <v>322</v>
       </c>
       <c r="D120" s="29" t="s">
-        <v>381</v>
+        <v>324</v>
       </c>
       <c r="E120" s="28"/>
       <c r="F120" s="29"/>
       <c r="G120" s="31"/>
       <c r="H120" s="43" t="s">
-        <v>321</v>
+        <v>277</v>
       </c>
       <c r="I120" s="44">
         <v>44277</v>
@@ -13065,16 +13070,16 @@
       <c r="A121" s="26"/>
       <c r="B121" s="32"/>
       <c r="C121" s="32" t="s">
-        <v>380</v>
+        <v>323</v>
       </c>
       <c r="D121" s="29" t="s">
-        <v>382</v>
+        <v>325</v>
       </c>
       <c r="E121" s="28"/>
       <c r="F121" s="29"/>
       <c r="G121" s="31"/>
       <c r="H121" s="43" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="I121" s="44">
         <v>44284</v>
@@ -13202,7 +13207,7 @@
         <v>5</v>
       </c>
       <c r="B123" s="74" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="C123" s="32"/>
       <c r="D123" s="29"/>
@@ -13402,7 +13407,7 @@
         <v>6</v>
       </c>
       <c r="B126" s="74" t="s">
-        <v>386</v>
+        <v>329</v>
       </c>
       <c r="C126" s="32"/>
       <c r="D126" s="29"/>
@@ -20439,6 +20444,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="BC2:BL2"/>
+    <mergeCell ref="BH3:BL3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="AI3:AM3"/>
+    <mergeCell ref="AN3:AR3"/>
+    <mergeCell ref="AS3:AW3"/>
+    <mergeCell ref="AI2:BB2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="O2:AH2"/>
     <mergeCell ref="A3:G4"/>
@@ -20455,17 +20471,6 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="BC2:BL2"/>
-    <mergeCell ref="BH3:BL3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="AI3:AM3"/>
-    <mergeCell ref="AN3:AR3"/>
-    <mergeCell ref="AS3:AW3"/>
-    <mergeCell ref="AI2:BB2"/>
-    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200702.xlsx
+++ b/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200702.xlsx
@@ -2004,8 +2004,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2013,8 +2022,20 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2035,12 +2056,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2049,29 +2064,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2574,7 +2574,7 @@
         <xdr:cNvPr id="23" name="直接连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2625,7 +2625,7 @@
         <xdr:cNvPr id="30" name="直接连接符 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2684,7 +2684,7 @@
         <xdr:cNvPr id="32" name="直接连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2743,7 +2743,7 @@
         <xdr:cNvPr id="33" name="直接连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2802,7 +2802,7 @@
         <xdr:cNvPr id="35" name="直接连接符 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2861,7 +2861,7 @@
         <xdr:cNvPr id="36" name="直接连接符 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2912,7 +2912,7 @@
         <xdr:cNvPr id="40" name="直接连接符 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2971,7 +2971,7 @@
         <xdr:cNvPr id="42" name="直接连接符 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3030,7 +3030,7 @@
         <xdr:cNvPr id="43" name="直接连接符 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3081,7 +3081,7 @@
         <xdr:cNvPr id="45" name="直接连接符 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3140,7 +3140,7 @@
         <xdr:cNvPr id="47" name="直接连接符 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3199,7 +3199,7 @@
         <xdr:cNvPr id="49" name="直接连接符 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3250,7 +3250,7 @@
         <xdr:cNvPr id="52" name="直接连接符 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3309,7 +3309,7 @@
         <xdr:cNvPr id="53" name="直接连接符 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3368,7 +3368,7 @@
         <xdr:cNvPr id="55" name="直接连接符 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3427,7 +3427,7 @@
         <xdr:cNvPr id="58" name="直接连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3486,7 +3486,7 @@
         <xdr:cNvPr id="59" name="直接连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3545,7 +3545,7 @@
         <xdr:cNvPr id="61" name="直接连接符 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3596,7 +3596,7 @@
         <xdr:cNvPr id="63" name="直接连接符 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3647,7 +3647,7 @@
         <xdr:cNvPr id="34" name="直接连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3698,7 +3698,7 @@
         <xdr:cNvPr id="37" name="直接连接符 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3757,7 +3757,7 @@
         <xdr:cNvPr id="38" name="直接连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4117,7 +4117,7 @@
   <dimension ref="A1:BL235"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="4" topLeftCell="O48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="L56" sqref="L56"/>
@@ -4143,215 +4143,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="36.75" customHeight="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="90" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
       <c r="N1" s="72"/>
     </row>
     <row r="2" spans="1:64" ht="17.25" customHeight="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="102" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="101">
+      <c r="B2" s="102"/>
+      <c r="C2" s="89">
         <f ca="1">TODAY()</f>
         <v>44034</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="K2" s="100" t="s">
+      <c r="D2" s="89"/>
+      <c r="K2" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="L2" s="100"/>
-      <c r="M2" s="101">
+      <c r="L2" s="102"/>
+      <c r="M2" s="89">
         <v>43992</v>
       </c>
-      <c r="N2" s="101"/>
-      <c r="O2" s="81">
+      <c r="N2" s="89"/>
+      <c r="O2" s="84">
         <v>43983</v>
       </c>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="82"/>
-      <c r="AG2" s="82"/>
-      <c r="AH2" s="83"/>
-      <c r="AI2" s="81">
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85"/>
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="84">
         <v>44013</v>
       </c>
-      <c r="AJ2" s="82"/>
-      <c r="AK2" s="82"/>
-      <c r="AL2" s="82"/>
-      <c r="AM2" s="82"/>
-      <c r="AN2" s="82"/>
-      <c r="AO2" s="82"/>
-      <c r="AP2" s="82"/>
-      <c r="AQ2" s="82"/>
-      <c r="AR2" s="82"/>
-      <c r="AS2" s="82"/>
-      <c r="AT2" s="82"/>
-      <c r="AU2" s="82"/>
-      <c r="AV2" s="82"/>
-      <c r="AW2" s="82"/>
-      <c r="AX2" s="82"/>
-      <c r="AY2" s="82"/>
-      <c r="AZ2" s="82"/>
-      <c r="BA2" s="82"/>
-      <c r="BB2" s="83"/>
-      <c r="BC2" s="81">
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="85"/>
+      <c r="AM2" s="85"/>
+      <c r="AN2" s="85"/>
+      <c r="AO2" s="85"/>
+      <c r="AP2" s="85"/>
+      <c r="AQ2" s="85"/>
+      <c r="AR2" s="85"/>
+      <c r="AS2" s="85"/>
+      <c r="AT2" s="85"/>
+      <c r="AU2" s="85"/>
+      <c r="AV2" s="85"/>
+      <c r="AW2" s="85"/>
+      <c r="AX2" s="85"/>
+      <c r="AY2" s="85"/>
+      <c r="AZ2" s="85"/>
+      <c r="BA2" s="85"/>
+      <c r="BB2" s="88"/>
+      <c r="BC2" s="84">
         <v>44044</v>
       </c>
-      <c r="BD2" s="82"/>
-      <c r="BE2" s="82"/>
-      <c r="BF2" s="82"/>
-      <c r="BG2" s="82"/>
-      <c r="BH2" s="82"/>
-      <c r="BI2" s="82"/>
-      <c r="BJ2" s="82"/>
-      <c r="BK2" s="82"/>
-      <c r="BL2" s="82"/>
+      <c r="BD2" s="85"/>
+      <c r="BE2" s="85"/>
+      <c r="BF2" s="85"/>
+      <c r="BG2" s="85"/>
+      <c r="BH2" s="85"/>
+      <c r="BI2" s="85"/>
+      <c r="BJ2" s="85"/>
+      <c r="BK2" s="85"/>
+      <c r="BL2" s="85"/>
     </row>
     <row r="3" spans="1:64">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93" t="s">
         <v>119</v>
       </c>
-      <c r="I3" s="90" t="s">
+      <c r="I3" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="90" t="s">
+      <c r="J3" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="K3" s="90" t="s">
+      <c r="K3" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="92" t="s">
+      <c r="L3" s="97" t="s">
         <v>120</v>
       </c>
-      <c r="M3" s="90" t="s">
+      <c r="M3" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="N3" s="90" t="s">
+      <c r="N3" s="86" t="s">
         <v>116</v>
       </c>
-      <c r="O3" s="95">
+      <c r="O3" s="81">
         <v>43990</v>
       </c>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="97"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="95">
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="81">
         <v>43997</v>
       </c>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="99"/>
-      <c r="Y3" s="95">
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="81">
         <v>44004</v>
       </c>
-      <c r="Z3" s="96"/>
-      <c r="AA3" s="96"/>
-      <c r="AB3" s="96"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="95">
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="81">
         <v>44011</v>
       </c>
-      <c r="AE3" s="96"/>
-      <c r="AF3" s="96"/>
-      <c r="AG3" s="96"/>
-      <c r="AH3" s="99"/>
-      <c r="AI3" s="95">
+      <c r="AE3" s="82"/>
+      <c r="AF3" s="82"/>
+      <c r="AG3" s="82"/>
+      <c r="AH3" s="83"/>
+      <c r="AI3" s="81">
         <v>44018</v>
       </c>
-      <c r="AJ3" s="96"/>
-      <c r="AK3" s="96"/>
-      <c r="AL3" s="96"/>
-      <c r="AM3" s="99"/>
-      <c r="AN3" s="95">
+      <c r="AJ3" s="82"/>
+      <c r="AK3" s="82"/>
+      <c r="AL3" s="82"/>
+      <c r="AM3" s="83"/>
+      <c r="AN3" s="81">
         <v>44025</v>
       </c>
-      <c r="AO3" s="96"/>
-      <c r="AP3" s="96"/>
-      <c r="AQ3" s="96"/>
-      <c r="AR3" s="99"/>
-      <c r="AS3" s="95">
+      <c r="AO3" s="82"/>
+      <c r="AP3" s="82"/>
+      <c r="AQ3" s="82"/>
+      <c r="AR3" s="83"/>
+      <c r="AS3" s="81">
         <v>44032</v>
       </c>
-      <c r="AT3" s="96"/>
-      <c r="AU3" s="96"/>
-      <c r="AV3" s="96"/>
-      <c r="AW3" s="99"/>
-      <c r="AX3" s="95">
+      <c r="AT3" s="82"/>
+      <c r="AU3" s="82"/>
+      <c r="AV3" s="82"/>
+      <c r="AW3" s="83"/>
+      <c r="AX3" s="81">
         <v>44039</v>
       </c>
-      <c r="AY3" s="96"/>
-      <c r="AZ3" s="96"/>
-      <c r="BA3" s="96"/>
-      <c r="BB3" s="99"/>
-      <c r="BC3" s="95">
+      <c r="AY3" s="82"/>
+      <c r="AZ3" s="82"/>
+      <c r="BA3" s="82"/>
+      <c r="BB3" s="83"/>
+      <c r="BC3" s="81">
         <v>44046</v>
       </c>
-      <c r="BD3" s="96"/>
-      <c r="BE3" s="96"/>
-      <c r="BF3" s="96"/>
-      <c r="BG3" s="99"/>
-      <c r="BH3" s="95">
+      <c r="BD3" s="82"/>
+      <c r="BE3" s="82"/>
+      <c r="BF3" s="82"/>
+      <c r="BG3" s="83"/>
+      <c r="BH3" s="81">
         <v>44053</v>
       </c>
-      <c r="BI3" s="96"/>
-      <c r="BJ3" s="96"/>
-      <c r="BK3" s="96"/>
-      <c r="BL3" s="99"/>
+      <c r="BI3" s="82"/>
+      <c r="BJ3" s="82"/>
+      <c r="BK3" s="82"/>
+      <c r="BL3" s="83"/>
     </row>
     <row r="4" spans="1:64">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
       <c r="O4" s="5" t="s">
         <v>111</v>
       </c>
@@ -8129,7 +8129,7 @@
     <row r="52" spans="1:62" s="8" customFormat="1" ht="17.25" customHeight="1" outlineLevel="2">
       <c r="A52" s="26"/>
       <c r="B52" s="71"/>
-      <c r="C52" s="102" t="s">
+      <c r="C52" s="80" t="s">
         <v>348</v>
       </c>
       <c r="D52" s="29" t="s">
@@ -20444,17 +20444,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="BC2:BL2"/>
-    <mergeCell ref="BH3:BL3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="AI3:AM3"/>
-    <mergeCell ref="AN3:AR3"/>
-    <mergeCell ref="AS3:AW3"/>
-    <mergeCell ref="AI2:BB2"/>
-    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="O2:AH2"/>
     <mergeCell ref="A3:G4"/>
@@ -20471,6 +20460,17 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="BC2:BL2"/>
+    <mergeCell ref="BH3:BL3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="AI3:AM3"/>
+    <mergeCell ref="AN3:AR3"/>
+    <mergeCell ref="AS3:AW3"/>
+    <mergeCell ref="AI2:BB2"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200702.xlsx
+++ b/项目文档/项目进度/智能PDU质量管理项目_进度计划_20200702.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="392">
   <si>
     <t>标识号</t>
   </si>
@@ -1425,6 +1425,10 @@
   </si>
   <si>
     <t>1.5.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢红曼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2007,14 +2011,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2022,20 +2020,8 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2056,6 +2042,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2064,14 +2056,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2574,7 +2578,7 @@
         <xdr:cNvPr id="23" name="直接连接符 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2625,7 +2629,7 @@
         <xdr:cNvPr id="30" name="直接连接符 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2684,7 +2688,7 @@
         <xdr:cNvPr id="32" name="直接连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2743,7 +2747,7 @@
         <xdr:cNvPr id="33" name="直接连接符 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2802,7 +2806,7 @@
         <xdr:cNvPr id="35" name="直接连接符 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2861,7 +2865,7 @@
         <xdr:cNvPr id="36" name="直接连接符 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2912,7 +2916,7 @@
         <xdr:cNvPr id="40" name="直接连接符 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2971,7 +2975,7 @@
         <xdr:cNvPr id="42" name="直接连接符 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3030,7 +3034,7 @@
         <xdr:cNvPr id="43" name="直接连接符 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3081,7 +3085,7 @@
         <xdr:cNvPr id="45" name="直接连接符 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3140,7 +3144,7 @@
         <xdr:cNvPr id="47" name="直接连接符 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3199,7 +3203,7 @@
         <xdr:cNvPr id="49" name="直接连接符 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3250,7 +3254,7 @@
         <xdr:cNvPr id="52" name="直接连接符 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3309,7 +3313,7 @@
         <xdr:cNvPr id="53" name="直接连接符 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3368,7 +3372,7 @@
         <xdr:cNvPr id="55" name="直接连接符 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3427,7 +3431,7 @@
         <xdr:cNvPr id="58" name="直接连接符 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3486,7 +3490,7 @@
         <xdr:cNvPr id="59" name="直接连接符 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3545,7 +3549,7 @@
         <xdr:cNvPr id="61" name="直接连接符 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3596,7 +3600,7 @@
         <xdr:cNvPr id="63" name="直接连接符 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3647,7 +3651,7 @@
         <xdr:cNvPr id="34" name="直接连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FAE1FEC-F60E-4F76-8DFB-56868EF128C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3698,7 +3702,7 @@
         <xdr:cNvPr id="37" name="直接连接符 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3757,7 +3761,7 @@
         <xdr:cNvPr id="38" name="直接连接符 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{894705E2-E645-4392-AAB3-66EA2FD760C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4117,10 +4121,10 @@
   <dimension ref="A1:BL235"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="4" topLeftCell="O48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L56" sqref="L56"/>
+      <selection pane="bottomRight" activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -4143,215 +4147,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:64" ht="36.75" customHeight="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="81" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
       <c r="N1" s="72"/>
     </row>
     <row r="2" spans="1:64" ht="17.25" customHeight="1">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="101" t="s">
         <v>225</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="89">
+      <c r="B2" s="101"/>
+      <c r="C2" s="102">
         <f ca="1">TODAY()</f>
-        <v>44034</v>
-      </c>
-      <c r="D2" s="89"/>
-      <c r="K2" s="102" t="s">
+        <v>44035</v>
+      </c>
+      <c r="D2" s="102"/>
+      <c r="K2" s="101" t="s">
         <v>226</v>
       </c>
-      <c r="L2" s="102"/>
-      <c r="M2" s="89">
+      <c r="L2" s="101"/>
+      <c r="M2" s="102">
         <v>43992</v>
       </c>
-      <c r="N2" s="89"/>
-      <c r="O2" s="84">
+      <c r="N2" s="102"/>
+      <c r="O2" s="82">
         <v>43983</v>
       </c>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="85"/>
-      <c r="X2" s="85"/>
-      <c r="Y2" s="85"/>
-      <c r="Z2" s="85"/>
-      <c r="AA2" s="85"/>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="85"/>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="85"/>
-      <c r="AF2" s="85"/>
-      <c r="AG2" s="85"/>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="84">
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="82">
         <v>44013</v>
       </c>
-      <c r="AJ2" s="85"/>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="85"/>
-      <c r="AN2" s="85"/>
-      <c r="AO2" s="85"/>
-      <c r="AP2" s="85"/>
-      <c r="AQ2" s="85"/>
-      <c r="AR2" s="85"/>
-      <c r="AS2" s="85"/>
-      <c r="AT2" s="85"/>
-      <c r="AU2" s="85"/>
-      <c r="AV2" s="85"/>
-      <c r="AW2" s="85"/>
-      <c r="AX2" s="85"/>
-      <c r="AY2" s="85"/>
-      <c r="AZ2" s="85"/>
-      <c r="BA2" s="85"/>
-      <c r="BB2" s="88"/>
-      <c r="BC2" s="84">
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="83"/>
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="83"/>
+      <c r="AO2" s="83"/>
+      <c r="AP2" s="83"/>
+      <c r="AQ2" s="83"/>
+      <c r="AR2" s="83"/>
+      <c r="AS2" s="83"/>
+      <c r="AT2" s="83"/>
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="83"/>
+      <c r="AW2" s="83"/>
+      <c r="AX2" s="83"/>
+      <c r="AY2" s="83"/>
+      <c r="AZ2" s="83"/>
+      <c r="BA2" s="83"/>
+      <c r="BB2" s="84"/>
+      <c r="BC2" s="82">
         <v>44044</v>
       </c>
-      <c r="BD2" s="85"/>
-      <c r="BE2" s="85"/>
-      <c r="BF2" s="85"/>
-      <c r="BG2" s="85"/>
-      <c r="BH2" s="85"/>
-      <c r="BI2" s="85"/>
-      <c r="BJ2" s="85"/>
-      <c r="BK2" s="85"/>
-      <c r="BL2" s="85"/>
+      <c r="BD2" s="83"/>
+      <c r="BE2" s="83"/>
+      <c r="BF2" s="83"/>
+      <c r="BG2" s="83"/>
+      <c r="BH2" s="83"/>
+      <c r="BI2" s="83"/>
+      <c r="BJ2" s="83"/>
+      <c r="BK2" s="83"/>
+      <c r="BL2" s="83"/>
     </row>
     <row r="3" spans="1:64">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="I3" s="86" t="s">
+      <c r="I3" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="86" t="s">
+      <c r="J3" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="K3" s="86" t="s">
+      <c r="K3" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="97" t="s">
+      <c r="L3" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="M3" s="86" t="s">
+      <c r="M3" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="N3" s="86" t="s">
+      <c r="N3" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="O3" s="81">
+      <c r="O3" s="96">
         <v>43990</v>
       </c>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="81">
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="96">
         <v>43997</v>
       </c>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="81">
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="96">
         <v>44004</v>
       </c>
-      <c r="Z3" s="82"/>
-      <c r="AA3" s="82"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="83"/>
-      <c r="AD3" s="81">
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="100"/>
+      <c r="AD3" s="96">
         <v>44011</v>
       </c>
-      <c r="AE3" s="82"/>
-      <c r="AF3" s="82"/>
-      <c r="AG3" s="82"/>
-      <c r="AH3" s="83"/>
-      <c r="AI3" s="81">
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="100"/>
+      <c r="AI3" s="96">
         <v>44018</v>
       </c>
-      <c r="AJ3" s="82"/>
-      <c r="AK3" s="82"/>
-      <c r="AL3" s="82"/>
-      <c r="AM3" s="83"/>
-      <c r="AN3" s="81">
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="100"/>
+      <c r="AN3" s="96">
         <v>44025</v>
       </c>
-      <c r="AO3" s="82"/>
-      <c r="AP3" s="82"/>
-      <c r="AQ3" s="82"/>
-      <c r="AR3" s="83"/>
-      <c r="AS3" s="81">
+      <c r="AO3" s="97"/>
+      <c r="AP3" s="97"/>
+      <c r="AQ3" s="97"/>
+      <c r="AR3" s="100"/>
+      <c r="AS3" s="96">
         <v>44032</v>
       </c>
-      <c r="AT3" s="82"/>
-      <c r="AU3" s="82"/>
-      <c r="AV3" s="82"/>
-      <c r="AW3" s="83"/>
-      <c r="AX3" s="81">
+      <c r="AT3" s="97"/>
+      <c r="AU3" s="97"/>
+      <c r="AV3" s="97"/>
+      <c r="AW3" s="100"/>
+      <c r="AX3" s="96">
         <v>44039</v>
       </c>
-      <c r="AY3" s="82"/>
-      <c r="AZ3" s="82"/>
-      <c r="BA3" s="82"/>
-      <c r="BB3" s="83"/>
-      <c r="BC3" s="81">
+      <c r="AY3" s="97"/>
+      <c r="AZ3" s="97"/>
+      <c r="BA3" s="97"/>
+      <c r="BB3" s="100"/>
+      <c r="BC3" s="96">
         <v>44046</v>
       </c>
-      <c r="BD3" s="82"/>
-      <c r="BE3" s="82"/>
-      <c r="BF3" s="82"/>
-      <c r="BG3" s="83"/>
-      <c r="BH3" s="81">
+      <c r="BD3" s="97"/>
+      <c r="BE3" s="97"/>
+      <c r="BF3" s="97"/>
+      <c r="BG3" s="100"/>
+      <c r="BH3" s="96">
         <v>44053</v>
       </c>
-      <c r="BI3" s="82"/>
-      <c r="BJ3" s="82"/>
-      <c r="BK3" s="82"/>
-      <c r="BL3" s="83"/>
+      <c r="BI3" s="97"/>
+      <c r="BJ3" s="97"/>
+      <c r="BK3" s="97"/>
+      <c r="BL3" s="100"/>
     </row>
     <row r="4" spans="1:64">
-      <c r="A4" s="94"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
       <c r="O4" s="5" t="s">
         <v>111</v>
       </c>
@@ -7260,7 +7264,7 @@
       <c r="L40" s="42"/>
       <c r="M40" s="40"/>
       <c r="N40" s="64" t="s">
-        <v>211</v>
+        <v>391</v>
       </c>
       <c r="O40" s="67"/>
       <c r="P40" s="10"/>
@@ -20444,6 +20448,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="BC2:BL2"/>
+    <mergeCell ref="BH3:BL3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="AI3:AM3"/>
+    <mergeCell ref="AN3:AR3"/>
+    <mergeCell ref="AS3:AW3"/>
+    <mergeCell ref="AI2:BB2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="O2:AH2"/>
     <mergeCell ref="A3:G4"/>
@@ -20460,17 +20475,6 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="BC2:BL2"/>
-    <mergeCell ref="BH3:BL3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="AI3:AM3"/>
-    <mergeCell ref="AN3:AR3"/>
-    <mergeCell ref="AS3:AW3"/>
-    <mergeCell ref="AI2:BB2"/>
-    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
